--- a/data/zh-cn/events.xlsx
+++ b/data/zh-cn/events.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC45FB47-8BFF-4588-9B13-B12C4B2BD80E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D698CFB-22D7-4F1F-A61F-4D5E029B8F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5251" uniqueCount="3954">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5251" uniqueCount="3953">
   <si>
     <t>$id</t>
   </si>
@@ -9829,9 +9829,6 @@
     <t>EVT?[11420]</t>
   </si>
   <si>
-    <t>为保护言论自由，国家发文禁止媒体设置“评论精选”功能。</t>
-  </si>
-  <si>
     <t>EVT?[11421]</t>
   </si>
   <si>
@@ -12072,14 +12069,6 @@
   </si>
   <si>
     <t>((INT&gt;10)&amp;(EVT?[11288]))|(TLT?[2022])</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>【绝密消息】快20个群都加满了，不加了不加了，关注策划的贴吧号神户小德，或者B站账号神户艾兰德吧</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>【绝密消息】后续我们想制作可以让玩家自己上传事件、自己设计天赋的编辑器，不过还处于新建文件夹状态（</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -12346,10 +12335,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>【绝密消息】新年快乐~</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>【绝密消息】现在已经没多少活跃玩家了，过阵子人更少的话，文案是不是可以更加放飞自我了（误</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -12524,10 +12509,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>新辟谣法规定，在辟谣时对细枝末节辟谣，或者故意制造一个更小的谣言后辟谣来转移视线，都涉嫌违法。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>上海市捐赠给贫困县的物资在当地竟被撕下标签后高价售卖，上海市政府在新闻发布会上痛斥这种卑劣行径。</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -12545,6 +12526,22 @@
   </si>
   <si>
     <t>在某鉴宝节目上，专家一眼就判定了赝品，在收藏者的坚持下，专家仔细观察后订正了自己的看法，鉴定为真。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>《国际歌》在新时代重放光芒，成为年度流行歌。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>为保护言论自由，国家发文禁止媒体设置“评论精选”功能。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>【绝密消息】快20个群都加满了，不加了不加了，关注策划的贴吧号或者B站账号神户小德吧</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>【绝密消息】本游戏的制作者正在制作一个新游戏……对博弈感兴趣的可以加群258848924</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -13150,10 +13147,10 @@
   <dimension ref="A1:Q1768"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="K1641" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C959" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1650" sqref="B1650"/>
+      <selection pane="bottomRight" activeCell="B968" sqref="B968"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -13182,7 +13179,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>3847</v>
+        <v>3846</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -13203,10 +13200,10 @@
         <v>7</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>3409</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>3410</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>3411</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>8</v>
@@ -13218,10 +13215,10 @@
         <v>10</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>3419</v>
+        <v>3418</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>3419</v>
+        <v>3418</v>
       </c>
       <c r="Q1" s="7" t="s">
         <v>11</v>
@@ -13235,7 +13232,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>3848</v>
+        <v>3847</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>14</v>
@@ -13259,7 +13256,7 @@
         <v>20</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>3412</v>
+        <v>3411</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>21</v>
@@ -13274,7 +13271,7 @@
         <v>24</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>3418</v>
+        <v>3417</v>
       </c>
       <c r="Q2" s="14" t="s">
         <v>25</v>
@@ -13304,13 +13301,13 @@
       <c r="M3" s="18"/>
       <c r="N3" s="18"/>
       <c r="O3" s="19" t="s">
-        <v>3944</v>
+        <v>3940</v>
       </c>
       <c r="P3" s="19" t="s">
-        <v>3945</v>
+        <v>3941</v>
       </c>
       <c r="Q3" s="20" t="s">
-        <v>3946</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -13318,7 +13315,7 @@
         <v>20000</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>3858</v>
+        <v>3855</v>
       </c>
       <c r="C4" s="15">
         <v>3</v>
@@ -13347,7 +13344,7 @@
         <v>20002</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>3860</v>
+        <v>3857</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="16"/>
@@ -13360,13 +13357,13 @@
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
       <c r="M5" s="18" t="s">
-        <v>3861</v>
+        <v>3858</v>
       </c>
       <c r="N5" s="18" t="s">
-        <v>3357</v>
+        <v>3356</v>
       </c>
       <c r="O5" s="19" t="s">
-        <v>3862</v>
+        <v>3859</v>
       </c>
       <c r="P5" s="19"/>
       <c r="Q5" s="20"/>
@@ -13376,7 +13373,7 @@
         <v>20001</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>3859</v>
+        <v>3856</v>
       </c>
       <c r="C6" s="15">
         <v>3</v>
@@ -13478,7 +13475,7 @@
         <v>33</v>
       </c>
       <c r="O9" s="19" t="s">
-        <v>3857</v>
+        <v>3854</v>
       </c>
       <c r="P9" s="19"/>
       <c r="Q9" s="20" t="s">
@@ -13790,7 +13787,7 @@
         <v>60</v>
       </c>
       <c r="N20" s="18" t="s">
-        <v>3735</v>
+        <v>3734</v>
       </c>
       <c r="O20" s="19"/>
       <c r="P20" s="19"/>
@@ -13848,7 +13845,7 @@
         <v>60</v>
       </c>
       <c r="N22" s="18" t="s">
-        <v>3736</v>
+        <v>3735</v>
       </c>
       <c r="O22" s="19"/>
       <c r="P22" s="19"/>
@@ -13912,7 +13909,7 @@
         <v>69</v>
       </c>
       <c r="N24" s="18" t="s">
-        <v>3737</v>
+        <v>3736</v>
       </c>
       <c r="O24" s="19" t="s">
         <v>70</v>
@@ -13947,7 +13944,7 @@
         <v>69</v>
       </c>
       <c r="N25" s="18" t="s">
-        <v>3738</v>
+        <v>3737</v>
       </c>
       <c r="O25" s="19" t="s">
         <v>72</v>
@@ -14855,7 +14852,7 @@
         <v>60</v>
       </c>
       <c r="N55" s="18" t="s">
-        <v>3837</v>
+        <v>3836</v>
       </c>
       <c r="O55" s="19" t="s">
         <v>124</v>
@@ -16336,7 +16333,7 @@
       </c>
       <c r="O106" s="19"/>
       <c r="P106" s="19" t="s">
-        <v>3746</v>
+        <v>3745</v>
       </c>
       <c r="Q106" s="20" t="s">
         <v>287</v>
@@ -16369,7 +16366,7 @@
       <c r="N107" s="18"/>
       <c r="O107" s="19"/>
       <c r="P107" s="19" t="s">
-        <v>3746</v>
+        <v>3745</v>
       </c>
       <c r="Q107" s="20" t="s">
         <v>287</v>
@@ -18406,7 +18403,7 @@
         <v>10155</v>
       </c>
       <c r="B178" s="15" t="s">
-        <v>3674</v>
+        <v>3673</v>
       </c>
       <c r="C178" s="15"/>
       <c r="D178" s="16"/>
@@ -20030,7 +20027,7 @@
         <v>599</v>
       </c>
       <c r="N234" s="18" t="s">
-        <v>3442</v>
+        <v>3441</v>
       </c>
       <c r="O234" s="19"/>
       <c r="P234" s="19"/>
@@ -20056,10 +20053,10 @@
       <c r="K235" s="17"/>
       <c r="L235" s="17"/>
       <c r="M235" s="18" t="s">
-        <v>3441</v>
+        <v>3440</v>
       </c>
       <c r="N235" s="18" t="s">
-        <v>3443</v>
+        <v>3442</v>
       </c>
       <c r="O235" s="19"/>
       <c r="P235" s="19"/>
@@ -20088,7 +20085,7 @@
         <v>612</v>
       </c>
       <c r="N236" s="18" t="s">
-        <v>3444</v>
+        <v>3443</v>
       </c>
       <c r="O236" s="19"/>
       <c r="P236" s="19"/>
@@ -20146,10 +20143,10 @@
       <c r="N238" s="18"/>
       <c r="O238" s="19"/>
       <c r="P238" s="19" t="s">
+        <v>3746</v>
+      </c>
+      <c r="Q238" s="20" t="s">
         <v>3747</v>
-      </c>
-      <c r="Q238" s="20" t="s">
-        <v>3748</v>
       </c>
     </row>
     <row r="239" spans="1:17" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20157,7 +20154,7 @@
         <v>10214</v>
       </c>
       <c r="B239" s="15" t="s">
-        <v>3570</v>
+        <v>3569</v>
       </c>
       <c r="C239" s="15"/>
       <c r="D239" s="16"/>
@@ -20233,10 +20230,10 @@
       <c r="N241" s="18"/>
       <c r="O241" s="19"/>
       <c r="P241" s="19" t="s">
-        <v>3747</v>
+        <v>3746</v>
       </c>
       <c r="Q241" s="20" t="s">
-        <v>3749</v>
+        <v>3748</v>
       </c>
     </row>
     <row r="242" spans="1:17" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -20451,7 +20448,7 @@
       <c r="K248" s="17"/>
       <c r="L248" s="17"/>
       <c r="M248" s="18" t="s">
-        <v>3571</v>
+        <v>3570</v>
       </c>
       <c r="N248" s="18" t="s">
         <v>638</v>
@@ -20657,7 +20654,7 @@
         <v>656</v>
       </c>
       <c r="N255" s="18" t="s">
-        <v>3510</v>
+        <v>3509</v>
       </c>
       <c r="O255" s="19"/>
       <c r="P255" s="19"/>
@@ -20686,7 +20683,7 @@
         <v>658</v>
       </c>
       <c r="N256" s="18" t="s">
-        <v>3511</v>
+        <v>3510</v>
       </c>
       <c r="O256" s="19" t="s">
         <v>659</v>
@@ -20804,7 +20801,7 @@
         <v>668</v>
       </c>
       <c r="N260" s="18" t="s">
-        <v>3512</v>
+        <v>3511</v>
       </c>
       <c r="O260" s="19"/>
       <c r="P260" s="19"/>
@@ -20860,7 +20857,7 @@
         <v>60</v>
       </c>
       <c r="N262" s="21" t="s">
-        <v>3513</v>
+        <v>3512</v>
       </c>
       <c r="O262" s="19"/>
       <c r="P262" s="19"/>
@@ -21111,7 +21108,7 @@
         <v>695</v>
       </c>
       <c r="N271" s="18" t="s">
-        <v>3446</v>
+        <v>3445</v>
       </c>
       <c r="O271" s="19"/>
       <c r="P271" s="19"/>
@@ -21140,7 +21137,7 @@
         <v>697</v>
       </c>
       <c r="N272" s="18" t="s">
-        <v>3445</v>
+        <v>3444</v>
       </c>
       <c r="O272" s="19"/>
       <c r="P272" s="19"/>
@@ -21235,10 +21232,10 @@
       </c>
       <c r="O275" s="19"/>
       <c r="P275" s="19" t="s">
-        <v>3747</v>
+        <v>3746</v>
       </c>
       <c r="Q275" s="20" t="s">
-        <v>3750</v>
+        <v>3749</v>
       </c>
     </row>
     <row r="276" spans="1:17" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21743,10 +21740,10 @@
       </c>
       <c r="O293" s="19"/>
       <c r="P293" s="19" t="s">
-        <v>3747</v>
+        <v>3746</v>
       </c>
       <c r="Q293" s="20" t="s">
-        <v>3751</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="294" spans="1:17" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -22114,7 +22111,7 @@
         <v>752</v>
       </c>
       <c r="N306" s="18" t="s">
-        <v>3838</v>
+        <v>3837</v>
       </c>
       <c r="O306" s="19"/>
       <c r="P306" s="19"/>
@@ -22143,7 +22140,7 @@
         <v>782</v>
       </c>
       <c r="N307" s="18" t="s">
-        <v>3839</v>
+        <v>3838</v>
       </c>
       <c r="O307" s="19"/>
       <c r="P307" s="19"/>
@@ -22172,7 +22169,7 @@
         <v>784</v>
       </c>
       <c r="N308" s="18" t="s">
-        <v>3478</v>
+        <v>3477</v>
       </c>
       <c r="O308" s="19"/>
       <c r="P308" s="19"/>
@@ -22399,13 +22396,13 @@
         <v>801</v>
       </c>
       <c r="O316" s="19" t="s">
-        <v>3401</v>
+        <v>3400</v>
       </c>
       <c r="P316" s="19" t="s">
-        <v>3747</v>
+        <v>3746</v>
       </c>
       <c r="Q316" s="20" t="s">
-        <v>3400</v>
+        <v>3399</v>
       </c>
     </row>
     <row r="317" spans="1:17" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -22432,7 +22429,7 @@
         <v>803</v>
       </c>
       <c r="O317" s="19" t="s">
-        <v>3400</v>
+        <v>3399</v>
       </c>
       <c r="P317" s="19"/>
       <c r="Q317" s="20"/>
@@ -22547,10 +22544,10 @@
         <v>809</v>
       </c>
       <c r="N321" s="18" t="s">
-        <v>3585</v>
+        <v>3584</v>
       </c>
       <c r="O321" s="19" t="s">
-        <v>3749</v>
+        <v>3748</v>
       </c>
       <c r="P321" s="19"/>
       <c r="Q321" s="20"/>
@@ -23463,13 +23460,13 @@
         <v>20323</v>
       </c>
       <c r="B353" s="15" t="s">
-        <v>3481</v>
+        <v>3480</v>
       </c>
       <c r="C353" s="15">
         <v>2</v>
       </c>
       <c r="D353" s="16" t="s">
-        <v>3482</v>
+        <v>3481</v>
       </c>
       <c r="E353" s="17"/>
       <c r="F353" s="17"/>
@@ -23485,7 +23482,7 @@
         <v>886</v>
       </c>
       <c r="N353" s="18" t="s">
-        <v>3483</v>
+        <v>3482</v>
       </c>
       <c r="O353" s="19"/>
       <c r="P353" s="19"/>
@@ -23775,13 +23772,13 @@
         <v>20332</v>
       </c>
       <c r="B363" s="15" t="s">
-        <v>3348</v>
+        <v>3347</v>
       </c>
       <c r="C363" s="15">
         <v>1</v>
       </c>
       <c r="D363" s="16" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="E363" s="17"/>
       <c r="F363" s="17"/>
@@ -23797,10 +23794,10 @@
         <v>886</v>
       </c>
       <c r="N363" s="18" t="s">
-        <v>3353</v>
+        <v>3352</v>
       </c>
       <c r="O363" s="19" t="s">
-        <v>3350</v>
+        <v>3349</v>
       </c>
       <c r="P363" s="19"/>
       <c r="Q363" s="20"/>
@@ -23810,7 +23807,7 @@
         <v>20333</v>
       </c>
       <c r="B364" s="15" t="s">
-        <v>3351</v>
+        <v>3350</v>
       </c>
       <c r="C364" s="15">
         <v>2</v>
@@ -23829,10 +23826,10 @@
       <c r="K364" s="17"/>
       <c r="L364" s="17"/>
       <c r="M364" s="18" t="s">
-        <v>3352</v>
+        <v>3351</v>
       </c>
       <c r="N364" s="18" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="O364" s="19"/>
       <c r="P364" s="19"/>
@@ -23843,11 +23840,11 @@
         <v>20334</v>
       </c>
       <c r="B365" s="15" t="s">
-        <v>3355</v>
+        <v>3354</v>
       </c>
       <c r="C365" s="15"/>
       <c r="D365" s="16" t="s">
-        <v>3356</v>
+        <v>3355</v>
       </c>
       <c r="E365" s="17"/>
       <c r="F365" s="17"/>
@@ -23858,13 +23855,13 @@
       <c r="K365" s="17"/>
       <c r="L365" s="17"/>
       <c r="M365" s="18" t="s">
-        <v>3357</v>
+        <v>3356</v>
       </c>
       <c r="N365" s="18" t="s">
-        <v>3359</v>
+        <v>3358</v>
       </c>
       <c r="O365" s="19" t="s">
-        <v>3568</v>
+        <v>3567</v>
       </c>
       <c r="P365" s="19"/>
       <c r="Q365" s="20"/>
@@ -23874,7 +23871,7 @@
         <v>20335</v>
       </c>
       <c r="B366" s="15" t="s">
-        <v>3358</v>
+        <v>3357</v>
       </c>
       <c r="C366" s="15">
         <v>1</v>
@@ -23901,11 +23898,11 @@
         <v>20336</v>
       </c>
       <c r="B367" s="15" t="s">
-        <v>3361</v>
+        <v>3360</v>
       </c>
       <c r="C367" s="15"/>
       <c r="D367" s="16" t="s">
-        <v>3362</v>
+        <v>3361</v>
       </c>
       <c r="E367" s="17"/>
       <c r="F367" s="17"/>
@@ -23916,17 +23913,17 @@
       <c r="K367" s="17"/>
       <c r="L367" s="17"/>
       <c r="M367" s="18" t="s">
-        <v>3360</v>
+        <v>3359</v>
       </c>
       <c r="N367" s="18" t="s">
-        <v>3365</v>
+        <v>3364</v>
       </c>
       <c r="O367" s="19" t="s">
-        <v>3364</v>
+        <v>3363</v>
       </c>
       <c r="P367" s="19"/>
       <c r="Q367" s="20" t="s">
-        <v>3363</v>
+        <v>3362</v>
       </c>
     </row>
     <row r="368" spans="1:17" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -23934,7 +23931,7 @@
         <v>20337</v>
       </c>
       <c r="B368" s="15" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
       <c r="C368" s="15">
         <v>1</v>
@@ -23965,7 +23962,7 @@
         <v>20338</v>
       </c>
       <c r="B369" s="15" t="s">
-        <v>3367</v>
+        <v>3366</v>
       </c>
       <c r="C369" s="15"/>
       <c r="D369" s="16"/>
@@ -23980,10 +23977,10 @@
       <c r="K369" s="17"/>
       <c r="L369" s="17"/>
       <c r="M369" s="18" t="s">
+        <v>3507</v>
+      </c>
+      <c r="N369" s="18" t="s">
         <v>3508</v>
-      </c>
-      <c r="N369" s="18" t="s">
-        <v>3509</v>
       </c>
       <c r="O369" s="19"/>
       <c r="P369" s="19"/>
@@ -23994,7 +23991,7 @@
         <v>20339</v>
       </c>
       <c r="B370" s="15" t="s">
-        <v>3368</v>
+        <v>3367</v>
       </c>
       <c r="C370" s="15"/>
       <c r="D370" s="16"/>
@@ -24007,10 +24004,10 @@
       <c r="K370" s="17"/>
       <c r="L370" s="17"/>
       <c r="M370" s="18" t="s">
-        <v>3369</v>
+        <v>3368</v>
       </c>
       <c r="N370" s="18" t="s">
-        <v>3433</v>
+        <v>3432</v>
       </c>
       <c r="O370" s="19"/>
       <c r="P370" s="19"/>
@@ -24021,7 +24018,7 @@
         <v>20340</v>
       </c>
       <c r="B371" s="15" t="s">
-        <v>3371</v>
+        <v>3370</v>
       </c>
       <c r="C371" s="15"/>
       <c r="D371" s="16"/>
@@ -24036,13 +24033,13 @@
       <c r="K371" s="17"/>
       <c r="L371" s="17"/>
       <c r="M371" s="18" t="s">
-        <v>3370</v>
+        <v>3369</v>
       </c>
       <c r="N371" s="18" t="s">
+        <v>3371</v>
+      </c>
+      <c r="O371" s="19" t="s">
         <v>3372</v>
-      </c>
-      <c r="O371" s="19" t="s">
-        <v>3373</v>
       </c>
       <c r="P371" s="19"/>
       <c r="Q371" s="20"/>
@@ -24052,7 +24049,7 @@
         <v>20341</v>
       </c>
       <c r="B372" s="15" t="s">
-        <v>3374</v>
+        <v>3373</v>
       </c>
       <c r="C372" s="15"/>
       <c r="D372" s="16"/>
@@ -24077,7 +24074,7 @@
         <v>20342</v>
       </c>
       <c r="B373" s="15" t="s">
-        <v>3375</v>
+        <v>3374</v>
       </c>
       <c r="C373" s="15"/>
       <c r="D373" s="16"/>
@@ -24090,17 +24087,17 @@
       <c r="K373" s="17"/>
       <c r="L373" s="17"/>
       <c r="M373" s="18" t="s">
+        <v>3375</v>
+      </c>
+      <c r="N373" s="18" t="s">
         <v>3376</v>
       </c>
-      <c r="N373" s="18" t="s">
-        <v>3377</v>
-      </c>
       <c r="O373" s="19" t="s">
-        <v>3379</v>
+        <v>3378</v>
       </c>
       <c r="P373" s="19"/>
       <c r="Q373" s="20" t="s">
-        <v>3378</v>
+        <v>3377</v>
       </c>
     </row>
     <row r="374" spans="1:17" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24108,7 +24105,7 @@
         <v>20343</v>
       </c>
       <c r="B374" s="15" t="s">
-        <v>3380</v>
+        <v>3379</v>
       </c>
       <c r="C374" s="15">
         <v>1</v>
@@ -24129,7 +24126,7 @@
       <c r="M374" s="18"/>
       <c r="N374" s="18"/>
       <c r="O374" s="19" t="s">
-        <v>3586</v>
+        <v>3585</v>
       </c>
       <c r="P374" s="19"/>
       <c r="Q374" s="20"/>
@@ -24139,7 +24136,7 @@
         <v>20349</v>
       </c>
       <c r="B375" s="15" t="s">
-        <v>3587</v>
+        <v>3586</v>
       </c>
       <c r="C375" s="15">
         <v>2</v>
@@ -24168,11 +24165,11 @@
         <v>20344</v>
       </c>
       <c r="B376" s="15" t="s">
-        <v>3381</v>
+        <v>3380</v>
       </c>
       <c r="C376" s="15"/>
       <c r="D376" s="16" t="s">
-        <v>3382</v>
+        <v>3381</v>
       </c>
       <c r="E376" s="17"/>
       <c r="F376" s="17"/>
@@ -24183,13 +24180,13 @@
       <c r="K376" s="17"/>
       <c r="L376" s="17"/>
       <c r="M376" s="18" t="s">
-        <v>3360</v>
+        <v>3359</v>
       </c>
       <c r="N376" s="18" t="s">
-        <v>3383</v>
+        <v>3382</v>
       </c>
       <c r="O376" s="19" t="s">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="P376" s="19"/>
       <c r="Q376" s="20"/>
@@ -24199,7 +24196,7 @@
         <v>20345</v>
       </c>
       <c r="B377" s="15" t="s">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="C377" s="15">
         <v>1</v>
@@ -24232,11 +24229,11 @@
         <v>20346</v>
       </c>
       <c r="B378" s="15" t="s">
-        <v>3386</v>
+        <v>3385</v>
       </c>
       <c r="C378" s="15"/>
       <c r="D378" s="16" t="s">
-        <v>3382</v>
+        <v>3381</v>
       </c>
       <c r="E378" s="17"/>
       <c r="F378" s="17"/>
@@ -24247,17 +24244,17 @@
       <c r="K378" s="17"/>
       <c r="L378" s="17"/>
       <c r="M378" s="18" t="s">
-        <v>3383</v>
+        <v>3382</v>
       </c>
       <c r="N378" s="18" t="s">
+        <v>3388</v>
+      </c>
+      <c r="O378" s="19" t="s">
         <v>3389</v>
-      </c>
-      <c r="O378" s="19" t="s">
-        <v>3390</v>
       </c>
       <c r="P378" s="19"/>
       <c r="Q378" s="20" t="s">
-        <v>3387</v>
+        <v>3386</v>
       </c>
     </row>
     <row r="379" spans="1:17" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24265,7 +24262,7 @@
         <v>20347</v>
       </c>
       <c r="B379" s="15" t="s">
-        <v>3388</v>
+        <v>3387</v>
       </c>
       <c r="C379" s="15">
         <v>1</v>
@@ -24298,7 +24295,7 @@
         <v>20348</v>
       </c>
       <c r="B380" s="15" t="s">
-        <v>3391</v>
+        <v>3390</v>
       </c>
       <c r="C380" s="15">
         <v>2</v>
@@ -24738,13 +24735,13 @@
         <v>40001</v>
       </c>
       <c r="B394" s="15" t="s">
-        <v>3590</v>
+        <v>3589</v>
       </c>
       <c r="C394" s="15">
         <v>3</v>
       </c>
       <c r="D394" s="16" t="s">
-        <v>3591</v>
+        <v>3590</v>
       </c>
       <c r="E394" s="17">
         <v>5</v>
@@ -24763,10 +24760,10 @@
       <c r="K394" s="17"/>
       <c r="L394" s="17"/>
       <c r="M394" s="18" t="s">
-        <v>3594</v>
+        <v>3593</v>
       </c>
       <c r="N394" s="18" t="s">
-        <v>3814</v>
+        <v>3813</v>
       </c>
       <c r="O394" s="19"/>
       <c r="P394" s="19"/>
@@ -24777,7 +24774,7 @@
         <v>40002</v>
       </c>
       <c r="B395" s="15" t="s">
-        <v>3733</v>
+        <v>3732</v>
       </c>
       <c r="C395" s="15"/>
       <c r="D395" s="16"/>
@@ -24792,10 +24789,10 @@
       <c r="K395" s="17"/>
       <c r="L395" s="17"/>
       <c r="M395" s="18" t="s">
-        <v>3813</v>
+        <v>3812</v>
       </c>
       <c r="N395" s="18" t="s">
-        <v>3610</v>
+        <v>3609</v>
       </c>
       <c r="O395" s="19"/>
       <c r="P395" s="19"/>
@@ -24806,7 +24803,7 @@
         <v>40003</v>
       </c>
       <c r="B396" s="15" t="s">
-        <v>3595</v>
+        <v>3594</v>
       </c>
       <c r="C396" s="15">
         <v>1</v>
@@ -24823,10 +24820,10 @@
       <c r="K396" s="17"/>
       <c r="L396" s="17"/>
       <c r="M396" s="18" t="s">
-        <v>3732</v>
+        <v>3731</v>
       </c>
       <c r="N396" s="18" t="s">
-        <v>3600</v>
+        <v>3599</v>
       </c>
       <c r="O396" s="19"/>
       <c r="P396" s="19"/>
@@ -24837,7 +24834,7 @@
         <v>40004</v>
       </c>
       <c r="B397" s="15" t="s">
-        <v>3596</v>
+        <v>3595</v>
       </c>
       <c r="C397" s="15">
         <v>1</v>
@@ -24854,10 +24851,10 @@
       <c r="K397" s="17"/>
       <c r="L397" s="17"/>
       <c r="M397" s="18" t="s">
-        <v>3605</v>
+        <v>3604</v>
       </c>
       <c r="N397" s="18" t="s">
-        <v>3601</v>
+        <v>3600</v>
       </c>
       <c r="O397" s="19"/>
       <c r="P397" s="19"/>
@@ -24868,7 +24865,7 @@
         <v>40005</v>
       </c>
       <c r="B398" s="15" t="s">
-        <v>3597</v>
+        <v>3596</v>
       </c>
       <c r="C398" s="15">
         <v>1</v>
@@ -24885,10 +24882,10 @@
       <c r="K398" s="17"/>
       <c r="L398" s="17"/>
       <c r="M398" s="18" t="s">
-        <v>3606</v>
+        <v>3605</v>
       </c>
       <c r="N398" s="18" t="s">
-        <v>3602</v>
+        <v>3601</v>
       </c>
       <c r="O398" s="19"/>
       <c r="P398" s="19"/>
@@ -24899,7 +24896,7 @@
         <v>40006</v>
       </c>
       <c r="B399" s="15" t="s">
-        <v>3598</v>
+        <v>3597</v>
       </c>
       <c r="C399" s="15">
         <v>1</v>
@@ -24916,10 +24913,10 @@
       <c r="K399" s="17"/>
       <c r="L399" s="17"/>
       <c r="M399" s="18" t="s">
-        <v>3813</v>
+        <v>3812</v>
       </c>
       <c r="N399" s="18" t="s">
-        <v>3611</v>
+        <v>3610</v>
       </c>
       <c r="O399" s="19"/>
       <c r="P399" s="19"/>
@@ -24930,7 +24927,7 @@
         <v>40007</v>
       </c>
       <c r="B400" s="15" t="s">
-        <v>3599</v>
+        <v>3598</v>
       </c>
       <c r="C400" s="15"/>
       <c r="D400" s="16"/>
@@ -24945,10 +24942,10 @@
       <c r="K400" s="17"/>
       <c r="L400" s="17"/>
       <c r="M400" s="18" t="s">
-        <v>3813</v>
+        <v>3812</v>
       </c>
       <c r="N400" s="18" t="s">
-        <v>3611</v>
+        <v>3610</v>
       </c>
       <c r="O400" s="19"/>
       <c r="P400" s="19"/>
@@ -24959,7 +24956,7 @@
         <v>40008</v>
       </c>
       <c r="B401" s="15" t="s">
-        <v>3603</v>
+        <v>3602</v>
       </c>
       <c r="C401" s="15"/>
       <c r="D401" s="16"/>
@@ -24976,10 +24973,10 @@
       <c r="K401" s="17"/>
       <c r="L401" s="17"/>
       <c r="M401" s="18" t="s">
-        <v>3813</v>
+        <v>3812</v>
       </c>
       <c r="N401" s="18" t="s">
-        <v>3610</v>
+        <v>3609</v>
       </c>
       <c r="O401" s="19"/>
       <c r="P401" s="19"/>
@@ -24990,7 +24987,7 @@
         <v>40009</v>
       </c>
       <c r="B402" s="15" t="s">
-        <v>3604</v>
+        <v>3603</v>
       </c>
       <c r="C402" s="15">
         <v>1</v>
@@ -25009,10 +25006,10 @@
       <c r="K402" s="17"/>
       <c r="L402" s="17"/>
       <c r="M402" s="18" t="s">
-        <v>3732</v>
+        <v>3731</v>
       </c>
       <c r="N402" s="18" t="s">
-        <v>3610</v>
+        <v>3609</v>
       </c>
       <c r="O402" s="19"/>
       <c r="P402" s="19"/>
@@ -25023,13 +25020,13 @@
         <v>40010</v>
       </c>
       <c r="B403" s="15" t="s">
-        <v>3607</v>
+        <v>3606</v>
       </c>
       <c r="C403" s="15">
         <v>2</v>
       </c>
       <c r="D403" s="16" t="s">
-        <v>3608</v>
+        <v>3607</v>
       </c>
       <c r="E403" s="17"/>
       <c r="F403" s="17"/>
@@ -25042,10 +25039,10 @@
       <c r="K403" s="17"/>
       <c r="L403" s="17"/>
       <c r="M403" s="18" t="s">
-        <v>3609</v>
+        <v>3608</v>
       </c>
       <c r="N403" s="18" t="s">
-        <v>3743</v>
+        <v>3742</v>
       </c>
       <c r="O403" s="19"/>
       <c r="P403" s="19"/>
@@ -25056,7 +25053,7 @@
         <v>40011</v>
       </c>
       <c r="B404" s="15" t="s">
-        <v>3612</v>
+        <v>3611</v>
       </c>
       <c r="C404" s="15"/>
       <c r="D404" s="16"/>
@@ -25071,10 +25068,10 @@
       <c r="K404" s="17"/>
       <c r="L404" s="17"/>
       <c r="M404" s="18" t="s">
-        <v>3610</v>
+        <v>3609</v>
       </c>
       <c r="N404" s="18" t="s">
-        <v>3639</v>
+        <v>3638</v>
       </c>
       <c r="O404" s="19"/>
       <c r="P404" s="19"/>
@@ -25085,7 +25082,7 @@
         <v>40012</v>
       </c>
       <c r="B405" s="15" t="s">
-        <v>3613</v>
+        <v>3612</v>
       </c>
       <c r="C405" s="15">
         <v>1</v>
@@ -25102,10 +25099,10 @@
       <c r="K405" s="17"/>
       <c r="L405" s="17"/>
       <c r="M405" s="18" t="s">
-        <v>3616</v>
+        <v>3615</v>
       </c>
       <c r="N405" s="18" t="s">
-        <v>3618</v>
+        <v>3617</v>
       </c>
       <c r="O405" s="19"/>
       <c r="P405" s="19"/>
@@ -25116,7 +25113,7 @@
         <v>40013</v>
       </c>
       <c r="B406" s="15" t="s">
-        <v>3614</v>
+        <v>3613</v>
       </c>
       <c r="C406" s="15">
         <v>1</v>
@@ -25133,10 +25130,10 @@
       <c r="K406" s="17"/>
       <c r="L406" s="17"/>
       <c r="M406" s="18" t="s">
-        <v>3617</v>
+        <v>3616</v>
       </c>
       <c r="N406" s="18" t="s">
-        <v>3619</v>
+        <v>3618</v>
       </c>
       <c r="O406" s="19"/>
       <c r="P406" s="19"/>
@@ -25147,7 +25144,7 @@
         <v>40014</v>
       </c>
       <c r="B407" s="15" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
       <c r="C407" s="15">
         <v>1</v>
@@ -25164,10 +25161,10 @@
       <c r="K407" s="17"/>
       <c r="L407" s="17"/>
       <c r="M407" s="18" t="s">
-        <v>3637</v>
+        <v>3636</v>
       </c>
       <c r="N407" s="18" t="s">
-        <v>3620</v>
+        <v>3619</v>
       </c>
       <c r="O407" s="19"/>
       <c r="P407" s="19"/>
@@ -25178,13 +25175,13 @@
         <v>40015</v>
       </c>
       <c r="B408" s="15" t="s">
-        <v>3621</v>
+        <v>3620</v>
       </c>
       <c r="C408" s="15">
         <v>2</v>
       </c>
       <c r="D408" s="16" t="s">
-        <v>3622</v>
+        <v>3621</v>
       </c>
       <c r="E408" s="17"/>
       <c r="F408" s="17">
@@ -25199,10 +25196,10 @@
       <c r="K408" s="17"/>
       <c r="L408" s="17"/>
       <c r="M408" s="18" t="s">
-        <v>3610</v>
+        <v>3609</v>
       </c>
       <c r="N408" s="18" t="s">
-        <v>3741</v>
+        <v>3740</v>
       </c>
       <c r="O408" s="19"/>
       <c r="P408" s="19"/>
@@ -25213,7 +25210,7 @@
         <v>40016</v>
       </c>
       <c r="B409" s="15" t="s">
-        <v>3623</v>
+        <v>3622</v>
       </c>
       <c r="C409" s="15">
         <v>2</v>
@@ -25228,10 +25225,10 @@
       <c r="K409" s="17"/>
       <c r="L409" s="17"/>
       <c r="M409" s="18" t="s">
-        <v>3610</v>
+        <v>3609</v>
       </c>
       <c r="N409" s="18" t="s">
-        <v>3742</v>
+        <v>3741</v>
       </c>
       <c r="O409" s="19"/>
       <c r="P409" s="19"/>
@@ -25242,7 +25239,7 @@
         <v>40017</v>
       </c>
       <c r="B410" s="15" t="s">
-        <v>3624</v>
+        <v>3623</v>
       </c>
       <c r="C410" s="15">
         <v>2</v>
@@ -25261,10 +25258,10 @@
       <c r="K410" s="17"/>
       <c r="L410" s="17"/>
       <c r="M410" s="18" t="s">
-        <v>3610</v>
+        <v>3609</v>
       </c>
       <c r="N410" s="18" t="s">
-        <v>3629</v>
+        <v>3628</v>
       </c>
       <c r="O410" s="19"/>
       <c r="P410" s="19"/>
@@ -25275,7 +25272,7 @@
         <v>40018</v>
       </c>
       <c r="B411" s="15" t="s">
-        <v>3625</v>
+        <v>3624</v>
       </c>
       <c r="C411" s="15">
         <v>2</v>
@@ -25294,10 +25291,10 @@
       <c r="K411" s="17"/>
       <c r="L411" s="17"/>
       <c r="M411" s="18" t="s">
-        <v>3610</v>
+        <v>3609</v>
       </c>
       <c r="N411" s="18" t="s">
-        <v>3630</v>
+        <v>3629</v>
       </c>
       <c r="O411" s="19"/>
       <c r="P411" s="19"/>
@@ -25308,7 +25305,7 @@
         <v>40019</v>
       </c>
       <c r="B412" s="15" t="s">
-        <v>3626</v>
+        <v>3625</v>
       </c>
       <c r="C412" s="15">
         <v>2</v>
@@ -25327,10 +25324,10 @@
       <c r="K412" s="17"/>
       <c r="L412" s="17"/>
       <c r="M412" s="18" t="s">
-        <v>3610</v>
+        <v>3609</v>
       </c>
       <c r="N412" s="18" t="s">
-        <v>3631</v>
+        <v>3630</v>
       </c>
       <c r="O412" s="19"/>
       <c r="P412" s="19"/>
@@ -25341,7 +25338,7 @@
         <v>40020</v>
       </c>
       <c r="B413" s="15" t="s">
-        <v>3627</v>
+        <v>3626</v>
       </c>
       <c r="C413" s="15">
         <v>2</v>
@@ -25360,10 +25357,10 @@
       <c r="K413" s="17"/>
       <c r="L413" s="17"/>
       <c r="M413" s="18" t="s">
-        <v>3610</v>
+        <v>3609</v>
       </c>
       <c r="N413" s="18" t="s">
-        <v>3632</v>
+        <v>3631</v>
       </c>
       <c r="O413" s="19"/>
       <c r="P413" s="19"/>
@@ -25374,7 +25371,7 @@
         <v>40021</v>
       </c>
       <c r="B414" s="15" t="s">
-        <v>3628</v>
+        <v>3627</v>
       </c>
       <c r="C414" s="15">
         <v>2</v>
@@ -25393,10 +25390,10 @@
       <c r="K414" s="17"/>
       <c r="L414" s="17"/>
       <c r="M414" s="18" t="s">
-        <v>3610</v>
+        <v>3609</v>
       </c>
       <c r="N414" s="18" t="s">
-        <v>3633</v>
+        <v>3632</v>
       </c>
       <c r="O414" s="19"/>
       <c r="P414" s="19"/>
@@ -25407,7 +25404,7 @@
         <v>40022</v>
       </c>
       <c r="B415" s="15" t="s">
-        <v>3634</v>
+        <v>3633</v>
       </c>
       <c r="C415" s="15">
         <v>2</v>
@@ -25424,10 +25421,10 @@
       <c r="K415" s="17"/>
       <c r="L415" s="17"/>
       <c r="M415" s="18" t="s">
-        <v>3610</v>
+        <v>3609</v>
       </c>
       <c r="N415" s="18" t="s">
-        <v>3639</v>
+        <v>3638</v>
       </c>
       <c r="O415" s="19"/>
       <c r="P415" s="19"/>
@@ -25438,13 +25435,13 @@
         <v>40023</v>
       </c>
       <c r="B416" s="15" t="s">
-        <v>3636</v>
+        <v>3635</v>
       </c>
       <c r="C416" s="15">
         <v>2</v>
       </c>
       <c r="D416" s="16" t="s">
-        <v>3635</v>
+        <v>3634</v>
       </c>
       <c r="E416" s="17"/>
       <c r="F416" s="17">
@@ -25459,10 +25456,10 @@
       <c r="K416" s="17"/>
       <c r="L416" s="17"/>
       <c r="M416" s="18" t="s">
+        <v>3637</v>
+      </c>
+      <c r="N416" s="18" t="s">
         <v>3638</v>
-      </c>
-      <c r="N416" s="18" t="s">
-        <v>3639</v>
       </c>
       <c r="O416" s="19"/>
       <c r="P416" s="19"/>
@@ -25473,7 +25470,7 @@
         <v>40024</v>
       </c>
       <c r="B417" s="15" t="s">
-        <v>3640</v>
+        <v>3639</v>
       </c>
       <c r="C417" s="15"/>
       <c r="D417" s="16"/>
@@ -25490,10 +25487,10 @@
       <c r="K417" s="17"/>
       <c r="L417" s="17"/>
       <c r="M417" s="18" t="s">
-        <v>3639</v>
+        <v>3638</v>
       </c>
       <c r="N417" s="18" t="s">
-        <v>3668</v>
+        <v>3667</v>
       </c>
       <c r="O417" s="19"/>
       <c r="P417" s="19"/>
@@ -25504,7 +25501,7 @@
         <v>40025</v>
       </c>
       <c r="B418" s="15" t="s">
-        <v>3641</v>
+        <v>3640</v>
       </c>
       <c r="C418" s="15"/>
       <c r="D418" s="16"/>
@@ -25519,10 +25516,10 @@
       <c r="K418" s="17"/>
       <c r="L418" s="17"/>
       <c r="M418" s="18" t="s">
-        <v>3639</v>
+        <v>3638</v>
       </c>
       <c r="N418" s="18" t="s">
-        <v>3668</v>
+        <v>3667</v>
       </c>
       <c r="O418" s="19"/>
       <c r="P418" s="19"/>
@@ -25533,13 +25530,13 @@
         <v>40026</v>
       </c>
       <c r="B419" s="15" t="s">
-        <v>3645</v>
+        <v>3644</v>
       </c>
       <c r="C419" s="15">
         <v>1</v>
       </c>
       <c r="D419" s="16" t="s">
-        <v>3642</v>
+        <v>3641</v>
       </c>
       <c r="E419" s="17"/>
       <c r="F419" s="17">
@@ -25554,10 +25551,10 @@
       <c r="K419" s="17"/>
       <c r="L419" s="17"/>
       <c r="M419" s="18" t="s">
-        <v>3648</v>
+        <v>3647</v>
       </c>
       <c r="N419" s="18" t="s">
-        <v>3651</v>
+        <v>3650</v>
       </c>
       <c r="O419" s="19"/>
       <c r="P419" s="19"/>
@@ -25568,13 +25565,13 @@
         <v>40027</v>
       </c>
       <c r="B420" s="15" t="s">
-        <v>3646</v>
+        <v>3645</v>
       </c>
       <c r="C420" s="15">
         <v>1</v>
       </c>
       <c r="D420" s="16" t="s">
-        <v>3643</v>
+        <v>3642</v>
       </c>
       <c r="E420" s="17"/>
       <c r="F420" s="17">
@@ -25589,10 +25586,10 @@
       <c r="K420" s="17"/>
       <c r="L420" s="17"/>
       <c r="M420" s="18" t="s">
-        <v>3649</v>
+        <v>3648</v>
       </c>
       <c r="N420" s="18" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
       <c r="O420" s="19"/>
       <c r="P420" s="19"/>
@@ -25603,13 +25600,13 @@
         <v>40028</v>
       </c>
       <c r="B421" s="15" t="s">
-        <v>3647</v>
+        <v>3646</v>
       </c>
       <c r="C421" s="15">
         <v>1</v>
       </c>
       <c r="D421" s="16" t="s">
-        <v>3644</v>
+        <v>3643</v>
       </c>
       <c r="E421" s="17"/>
       <c r="F421" s="17">
@@ -25624,10 +25621,10 @@
       <c r="K421" s="17"/>
       <c r="L421" s="17"/>
       <c r="M421" s="18" t="s">
-        <v>3650</v>
+        <v>3649</v>
       </c>
       <c r="N421" s="18" t="s">
-        <v>3653</v>
+        <v>3652</v>
       </c>
       <c r="O421" s="19"/>
       <c r="P421" s="19"/>
@@ -25638,7 +25635,7 @@
         <v>40029</v>
       </c>
       <c r="B422" s="15" t="s">
-        <v>3654</v>
+        <v>3653</v>
       </c>
       <c r="C422" s="15">
         <v>2</v>
@@ -25657,10 +25654,10 @@
       <c r="K422" s="17"/>
       <c r="L422" s="17"/>
       <c r="M422" s="18" t="s">
-        <v>3665</v>
+        <v>3664</v>
       </c>
       <c r="N422" s="18" t="s">
-        <v>3668</v>
+        <v>3667</v>
       </c>
       <c r="O422" s="19"/>
       <c r="P422" s="19"/>
@@ -25671,7 +25668,7 @@
         <v>40030</v>
       </c>
       <c r="B423" s="15" t="s">
-        <v>3655</v>
+        <v>3654</v>
       </c>
       <c r="C423" s="15">
         <v>2</v>
@@ -25690,10 +25687,10 @@
       <c r="K423" s="17"/>
       <c r="L423" s="17"/>
       <c r="M423" s="18" t="s">
-        <v>3666</v>
+        <v>3665</v>
       </c>
       <c r="N423" s="18" t="s">
-        <v>3668</v>
+        <v>3667</v>
       </c>
       <c r="O423" s="19"/>
       <c r="P423" s="19"/>
@@ -25704,7 +25701,7 @@
         <v>40031</v>
       </c>
       <c r="B424" s="15" t="s">
-        <v>3657</v>
+        <v>3656</v>
       </c>
       <c r="C424" s="15">
         <v>2</v>
@@ -25723,10 +25720,10 @@
       <c r="K424" s="17"/>
       <c r="L424" s="17"/>
       <c r="M424" s="18" t="s">
-        <v>3665</v>
+        <v>3664</v>
       </c>
       <c r="N424" s="18" t="s">
-        <v>3668</v>
+        <v>3667</v>
       </c>
       <c r="O424" s="19"/>
       <c r="P424" s="19"/>
@@ -25737,7 +25734,7 @@
         <v>40032</v>
       </c>
       <c r="B425" s="15" t="s">
-        <v>3656</v>
+        <v>3655</v>
       </c>
       <c r="C425" s="15">
         <v>2</v>
@@ -25754,10 +25751,10 @@
       <c r="K425" s="17"/>
       <c r="L425" s="17"/>
       <c r="M425" s="18" t="s">
-        <v>3649</v>
+        <v>3648</v>
       </c>
       <c r="N425" s="18" t="s">
-        <v>3691</v>
+        <v>3690</v>
       </c>
       <c r="O425" s="19"/>
       <c r="P425" s="19"/>
@@ -25768,7 +25765,7 @@
         <v>40033</v>
       </c>
       <c r="B426" s="15" t="s">
-        <v>3658</v>
+        <v>3657</v>
       </c>
       <c r="C426" s="15"/>
       <c r="D426" s="16"/>
@@ -25781,13 +25778,13 @@
       <c r="K426" s="17"/>
       <c r="L426" s="17"/>
       <c r="M426" s="18" t="s">
-        <v>3813</v>
+        <v>3812</v>
       </c>
       <c r="N426" s="18" t="s">
-        <v>3692</v>
+        <v>3691</v>
       </c>
       <c r="O426" s="19" t="s">
-        <v>3739</v>
+        <v>3738</v>
       </c>
       <c r="P426" s="19"/>
       <c r="Q426" s="20"/>
@@ -25816,10 +25813,10 @@
       <c r="K427" s="17"/>
       <c r="L427" s="17"/>
       <c r="M427" s="18" t="s">
-        <v>3611</v>
+        <v>3610</v>
       </c>
       <c r="N427" s="18" t="s">
-        <v>3659</v>
+        <v>3658</v>
       </c>
       <c r="O427" s="19"/>
       <c r="P427" s="19"/>
@@ -25849,10 +25846,10 @@
       <c r="K428" s="17"/>
       <c r="L428" s="17"/>
       <c r="M428" s="18" t="s">
-        <v>3611</v>
+        <v>3610</v>
       </c>
       <c r="N428" s="18" t="s">
-        <v>3660</v>
+        <v>3659</v>
       </c>
       <c r="O428" s="19"/>
       <c r="P428" s="19"/>
@@ -25882,10 +25879,10 @@
       <c r="K429" s="17"/>
       <c r="L429" s="17"/>
       <c r="M429" s="18" t="s">
-        <v>3611</v>
+        <v>3610</v>
       </c>
       <c r="N429" s="18" t="s">
-        <v>3661</v>
+        <v>3660</v>
       </c>
       <c r="O429" s="19"/>
       <c r="P429" s="19"/>
@@ -25915,10 +25912,10 @@
       <c r="K430" s="17"/>
       <c r="L430" s="17"/>
       <c r="M430" s="18" t="s">
-        <v>3611</v>
+        <v>3610</v>
       </c>
       <c r="N430" s="18" t="s">
-        <v>3662</v>
+        <v>3661</v>
       </c>
       <c r="O430" s="19"/>
       <c r="P430" s="19"/>
@@ -25948,10 +25945,10 @@
       <c r="K431" s="17"/>
       <c r="L431" s="17"/>
       <c r="M431" s="18" t="s">
-        <v>3611</v>
+        <v>3610</v>
       </c>
       <c r="N431" s="18" t="s">
-        <v>3663</v>
+        <v>3662</v>
       </c>
       <c r="O431" s="19"/>
       <c r="P431" s="19"/>
@@ -25962,7 +25959,7 @@
         <v>40039</v>
       </c>
       <c r="B432" s="15" t="s">
-        <v>3672</v>
+        <v>3671</v>
       </c>
       <c r="C432" s="15"/>
       <c r="D432" s="16"/>
@@ -25979,13 +25976,13 @@
       <c r="K432" s="17"/>
       <c r="L432" s="17"/>
       <c r="M432" s="18" t="s">
-        <v>3664</v>
+        <v>3663</v>
       </c>
       <c r="N432" s="18" t="s">
-        <v>3668</v>
+        <v>3667</v>
       </c>
       <c r="O432" s="19" t="s">
-        <v>3667</v>
+        <v>3666</v>
       </c>
       <c r="P432" s="19"/>
       <c r="Q432" s="20"/>
@@ -25995,7 +25992,7 @@
         <v>40040</v>
       </c>
       <c r="B433" s="15" t="s">
-        <v>3669</v>
+        <v>3668</v>
       </c>
       <c r="C433" s="15">
         <v>3</v>
@@ -26022,7 +26019,7 @@
         <v>40041</v>
       </c>
       <c r="B434" s="15" t="s">
-        <v>3670</v>
+        <v>3669</v>
       </c>
       <c r="C434" s="15"/>
       <c r="D434" s="16"/>
@@ -26035,13 +26032,13 @@
       <c r="K434" s="17"/>
       <c r="L434" s="17"/>
       <c r="M434" s="18" t="s">
-        <v>3813</v>
+        <v>3812</v>
       </c>
       <c r="N434" s="18" t="s">
-        <v>3724</v>
+        <v>3723</v>
       </c>
       <c r="O434" s="19" t="s">
-        <v>3739</v>
+        <v>3738</v>
       </c>
       <c r="P434" s="19"/>
       <c r="Q434" s="20"/>
@@ -26051,7 +26048,7 @@
         <v>40042</v>
       </c>
       <c r="B435" s="15" t="s">
-        <v>3679</v>
+        <v>3678</v>
       </c>
       <c r="C435" s="15"/>
       <c r="D435" s="16"/>
@@ -26064,10 +26061,10 @@
       <c r="K435" s="17"/>
       <c r="L435" s="17"/>
       <c r="M435" s="18" t="s">
-        <v>3677</v>
+        <v>3676</v>
       </c>
       <c r="N435" s="18" t="s">
-        <v>3681</v>
+        <v>3680</v>
       </c>
       <c r="O435" s="19"/>
       <c r="P435" s="19"/>
@@ -26078,7 +26075,7 @@
         <v>40043</v>
       </c>
       <c r="B436" s="15" t="s">
-        <v>3678</v>
+        <v>3677</v>
       </c>
       <c r="C436" s="15"/>
       <c r="D436" s="16"/>
@@ -26091,10 +26088,10 @@
       <c r="K436" s="17"/>
       <c r="L436" s="17"/>
       <c r="M436" s="18" t="s">
-        <v>3681</v>
+        <v>3680</v>
       </c>
       <c r="N436" s="18" t="s">
-        <v>3701</v>
+        <v>3700</v>
       </c>
       <c r="O436" s="19"/>
       <c r="P436" s="19"/>
@@ -26105,7 +26102,7 @@
         <v>40044</v>
       </c>
       <c r="B437" s="15" t="s">
-        <v>3682</v>
+        <v>3681</v>
       </c>
       <c r="C437" s="15"/>
       <c r="D437" s="16"/>
@@ -26118,10 +26115,10 @@
       <c r="K437" s="17"/>
       <c r="L437" s="17"/>
       <c r="M437" s="18" t="s">
-        <v>3681</v>
+        <v>3680</v>
       </c>
       <c r="N437" s="18" t="s">
-        <v>3701</v>
+        <v>3700</v>
       </c>
       <c r="O437" s="19"/>
       <c r="P437" s="19"/>
@@ -26132,7 +26129,7 @@
         <v>40045</v>
       </c>
       <c r="B438" s="15" t="s">
-        <v>3683</v>
+        <v>3682</v>
       </c>
       <c r="C438" s="15"/>
       <c r="D438" s="16"/>
@@ -26145,10 +26142,10 @@
       <c r="K438" s="17"/>
       <c r="L438" s="17"/>
       <c r="M438" s="18" t="s">
-        <v>3680</v>
+        <v>3679</v>
       </c>
       <c r="N438" s="18" t="s">
-        <v>3701</v>
+        <v>3700</v>
       </c>
       <c r="O438" s="19"/>
       <c r="P438" s="19"/>
@@ -26159,11 +26156,11 @@
         <v>40046</v>
       </c>
       <c r="B439" s="15" t="s">
-        <v>3684</v>
+        <v>3683</v>
       </c>
       <c r="C439" s="15"/>
       <c r="D439" s="16" t="s">
-        <v>3685</v>
+        <v>3684</v>
       </c>
       <c r="E439" s="17"/>
       <c r="F439" s="17"/>
@@ -26174,10 +26171,10 @@
       <c r="K439" s="17"/>
       <c r="L439" s="17"/>
       <c r="M439" s="18" t="s">
-        <v>3680</v>
+        <v>3679</v>
       </c>
       <c r="N439" s="18" t="s">
-        <v>3701</v>
+        <v>3700</v>
       </c>
       <c r="O439" s="19"/>
       <c r="P439" s="19"/>
@@ -26188,13 +26185,13 @@
         <v>40047</v>
       </c>
       <c r="B440" s="15" t="s">
-        <v>3684</v>
+        <v>3683</v>
       </c>
       <c r="C440" s="15">
         <v>2</v>
       </c>
       <c r="D440" s="16" t="s">
-        <v>3686</v>
+        <v>3685</v>
       </c>
       <c r="E440" s="17"/>
       <c r="F440" s="17"/>
@@ -26205,10 +26202,10 @@
       <c r="K440" s="17"/>
       <c r="L440" s="17"/>
       <c r="M440" s="18" t="s">
-        <v>3680</v>
+        <v>3679</v>
       </c>
       <c r="N440" s="18" t="s">
-        <v>3700</v>
+        <v>3699</v>
       </c>
       <c r="O440" s="19"/>
       <c r="P440" s="19"/>
@@ -26219,13 +26216,13 @@
         <v>40048</v>
       </c>
       <c r="B441" s="15" t="s">
-        <v>3684</v>
+        <v>3683</v>
       </c>
       <c r="C441" s="15">
         <v>2</v>
       </c>
       <c r="D441" s="16" t="s">
-        <v>3688</v>
+        <v>3687</v>
       </c>
       <c r="E441" s="17"/>
       <c r="F441" s="17"/>
@@ -26236,10 +26233,10 @@
       <c r="K441" s="17"/>
       <c r="L441" s="17"/>
       <c r="M441" s="18" t="s">
-        <v>3687</v>
+        <v>3686</v>
       </c>
       <c r="N441" s="18" t="s">
-        <v>3699</v>
+        <v>3698</v>
       </c>
       <c r="O441" s="19"/>
       <c r="P441" s="19"/>
@@ -26250,13 +26247,13 @@
         <v>40049</v>
       </c>
       <c r="B442" s="15" t="s">
-        <v>3684</v>
+        <v>3683</v>
       </c>
       <c r="C442" s="15">
         <v>3</v>
       </c>
       <c r="D442" s="16" t="s">
-        <v>3690</v>
+        <v>3689</v>
       </c>
       <c r="E442" s="17"/>
       <c r="F442" s="17"/>
@@ -26267,10 +26264,10 @@
       <c r="K442" s="17"/>
       <c r="L442" s="17"/>
       <c r="M442" s="18" t="s">
-        <v>3689</v>
+        <v>3688</v>
       </c>
       <c r="N442" s="18" t="s">
-        <v>3701</v>
+        <v>3700</v>
       </c>
       <c r="O442" s="19"/>
       <c r="P442" s="19"/>
@@ -26281,13 +26278,13 @@
         <v>40050</v>
       </c>
       <c r="B443" s="15" t="s">
-        <v>3693</v>
+        <v>3692</v>
       </c>
       <c r="C443" s="15">
         <v>3</v>
       </c>
       <c r="D443" s="16" t="s">
-        <v>3694</v>
+        <v>3693</v>
       </c>
       <c r="E443" s="17"/>
       <c r="F443" s="17"/>
@@ -26300,7 +26297,7 @@
       <c r="K443" s="17"/>
       <c r="L443" s="17"/>
       <c r="M443" s="18" t="s">
-        <v>3695</v>
+        <v>3694</v>
       </c>
       <c r="N443" s="18"/>
       <c r="O443" s="19"/>
@@ -26312,13 +26309,13 @@
         <v>40051</v>
       </c>
       <c r="B444" s="15" t="s">
-        <v>3696</v>
+        <v>3695</v>
       </c>
       <c r="C444" s="15">
         <v>3</v>
       </c>
       <c r="D444" s="16" t="s">
-        <v>3702</v>
+        <v>3701</v>
       </c>
       <c r="E444" s="17"/>
       <c r="F444" s="17"/>
@@ -26329,10 +26326,10 @@
       <c r="K444" s="17"/>
       <c r="L444" s="17"/>
       <c r="M444" s="18" t="s">
+        <v>3696</v>
+      </c>
+      <c r="N444" s="18" t="s">
         <v>3697</v>
-      </c>
-      <c r="N444" s="18" t="s">
-        <v>3698</v>
       </c>
       <c r="O444" s="19"/>
       <c r="P444" s="19"/>
@@ -26343,13 +26340,13 @@
         <v>40052</v>
       </c>
       <c r="B445" s="15" t="s">
-        <v>3717</v>
+        <v>3716</v>
       </c>
       <c r="C445" s="15">
         <v>3</v>
       </c>
       <c r="D445" s="16" t="s">
-        <v>3705</v>
+        <v>3704</v>
       </c>
       <c r="E445" s="17"/>
       <c r="F445" s="17"/>
@@ -26360,10 +26357,10 @@
       <c r="K445" s="17"/>
       <c r="L445" s="17"/>
       <c r="M445" s="18" t="s">
+        <v>3702</v>
+      </c>
+      <c r="N445" s="18" t="s">
         <v>3703</v>
-      </c>
-      <c r="N445" s="18" t="s">
-        <v>3704</v>
       </c>
       <c r="O445" s="19"/>
       <c r="P445" s="19"/>
@@ -26374,7 +26371,7 @@
         <v>40053</v>
       </c>
       <c r="B446" s="15" t="s">
-        <v>3706</v>
+        <v>3705</v>
       </c>
       <c r="C446" s="15">
         <v>3</v>
@@ -26391,10 +26388,10 @@
       <c r="K446" s="17"/>
       <c r="L446" s="17"/>
       <c r="M446" s="18" t="s">
-        <v>3704</v>
+        <v>3703</v>
       </c>
       <c r="N446" s="18" t="s">
-        <v>3707</v>
+        <v>3706</v>
       </c>
       <c r="O446" s="19"/>
       <c r="P446" s="19"/>
@@ -26405,7 +26402,7 @@
         <v>40054</v>
       </c>
       <c r="B447" s="15" t="s">
-        <v>3710</v>
+        <v>3709</v>
       </c>
       <c r="C447" s="15">
         <v>3</v>
@@ -26420,17 +26417,17 @@
       <c r="K447" s="17"/>
       <c r="L447" s="17"/>
       <c r="M447" s="18" t="s">
+        <v>3706</v>
+      </c>
+      <c r="N447" s="18" t="s">
         <v>3707</v>
       </c>
-      <c r="N447" s="18" t="s">
-        <v>3708</v>
-      </c>
       <c r="O447" s="19" t="s">
-        <v>3712</v>
+        <v>3711</v>
       </c>
       <c r="P447" s="19"/>
       <c r="Q447" s="20" t="s">
-        <v>3713</v>
+        <v>3712</v>
       </c>
     </row>
     <row r="448" spans="1:17" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26438,7 +26435,7 @@
         <v>40055</v>
       </c>
       <c r="B448" s="15" t="s">
-        <v>3711</v>
+        <v>3710</v>
       </c>
       <c r="C448" s="15">
         <v>3</v>
@@ -26457,11 +26454,11 @@
       <c r="M448" s="18"/>
       <c r="N448" s="18"/>
       <c r="O448" s="19" t="s">
-        <v>3714</v>
+        <v>3713</v>
       </c>
       <c r="P448" s="19"/>
       <c r="Q448" s="20" t="s">
-        <v>3709</v>
+        <v>3708</v>
       </c>
     </row>
     <row r="449" spans="1:17" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26469,7 +26466,7 @@
         <v>40056</v>
       </c>
       <c r="B449" s="15" t="s">
-        <v>3718</v>
+        <v>3717</v>
       </c>
       <c r="C449" s="15">
         <v>3</v>
@@ -26488,11 +26485,11 @@
       <c r="M449" s="18"/>
       <c r="N449" s="18"/>
       <c r="O449" s="19" t="s">
-        <v>3716</v>
+        <v>3715</v>
       </c>
       <c r="P449" s="19"/>
       <c r="Q449" s="20" t="s">
-        <v>3715</v>
+        <v>3714</v>
       </c>
     </row>
     <row r="450" spans="1:17" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26500,7 +26497,7 @@
         <v>40057</v>
       </c>
       <c r="B450" s="15" t="s">
-        <v>3719</v>
+        <v>3718</v>
       </c>
       <c r="C450" s="15">
         <v>3</v>
@@ -26519,7 +26516,7 @@
       <c r="M450" s="18"/>
       <c r="N450" s="18"/>
       <c r="O450" s="19" t="s">
-        <v>3720</v>
+        <v>3719</v>
       </c>
       <c r="P450" s="19"/>
       <c r="Q450" s="20"/>
@@ -26529,7 +26526,7 @@
         <v>40058</v>
       </c>
       <c r="B451" s="15" t="s">
-        <v>3722</v>
+        <v>3721</v>
       </c>
       <c r="C451" s="15">
         <v>3</v>
@@ -26566,7 +26563,7 @@
         <v>40059</v>
       </c>
       <c r="B452" s="15" t="s">
-        <v>3721</v>
+        <v>3720</v>
       </c>
       <c r="C452" s="15">
         <v>3</v>
@@ -26583,7 +26580,7 @@
       <c r="K452" s="17"/>
       <c r="L452" s="17"/>
       <c r="M452" s="18" t="s">
-        <v>3723</v>
+        <v>3722</v>
       </c>
       <c r="N452" s="18"/>
       <c r="O452" s="19"/>
@@ -26595,13 +26592,13 @@
         <v>40060</v>
       </c>
       <c r="B453" s="15" t="s">
-        <v>3725</v>
+        <v>3724</v>
       </c>
       <c r="C453" s="15">
         <v>1</v>
       </c>
       <c r="D453" s="16" t="s">
-        <v>3726</v>
+        <v>3725</v>
       </c>
       <c r="E453" s="17"/>
       <c r="F453" s="17"/>
@@ -26612,10 +26609,10 @@
       <c r="K453" s="17"/>
       <c r="L453" s="17"/>
       <c r="M453" s="18" t="s">
-        <v>3727</v>
+        <v>3726</v>
       </c>
       <c r="N453" s="18" t="s">
-        <v>3729</v>
+        <v>3728</v>
       </c>
       <c r="O453" s="19"/>
       <c r="P453" s="19"/>
@@ -26626,13 +26623,13 @@
         <v>40061</v>
       </c>
       <c r="B454" s="15" t="s">
-        <v>3730</v>
+        <v>3729</v>
       </c>
       <c r="C454" s="15">
         <v>3</v>
       </c>
       <c r="D454" s="16" t="s">
-        <v>3731</v>
+        <v>3730</v>
       </c>
       <c r="E454" s="17">
         <v>2</v>
@@ -26649,10 +26646,10 @@
       <c r="K454" s="17"/>
       <c r="L454" s="17"/>
       <c r="M454" s="18" t="s">
-        <v>3728</v>
+        <v>3727</v>
       </c>
       <c r="N454" s="18" t="s">
-        <v>3734</v>
+        <v>3733</v>
       </c>
       <c r="O454" s="19"/>
       <c r="P454" s="19"/>
@@ -26663,7 +26660,7 @@
         <v>40062</v>
       </c>
       <c r="B455" s="15" t="s">
-        <v>3745</v>
+        <v>3744</v>
       </c>
       <c r="C455" s="15">
         <v>3</v>
@@ -26684,10 +26681,10 @@
       <c r="M455" s="18"/>
       <c r="N455" s="18"/>
       <c r="O455" s="19" t="s">
+        <v>3757</v>
+      </c>
+      <c r="P455" s="19" t="s">
         <v>3758</v>
-      </c>
-      <c r="P455" s="19" t="s">
-        <v>3759</v>
       </c>
       <c r="Q455" s="20"/>
     </row>
@@ -26696,7 +26693,7 @@
         <v>40063</v>
       </c>
       <c r="B456" s="15" t="s">
-        <v>3760</v>
+        <v>3759</v>
       </c>
       <c r="C456" s="15">
         <v>3</v>
@@ -26725,11 +26722,11 @@
         <v>40064</v>
       </c>
       <c r="B457" s="15" t="s">
-        <v>3744</v>
+        <v>3743</v>
       </c>
       <c r="C457" s="15"/>
       <c r="D457" s="16" t="s">
-        <v>3763</v>
+        <v>3762</v>
       </c>
       <c r="E457" s="17"/>
       <c r="F457" s="17"/>
@@ -26754,7 +26751,7 @@
         <v>40065</v>
       </c>
       <c r="B458" s="15" t="s">
-        <v>3764</v>
+        <v>3763</v>
       </c>
       <c r="C458" s="15"/>
       <c r="D458" s="16"/>
@@ -26767,7 +26764,7 @@
       <c r="K458" s="17"/>
       <c r="L458" s="17"/>
       <c r="M458" s="18" t="s">
-        <v>3768</v>
+        <v>3767</v>
       </c>
       <c r="N458" s="18"/>
       <c r="O458" s="19"/>
@@ -26779,7 +26776,7 @@
         <v>40066</v>
       </c>
       <c r="B459" s="15" t="s">
-        <v>3761</v>
+        <v>3760</v>
       </c>
       <c r="C459" s="15"/>
       <c r="D459" s="16"/>
@@ -26792,10 +26789,10 @@
       <c r="K459" s="17"/>
       <c r="L459" s="17"/>
       <c r="M459" s="18" t="s">
-        <v>3769</v>
+        <v>3768</v>
       </c>
       <c r="N459" s="18" t="s">
-        <v>3772</v>
+        <v>3771</v>
       </c>
       <c r="O459" s="19"/>
       <c r="P459" s="19"/>
@@ -26806,7 +26803,7 @@
         <v>40067</v>
       </c>
       <c r="B460" s="15" t="s">
-        <v>3762</v>
+        <v>3761</v>
       </c>
       <c r="C460" s="15"/>
       <c r="D460" s="16"/>
@@ -26819,7 +26816,7 @@
       <c r="K460" s="17"/>
       <c r="L460" s="17"/>
       <c r="M460" s="18" t="s">
-        <v>3769</v>
+        <v>3768</v>
       </c>
       <c r="N460" s="18"/>
       <c r="O460" s="19"/>
@@ -26831,7 +26828,7 @@
         <v>40068</v>
       </c>
       <c r="B461" s="15" t="s">
-        <v>3765</v>
+        <v>3764</v>
       </c>
       <c r="C461" s="15"/>
       <c r="D461" s="16"/>
@@ -26844,7 +26841,7 @@
       <c r="K461" s="17"/>
       <c r="L461" s="17"/>
       <c r="M461" s="18" t="s">
-        <v>3770</v>
+        <v>3769</v>
       </c>
       <c r="N461" s="18"/>
       <c r="O461" s="19"/>
@@ -26856,7 +26853,7 @@
         <v>40069</v>
       </c>
       <c r="B462" s="15" t="s">
-        <v>3766</v>
+        <v>3765</v>
       </c>
       <c r="C462" s="15"/>
       <c r="D462" s="16"/>
@@ -26869,7 +26866,7 @@
       <c r="K462" s="17"/>
       <c r="L462" s="17"/>
       <c r="M462" s="18" t="s">
-        <v>3771</v>
+        <v>3770</v>
       </c>
       <c r="N462" s="18"/>
       <c r="O462" s="19"/>
@@ -26881,7 +26878,7 @@
         <v>40070</v>
       </c>
       <c r="B463" s="15" t="s">
-        <v>3767</v>
+        <v>3766</v>
       </c>
       <c r="C463" s="15"/>
       <c r="D463" s="16"/>
@@ -26894,11 +26891,11 @@
       <c r="K463" s="17"/>
       <c r="L463" s="17"/>
       <c r="M463" s="18" t="s">
-        <v>3768</v>
+        <v>3767</v>
       </c>
       <c r="N463" s="18"/>
       <c r="O463" s="19" t="s">
-        <v>3773</v>
+        <v>3772</v>
       </c>
       <c r="P463" s="19"/>
       <c r="Q463" s="20"/>
@@ -26908,7 +26905,7 @@
         <v>40071</v>
       </c>
       <c r="B464" s="15" t="s">
-        <v>3774</v>
+        <v>3773</v>
       </c>
       <c r="C464" s="15"/>
       <c r="D464" s="16"/>
@@ -26921,11 +26918,11 @@
       <c r="K464" s="17"/>
       <c r="L464" s="17"/>
       <c r="M464" s="18" t="s">
-        <v>3768</v>
+        <v>3767</v>
       </c>
       <c r="N464" s="18"/>
       <c r="O464" s="19" t="s">
-        <v>3773</v>
+        <v>3772</v>
       </c>
       <c r="P464" s="19"/>
       <c r="Q464" s="20"/>
@@ -26935,7 +26932,7 @@
         <v>40072</v>
       </c>
       <c r="B465" s="15" t="s">
-        <v>3775</v>
+        <v>3774</v>
       </c>
       <c r="C465" s="15"/>
       <c r="D465" s="16"/>
@@ -26948,11 +26945,11 @@
       <c r="K465" s="17"/>
       <c r="L465" s="17"/>
       <c r="M465" s="18" t="s">
-        <v>3770</v>
+        <v>3769</v>
       </c>
       <c r="N465" s="18"/>
       <c r="O465" s="19" t="s">
-        <v>3773</v>
+        <v>3772</v>
       </c>
       <c r="P465" s="19"/>
       <c r="Q465" s="20"/>
@@ -26962,7 +26959,7 @@
         <v>40073</v>
       </c>
       <c r="B466" s="15" t="s">
-        <v>3777</v>
+        <v>3776</v>
       </c>
       <c r="C466" s="15"/>
       <c r="D466" s="16"/>
@@ -26979,10 +26976,10 @@
       <c r="K466" s="17"/>
       <c r="L466" s="17"/>
       <c r="M466" s="18" t="s">
-        <v>3776</v>
+        <v>3775</v>
       </c>
       <c r="N466" s="18" t="s">
-        <v>3819</v>
+        <v>3818</v>
       </c>
       <c r="O466" s="19"/>
       <c r="P466" s="19"/>
@@ -26993,7 +26990,7 @@
         <v>40074</v>
       </c>
       <c r="B467" s="15" t="s">
-        <v>3781</v>
+        <v>3780</v>
       </c>
       <c r="C467" s="15"/>
       <c r="D467" s="16"/>
@@ -27008,10 +27005,10 @@
       <c r="K467" s="17"/>
       <c r="L467" s="17"/>
       <c r="M467" s="18" t="s">
-        <v>3776</v>
+        <v>3775</v>
       </c>
       <c r="N467" s="18" t="s">
-        <v>3819</v>
+        <v>3818</v>
       </c>
       <c r="O467" s="19"/>
       <c r="P467" s="19"/>
@@ -27022,7 +27019,7 @@
         <v>40075</v>
       </c>
       <c r="B468" s="15" t="s">
-        <v>3779</v>
+        <v>3778</v>
       </c>
       <c r="C468" s="15">
         <v>2</v>
@@ -27037,10 +27034,10 @@
       <c r="K468" s="17"/>
       <c r="L468" s="17"/>
       <c r="M468" s="18" t="s">
-        <v>3778</v>
+        <v>3777</v>
       </c>
       <c r="N468" s="18" t="s">
-        <v>3819</v>
+        <v>3818</v>
       </c>
       <c r="O468" s="19"/>
       <c r="P468" s="19"/>
@@ -27051,7 +27048,7 @@
         <v>40076</v>
       </c>
       <c r="B469" s="15" t="s">
-        <v>3782</v>
+        <v>3781</v>
       </c>
       <c r="C469" s="15"/>
       <c r="D469" s="16"/>
@@ -27066,10 +27063,10 @@
       <c r="K469" s="17"/>
       <c r="L469" s="17"/>
       <c r="M469" s="18" t="s">
-        <v>3780</v>
+        <v>3779</v>
       </c>
       <c r="N469" s="18" t="s">
-        <v>3820</v>
+        <v>3819</v>
       </c>
       <c r="O469" s="19"/>
       <c r="P469" s="19"/>
@@ -27080,7 +27077,7 @@
         <v>40077</v>
       </c>
       <c r="B470" s="15" t="s">
-        <v>3783</v>
+        <v>3782</v>
       </c>
       <c r="C470" s="15"/>
       <c r="D470" s="16"/>
@@ -27097,10 +27094,10 @@
       <c r="K470" s="17"/>
       <c r="L470" s="17"/>
       <c r="M470" s="18" t="s">
-        <v>3780</v>
+        <v>3779</v>
       </c>
       <c r="N470" s="18" t="s">
-        <v>3820</v>
+        <v>3819</v>
       </c>
       <c r="O470" s="19"/>
       <c r="P470" s="19"/>
@@ -27111,13 +27108,13 @@
         <v>40078</v>
       </c>
       <c r="B471" s="15" t="s">
-        <v>3784</v>
+        <v>3783</v>
       </c>
       <c r="C471" s="15">
         <v>2</v>
       </c>
       <c r="D471" s="16" t="s">
-        <v>3785</v>
+        <v>3784</v>
       </c>
       <c r="E471" s="17"/>
       <c r="F471" s="17"/>
@@ -27128,10 +27125,10 @@
       <c r="K471" s="17"/>
       <c r="L471" s="17"/>
       <c r="M471" s="18" t="s">
-        <v>3786</v>
+        <v>3785</v>
       </c>
       <c r="N471" s="18" t="s">
-        <v>3820</v>
+        <v>3819</v>
       </c>
       <c r="O471" s="19"/>
       <c r="P471" s="19"/>
@@ -27142,7 +27139,7 @@
         <v>40079</v>
       </c>
       <c r="B472" s="15" t="s">
-        <v>3787</v>
+        <v>3786</v>
       </c>
       <c r="C472" s="15"/>
       <c r="D472" s="16"/>
@@ -27155,10 +27152,10 @@
       <c r="K472" s="17"/>
       <c r="L472" s="17"/>
       <c r="M472" s="18" t="s">
-        <v>3788</v>
+        <v>3787</v>
       </c>
       <c r="N472" s="18" t="s">
-        <v>3821</v>
+        <v>3820</v>
       </c>
       <c r="O472" s="19"/>
       <c r="P472" s="19"/>
@@ -27169,7 +27166,7 @@
         <v>40080</v>
       </c>
       <c r="B473" s="15" t="s">
-        <v>3789</v>
+        <v>3788</v>
       </c>
       <c r="C473" s="15"/>
       <c r="D473" s="16"/>
@@ -27182,13 +27179,13 @@
       <c r="K473" s="17"/>
       <c r="L473" s="17"/>
       <c r="M473" s="18" t="s">
+        <v>3791</v>
+      </c>
+      <c r="N473" s="18" t="s">
+        <v>3820</v>
+      </c>
+      <c r="O473" s="19" t="s">
         <v>3792</v>
-      </c>
-      <c r="N473" s="18" t="s">
-        <v>3821</v>
-      </c>
-      <c r="O473" s="19" t="s">
-        <v>3793</v>
       </c>
       <c r="P473" s="19"/>
       <c r="Q473" s="20"/>
@@ -27198,7 +27195,7 @@
         <v>40081</v>
       </c>
       <c r="B474" s="15" t="s">
-        <v>3790</v>
+        <v>3789</v>
       </c>
       <c r="C474" s="15"/>
       <c r="D474" s="16"/>
@@ -27211,13 +27208,13 @@
       <c r="K474" s="17"/>
       <c r="L474" s="17"/>
       <c r="M474" s="18" t="s">
+        <v>3791</v>
+      </c>
+      <c r="N474" s="18" t="s">
+        <v>3820</v>
+      </c>
+      <c r="O474" s="19" t="s">
         <v>3792</v>
-      </c>
-      <c r="N474" s="18" t="s">
-        <v>3821</v>
-      </c>
-      <c r="O474" s="19" t="s">
-        <v>3793</v>
       </c>
       <c r="P474" s="19"/>
       <c r="Q474" s="20"/>
@@ -27227,7 +27224,7 @@
         <v>40082</v>
       </c>
       <c r="B475" s="15" t="s">
-        <v>3791</v>
+        <v>3790</v>
       </c>
       <c r="C475" s="15"/>
       <c r="D475" s="16"/>
@@ -27240,13 +27237,13 @@
       <c r="K475" s="17"/>
       <c r="L475" s="17"/>
       <c r="M475" s="18" t="s">
+        <v>3791</v>
+      </c>
+      <c r="N475" s="18" t="s">
+        <v>3820</v>
+      </c>
+      <c r="O475" s="19" t="s">
         <v>3792</v>
-      </c>
-      <c r="N475" s="18" t="s">
-        <v>3821</v>
-      </c>
-      <c r="O475" s="19" t="s">
-        <v>3793</v>
       </c>
       <c r="P475" s="19"/>
       <c r="Q475" s="20"/>
@@ -27256,7 +27253,7 @@
         <v>40083</v>
       </c>
       <c r="B476" s="15" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
       <c r="C476" s="15">
         <v>3</v>
@@ -27271,13 +27268,13 @@
       <c r="K476" s="17"/>
       <c r="L476" s="17"/>
       <c r="M476" s="18" t="s">
-        <v>3792</v>
+        <v>3791</v>
       </c>
       <c r="N476" s="18" t="s">
-        <v>3821</v>
+        <v>3820</v>
       </c>
       <c r="O476" s="19" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
       <c r="P476" s="19"/>
       <c r="Q476" s="20"/>
@@ -27287,7 +27284,7 @@
         <v>40084</v>
       </c>
       <c r="B477" s="15" t="s">
-        <v>3811</v>
+        <v>3810</v>
       </c>
       <c r="C477" s="15">
         <v>3</v>
@@ -27302,13 +27299,13 @@
       <c r="K477" s="17"/>
       <c r="L477" s="17"/>
       <c r="M477" s="18" t="s">
-        <v>3780</v>
+        <v>3779</v>
       </c>
       <c r="N477" s="18" t="s">
-        <v>3820</v>
+        <v>3819</v>
       </c>
       <c r="O477" s="19" t="s">
-        <v>3812</v>
+        <v>3811</v>
       </c>
       <c r="P477" s="19"/>
       <c r="Q477" s="20"/>
@@ -27334,10 +27331,10 @@
         <v>886</v>
       </c>
       <c r="N478" s="18" t="s">
-        <v>3815</v>
+        <v>3814</v>
       </c>
       <c r="O478" s="19" t="s">
-        <v>3832</v>
+        <v>3831</v>
       </c>
       <c r="P478" s="19"/>
       <c r="Q478" s="20"/>
@@ -27363,10 +27360,10 @@
         <v>886</v>
       </c>
       <c r="N479" s="18" t="s">
-        <v>3816</v>
+        <v>3815</v>
       </c>
       <c r="O479" s="19" t="s">
-        <v>3832</v>
+        <v>3831</v>
       </c>
       <c r="P479" s="19"/>
       <c r="Q479" s="20"/>
@@ -27395,7 +27392,7 @@
       <c r="K480" s="17"/>
       <c r="L480" s="17"/>
       <c r="M480" s="18" t="s">
-        <v>3593</v>
+        <v>3592</v>
       </c>
       <c r="N480" s="18" t="s">
         <v>952</v>
@@ -27428,7 +27425,7 @@
       <c r="K481" s="17"/>
       <c r="L481" s="17"/>
       <c r="M481" s="18" t="s">
-        <v>3592</v>
+        <v>3591</v>
       </c>
       <c r="N481" s="18" t="s">
         <v>955</v>
@@ -27519,7 +27516,7 @@
       <c r="K484" s="17"/>
       <c r="L484" s="17"/>
       <c r="M484" s="18" t="s">
-        <v>3873</v>
+        <v>3870</v>
       </c>
       <c r="N484" s="18" t="s">
         <v>960</v>
@@ -27888,7 +27885,7 @@
       <c r="K495" s="17"/>
       <c r="L495" s="17"/>
       <c r="M495" s="18" t="s">
-        <v>3593</v>
+        <v>3592</v>
       </c>
       <c r="N495" s="18" t="s">
         <v>995</v>
@@ -27917,7 +27914,7 @@
       <c r="K496" s="17"/>
       <c r="L496" s="17"/>
       <c r="M496" s="18" t="s">
-        <v>3593</v>
+        <v>3592</v>
       </c>
       <c r="N496" s="18"/>
       <c r="O496" s="19"/>
@@ -27951,7 +27948,7 @@
         <v>999</v>
       </c>
       <c r="N497" s="18" t="s">
-        <v>3577</v>
+        <v>3576</v>
       </c>
       <c r="O497" s="19"/>
       <c r="P497" s="19"/>
@@ -27962,7 +27959,7 @@
         <v>10366</v>
       </c>
       <c r="B498" s="15" t="s">
-        <v>3863</v>
+        <v>3860</v>
       </c>
       <c r="C498" s="15">
         <v>1</v>
@@ -27977,19 +27974,19 @@
       <c r="K498" s="17"/>
       <c r="L498" s="17"/>
       <c r="M498" s="18" t="s">
-        <v>3864</v>
+        <v>3861</v>
       </c>
       <c r="N498" s="18" t="s">
-        <v>3876</v>
+        <v>3873</v>
       </c>
       <c r="O498" s="19" t="s">
-        <v>3868</v>
+        <v>3865</v>
       </c>
       <c r="P498" s="19" t="s">
-        <v>3870</v>
+        <v>3867</v>
       </c>
       <c r="Q498" s="20" t="s">
-        <v>3869</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="499" spans="1:17" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27997,7 +27994,7 @@
         <v>20366</v>
       </c>
       <c r="B499" s="27" t="s">
-        <v>3865</v>
+        <v>3862</v>
       </c>
       <c r="C499" s="15">
         <v>2</v>
@@ -28023,7 +28020,7 @@
       <c r="N499" s="18"/>
       <c r="O499" s="19"/>
       <c r="P499" s="19" t="s">
-        <v>3872</v>
+        <v>3869</v>
       </c>
       <c r="Q499" s="20"/>
     </row>
@@ -28032,7 +28029,7 @@
         <v>20365</v>
       </c>
       <c r="B500" s="15" t="s">
-        <v>3866</v>
+        <v>3863</v>
       </c>
       <c r="C500" s="15">
         <v>1</v>
@@ -28058,7 +28055,7 @@
       <c r="N500" s="18"/>
       <c r="O500" s="19"/>
       <c r="P500" s="19" t="s">
-        <v>3872</v>
+        <v>3869</v>
       </c>
       <c r="Q500" s="20"/>
     </row>
@@ -28067,7 +28064,7 @@
         <v>20364</v>
       </c>
       <c r="B501" s="15" t="s">
-        <v>3867</v>
+        <v>3864</v>
       </c>
       <c r="C501" s="15"/>
       <c r="D501" s="16"/>
@@ -28087,7 +28084,7 @@
       <c r="N501" s="18"/>
       <c r="O501" s="19"/>
       <c r="P501" s="19" t="s">
-        <v>3872</v>
+        <v>3869</v>
       </c>
       <c r="Q501" s="20"/>
     </row>
@@ -28096,7 +28093,7 @@
         <v>20363</v>
       </c>
       <c r="B502" s="15" t="s">
-        <v>3871</v>
+        <v>3868</v>
       </c>
       <c r="C502" s="15"/>
       <c r="D502" s="16"/>
@@ -28113,13 +28110,13 @@
       <c r="M502" s="18"/>
       <c r="N502" s="18"/>
       <c r="O502" s="19" t="s">
+        <v>3871</v>
+      </c>
+      <c r="P502" s="19" t="s">
         <v>3874</v>
       </c>
-      <c r="P502" s="19" t="s">
-        <v>3877</v>
-      </c>
       <c r="Q502" s="20" t="s">
-        <v>3879</v>
+        <v>3876</v>
       </c>
     </row>
     <row r="503" spans="1:17" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -28127,7 +28124,7 @@
         <v>20362</v>
       </c>
       <c r="B503" s="15" t="s">
-        <v>3875</v>
+        <v>3872</v>
       </c>
       <c r="C503" s="15">
         <v>1</v>
@@ -28156,7 +28153,7 @@
         <v>20361</v>
       </c>
       <c r="B504" s="15" t="s">
-        <v>3878</v>
+        <v>3875</v>
       </c>
       <c r="C504" s="15"/>
       <c r="D504" s="16"/>
@@ -28198,7 +28195,7 @@
       <c r="K505" s="17"/>
       <c r="L505" s="17"/>
       <c r="M505" s="18" t="s">
-        <v>3794</v>
+        <v>3793</v>
       </c>
       <c r="N505" s="18"/>
       <c r="O505" s="19"/>
@@ -28210,13 +28207,13 @@
         <v>20367</v>
       </c>
       <c r="B506" s="15" t="s">
-        <v>3392</v>
+        <v>3391</v>
       </c>
       <c r="C506" s="15">
         <v>3</v>
       </c>
       <c r="D506" s="16" t="s">
-        <v>3393</v>
+        <v>3392</v>
       </c>
       <c r="E506" s="17"/>
       <c r="F506" s="17">
@@ -28233,10 +28230,10 @@
       <c r="K506" s="17"/>
       <c r="L506" s="17"/>
       <c r="M506" s="18" t="s">
-        <v>3808</v>
+        <v>3807</v>
       </c>
       <c r="N506" s="18" t="s">
-        <v>3671</v>
+        <v>3670</v>
       </c>
       <c r="O506" s="19"/>
       <c r="P506" s="19"/>
@@ -28261,10 +28258,10 @@
       <c r="L507" s="17"/>
       <c r="M507" s="18"/>
       <c r="N507" s="18" t="s">
-        <v>3740</v>
+        <v>3739</v>
       </c>
       <c r="O507" s="19" t="s">
-        <v>3832</v>
+        <v>3831</v>
       </c>
       <c r="P507" s="19"/>
       <c r="Q507" s="20"/>
@@ -28274,7 +28271,7 @@
         <v>20369</v>
       </c>
       <c r="B508" s="15" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
       <c r="C508" s="15"/>
       <c r="D508" s="16"/>
@@ -28287,11 +28284,11 @@
       <c r="K508" s="17"/>
       <c r="L508" s="17"/>
       <c r="M508" s="18" t="s">
-        <v>3795</v>
+        <v>3794</v>
       </c>
       <c r="N508" s="18"/>
       <c r="O508" s="19" t="s">
-        <v>3831</v>
+        <v>3830</v>
       </c>
       <c r="P508" s="19"/>
       <c r="Q508" s="20"/>
@@ -28318,7 +28315,7 @@
       <c r="K509" s="17"/>
       <c r="L509" s="17"/>
       <c r="M509" s="18" t="s">
-        <v>3796</v>
+        <v>3795</v>
       </c>
       <c r="N509" s="18" t="s">
         <v>1002</v>
@@ -28349,7 +28346,7 @@
       <c r="K510" s="17"/>
       <c r="L510" s="17"/>
       <c r="M510" s="18" t="s">
-        <v>3797</v>
+        <v>3796</v>
       </c>
       <c r="N510" s="18" t="s">
         <v>1004</v>
@@ -28380,7 +28377,7 @@
       <c r="K511" s="17"/>
       <c r="L511" s="17"/>
       <c r="M511" s="18" t="s">
-        <v>3798</v>
+        <v>3797</v>
       </c>
       <c r="N511" s="18" t="s">
         <v>1006</v>
@@ -28411,7 +28408,7 @@
       <c r="K512" s="17"/>
       <c r="L512" s="17"/>
       <c r="M512" s="18" t="s">
-        <v>3799</v>
+        <v>3798</v>
       </c>
       <c r="N512" s="18" t="s">
         <v>1008</v>
@@ -28442,7 +28439,7 @@
       <c r="K513" s="17"/>
       <c r="L513" s="17"/>
       <c r="M513" s="18" t="s">
-        <v>3800</v>
+        <v>3799</v>
       </c>
       <c r="N513" s="18" t="s">
         <v>1010</v>
@@ -28473,7 +28470,7 @@
       <c r="K514" s="17"/>
       <c r="L514" s="17"/>
       <c r="M514" s="18" t="s">
-        <v>3801</v>
+        <v>3800</v>
       </c>
       <c r="N514" s="18" t="s">
         <v>1012</v>
@@ -28504,7 +28501,7 @@
       <c r="K515" s="17"/>
       <c r="L515" s="17"/>
       <c r="M515" s="18" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="N515" s="18" t="s">
         <v>1014</v>
@@ -28535,7 +28532,7 @@
       <c r="K516" s="17"/>
       <c r="L516" s="17"/>
       <c r="M516" s="18" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="N516" s="18" t="s">
         <v>1016</v>
@@ -28568,7 +28565,7 @@
       <c r="K517" s="17"/>
       <c r="L517" s="17"/>
       <c r="M517" s="18" t="s">
-        <v>3804</v>
+        <v>3803</v>
       </c>
       <c r="N517" s="18" t="s">
         <v>1018</v>
@@ -28601,7 +28598,7 @@
       <c r="K518" s="17"/>
       <c r="L518" s="17"/>
       <c r="M518" s="18" t="s">
-        <v>3805</v>
+        <v>3804</v>
       </c>
       <c r="N518" s="18" t="s">
         <v>1020</v>
@@ -28632,7 +28629,7 @@
         <v>1018</v>
       </c>
       <c r="O519" s="19" t="s">
-        <v>3832</v>
+        <v>3831</v>
       </c>
       <c r="P519" s="19"/>
       <c r="Q519" s="20"/>
@@ -28642,13 +28639,13 @@
         <v>20380</v>
       </c>
       <c r="B520" s="15" t="s">
-        <v>3484</v>
+        <v>3483</v>
       </c>
       <c r="C520" s="15">
         <v>2</v>
       </c>
       <c r="D520" s="16" t="s">
-        <v>3487</v>
+        <v>3486</v>
       </c>
       <c r="E520" s="17"/>
       <c r="F520" s="17"/>
@@ -28661,10 +28658,10 @@
       <c r="K520" s="17"/>
       <c r="L520" s="17"/>
       <c r="M520" s="18" t="s">
-        <v>3806</v>
+        <v>3805</v>
       </c>
       <c r="N520" s="18" t="s">
-        <v>3485</v>
+        <v>3484</v>
       </c>
       <c r="O520" s="19"/>
       <c r="P520" s="19"/>
@@ -28675,13 +28672,13 @@
         <v>20381</v>
       </c>
       <c r="B521" s="15" t="s">
-        <v>3486</v>
+        <v>3485</v>
       </c>
       <c r="C521" s="15">
         <v>2</v>
       </c>
       <c r="D521" s="16" t="s">
-        <v>3488</v>
+        <v>3487</v>
       </c>
       <c r="E521" s="17"/>
       <c r="F521" s="17">
@@ -28696,10 +28693,10 @@
       <c r="K521" s="17"/>
       <c r="L521" s="17"/>
       <c r="M521" s="18" t="s">
-        <v>3806</v>
+        <v>3805</v>
       </c>
       <c r="N521" s="18" t="s">
-        <v>3489</v>
+        <v>3488</v>
       </c>
       <c r="O521" s="19"/>
       <c r="P521" s="19"/>
@@ -28710,13 +28707,13 @@
         <v>20382</v>
       </c>
       <c r="B522" s="15" t="s">
-        <v>3492</v>
+        <v>3491</v>
       </c>
       <c r="C522" s="15">
         <v>2</v>
       </c>
       <c r="D522" s="16" t="s">
-        <v>3493</v>
+        <v>3492</v>
       </c>
       <c r="E522" s="17"/>
       <c r="F522" s="17">
@@ -28733,10 +28730,10 @@
       <c r="K522" s="17"/>
       <c r="L522" s="17"/>
       <c r="M522" s="18" t="s">
-        <v>3806</v>
+        <v>3805</v>
       </c>
       <c r="N522" s="18" t="s">
-        <v>3494</v>
+        <v>3493</v>
       </c>
       <c r="O522" s="19"/>
       <c r="P522" s="19"/>
@@ -28747,13 +28744,13 @@
         <v>20383</v>
       </c>
       <c r="B523" s="15" t="s">
-        <v>3497</v>
+        <v>3496</v>
       </c>
       <c r="C523" s="15">
         <v>2</v>
       </c>
       <c r="D523" s="16" t="s">
-        <v>3498</v>
+        <v>3497</v>
       </c>
       <c r="E523" s="17"/>
       <c r="F523" s="17">
@@ -28768,10 +28765,10 @@
       <c r="K523" s="17"/>
       <c r="L523" s="17"/>
       <c r="M523" s="18" t="s">
-        <v>3806</v>
+        <v>3805</v>
       </c>
       <c r="N523" s="18" t="s">
-        <v>3495</v>
+        <v>3494</v>
       </c>
       <c r="O523" s="19"/>
       <c r="P523" s="19"/>
@@ -28782,13 +28779,13 @@
         <v>20384</v>
       </c>
       <c r="B524" s="15" t="s">
-        <v>3499</v>
+        <v>3498</v>
       </c>
       <c r="C524" s="15">
         <v>2</v>
       </c>
       <c r="D524" s="16" t="s">
-        <v>3500</v>
+        <v>3499</v>
       </c>
       <c r="E524" s="17"/>
       <c r="F524" s="17"/>
@@ -28799,10 +28796,10 @@
       <c r="K524" s="17"/>
       <c r="L524" s="17"/>
       <c r="M524" s="18" t="s">
-        <v>3806</v>
+        <v>3805</v>
       </c>
       <c r="N524" s="18" t="s">
-        <v>3496</v>
+        <v>3495</v>
       </c>
       <c r="O524" s="19"/>
       <c r="P524" s="19"/>
@@ -28832,7 +28829,7 @@
       <c r="K525" s="17"/>
       <c r="L525" s="17"/>
       <c r="M525" s="18" t="s">
-        <v>3806</v>
+        <v>3805</v>
       </c>
       <c r="N525" s="18" t="s">
         <v>1022</v>
@@ -28865,7 +28862,7 @@
       <c r="K526" s="17"/>
       <c r="L526" s="17"/>
       <c r="M526" s="18" t="s">
-        <v>3806</v>
+        <v>3805</v>
       </c>
       <c r="N526" s="18" t="s">
         <v>1024</v>
@@ -28898,7 +28895,7 @@
       <c r="K527" s="17"/>
       <c r="L527" s="17"/>
       <c r="M527" s="18" t="s">
-        <v>3806</v>
+        <v>3805</v>
       </c>
       <c r="N527" s="18" t="s">
         <v>1026</v>
@@ -28931,7 +28928,7 @@
       <c r="K528" s="17"/>
       <c r="L528" s="17"/>
       <c r="M528" s="18" t="s">
-        <v>3806</v>
+        <v>3805</v>
       </c>
       <c r="N528" s="18" t="s">
         <v>1028</v>
@@ -28964,7 +28961,7 @@
       <c r="K529" s="17"/>
       <c r="L529" s="17"/>
       <c r="M529" s="18" t="s">
-        <v>3806</v>
+        <v>3805</v>
       </c>
       <c r="N529" s="18" t="s">
         <v>1030</v>
@@ -28995,7 +28992,7 @@
       <c r="K530" s="17"/>
       <c r="L530" s="17"/>
       <c r="M530" s="18" t="s">
-        <v>3794</v>
+        <v>3793</v>
       </c>
       <c r="N530" s="18"/>
       <c r="O530" s="19"/>
@@ -29026,7 +29023,7 @@
       <c r="K531" s="17"/>
       <c r="L531" s="17"/>
       <c r="M531" s="18" t="s">
-        <v>3807</v>
+        <v>3806</v>
       </c>
       <c r="N531" s="18" t="s">
         <v>1033</v>
@@ -29059,7 +29056,7 @@
       <c r="K532" s="17"/>
       <c r="L532" s="17"/>
       <c r="M532" s="18" t="s">
-        <v>3807</v>
+        <v>3806</v>
       </c>
       <c r="N532" s="18" t="s">
         <v>1035</v>
@@ -29092,7 +29089,7 @@
       <c r="K533" s="17"/>
       <c r="L533" s="17"/>
       <c r="M533" s="18" t="s">
-        <v>3807</v>
+        <v>3806</v>
       </c>
       <c r="N533" s="18" t="s">
         <v>1037</v>
@@ -29125,7 +29122,7 @@
       <c r="K534" s="17"/>
       <c r="L534" s="17"/>
       <c r="M534" s="18" t="s">
-        <v>3807</v>
+        <v>3806</v>
       </c>
       <c r="N534" s="18" t="s">
         <v>1039</v>
@@ -29158,7 +29155,7 @@
       <c r="K535" s="17"/>
       <c r="L535" s="17"/>
       <c r="M535" s="18" t="s">
-        <v>3807</v>
+        <v>3806</v>
       </c>
       <c r="N535" s="18" t="s">
         <v>1041</v>
@@ -29172,7 +29169,7 @@
         <v>20390</v>
       </c>
       <c r="B536" s="15" t="s">
-        <v>3826</v>
+        <v>3825</v>
       </c>
       <c r="C536" s="15">
         <v>3</v>
@@ -29189,10 +29186,10 @@
       </c>
       <c r="L536" s="17"/>
       <c r="M536" s="18" t="s">
+        <v>3826</v>
+      </c>
+      <c r="N536" s="18" t="s">
         <v>3827</v>
-      </c>
-      <c r="N536" s="18" t="s">
-        <v>3828</v>
       </c>
       <c r="O536" s="19"/>
       <c r="P536" s="19"/>
@@ -29254,10 +29251,10 @@
         <v>1045</v>
       </c>
       <c r="P538" s="19" t="s">
-        <v>3421</v>
+        <v>3420</v>
       </c>
       <c r="Q538" s="20" t="s">
-        <v>3420</v>
+        <v>3419</v>
       </c>
     </row>
     <row r="539" spans="1:17" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -29287,7 +29284,7 @@
         <v>1047</v>
       </c>
       <c r="P539" s="19" t="s">
-        <v>3423</v>
+        <v>3422</v>
       </c>
       <c r="Q539" s="20" t="s">
         <v>1048</v>
@@ -29320,7 +29317,7 @@
         <v>1050</v>
       </c>
       <c r="P540" s="19" t="s">
-        <v>3424</v>
+        <v>3423</v>
       </c>
       <c r="Q540" s="20" t="s">
         <v>1051</v>
@@ -29353,7 +29350,7 @@
         <v>1053</v>
       </c>
       <c r="P541" s="19" t="s">
-        <v>3425</v>
+        <v>3424</v>
       </c>
       <c r="Q541" s="20" t="s">
         <v>1054</v>
@@ -29386,7 +29383,7 @@
         <v>1056</v>
       </c>
       <c r="P542" s="19" t="s">
-        <v>3426</v>
+        <v>3425</v>
       </c>
       <c r="Q542" s="20" t="s">
         <v>1057</v>
@@ -29419,7 +29416,7 @@
         <v>1059</v>
       </c>
       <c r="P543" s="19" t="s">
-        <v>3427</v>
+        <v>3426</v>
       </c>
       <c r="Q543" s="20" t="s">
         <v>1060</v>
@@ -29452,7 +29449,7 @@
         <v>1062</v>
       </c>
       <c r="P544" s="19" t="s">
-        <v>3428</v>
+        <v>3427</v>
       </c>
       <c r="Q544" s="20" t="s">
         <v>1063</v>
@@ -29485,7 +29482,7 @@
         <v>1065</v>
       </c>
       <c r="P545" s="19" t="s">
-        <v>3429</v>
+        <v>3428</v>
       </c>
       <c r="Q545" s="20" t="s">
         <v>1066</v>
@@ -29515,10 +29512,10 @@
       <c r="M546" s="18"/>
       <c r="N546" s="18"/>
       <c r="O546" s="19" t="s">
-        <v>3491</v>
+        <v>3490</v>
       </c>
       <c r="P546" s="19" t="s">
-        <v>3430</v>
+        <v>3429</v>
       </c>
       <c r="Q546" s="20" t="s">
         <v>1068</v>
@@ -29548,7 +29545,7 @@
       <c r="M547" s="18"/>
       <c r="N547" s="18"/>
       <c r="O547" s="19" t="s">
-        <v>3490</v>
+        <v>3489</v>
       </c>
       <c r="P547" s="19"/>
       <c r="Q547" s="20"/>
@@ -29577,13 +29574,13 @@
       <c r="M548" s="18"/>
       <c r="N548" s="18"/>
       <c r="O548" s="19" t="s">
-        <v>3394</v>
+        <v>3393</v>
       </c>
       <c r="P548" s="19" t="s">
-        <v>3432</v>
+        <v>3431</v>
       </c>
       <c r="Q548" s="20" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="549" spans="1:17" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -29610,10 +29607,10 @@
       <c r="M549" s="18"/>
       <c r="N549" s="18"/>
       <c r="O549" s="19" t="s">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="P549" s="19" t="s">
-        <v>3432</v>
+        <v>3431</v>
       </c>
       <c r="Q549" s="20" t="s">
         <v>1071</v>
@@ -29643,10 +29640,10 @@
       <c r="M550" s="18"/>
       <c r="N550" s="18"/>
       <c r="O550" s="19" t="s">
-        <v>3396</v>
+        <v>3395</v>
       </c>
       <c r="P550" s="19" t="s">
-        <v>3422</v>
+        <v>3421</v>
       </c>
       <c r="Q550" s="20" t="s">
         <v>1071</v>
@@ -29676,10 +29673,10 @@
       <c r="M551" s="18"/>
       <c r="N551" s="18"/>
       <c r="O551" s="19" t="s">
-        <v>3397</v>
+        <v>3396</v>
       </c>
       <c r="P551" s="19" t="s">
-        <v>3422</v>
+        <v>3421</v>
       </c>
       <c r="Q551" s="20" t="s">
         <v>1071</v>
@@ -29709,10 +29706,10 @@
       <c r="M552" s="18"/>
       <c r="N552" s="18"/>
       <c r="O552" s="19" t="s">
-        <v>3398</v>
+        <v>3397</v>
       </c>
       <c r="P552" s="19" t="s">
-        <v>3432</v>
+        <v>3431</v>
       </c>
       <c r="Q552" s="20" t="s">
         <v>1071</v>
@@ -29742,10 +29739,10 @@
       <c r="M553" s="18"/>
       <c r="N553" s="18"/>
       <c r="O553" s="26" t="s">
-        <v>3399</v>
+        <v>3398</v>
       </c>
       <c r="P553" s="19" t="s">
-        <v>3422</v>
+        <v>3421</v>
       </c>
       <c r="Q553" s="20" t="s">
         <v>1071</v>
@@ -29778,7 +29775,7 @@
         <v>1078</v>
       </c>
       <c r="P554" s="19" t="s">
-        <v>3422</v>
+        <v>3421</v>
       </c>
       <c r="Q554" s="20" t="s">
         <v>1071</v>
@@ -29820,13 +29817,13 @@
         <v>20409</v>
       </c>
       <c r="B556" s="15" t="s">
-        <v>3434</v>
+        <v>3433</v>
       </c>
       <c r="C556" s="15">
         <v>3</v>
       </c>
       <c r="D556" s="16" t="s">
-        <v>3435</v>
+        <v>3434</v>
       </c>
       <c r="E556" s="17"/>
       <c r="F556" s="17"/>
@@ -29853,7 +29850,7 @@
         <v>20408</v>
       </c>
       <c r="B557" s="15" t="s">
-        <v>3436</v>
+        <v>3435</v>
       </c>
       <c r="C557" s="15">
         <v>3</v>
@@ -29868,7 +29865,7 @@
       <c r="K557" s="17"/>
       <c r="L557" s="17"/>
       <c r="M557" s="18" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
       <c r="N557" s="18"/>
       <c r="O557" s="19"/>
@@ -29893,7 +29890,7 @@
       <c r="K558" s="17"/>
       <c r="L558" s="17"/>
       <c r="M558" s="18" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="N558" s="18" t="s">
         <v>1082</v>
@@ -30129,7 +30126,7 @@
         <v>10414</v>
       </c>
       <c r="B567" s="15" t="s">
-        <v>3880</v>
+        <v>3877</v>
       </c>
       <c r="C567" s="15"/>
       <c r="D567" s="16"/>
@@ -30183,7 +30180,7 @@
         <v>10416</v>
       </c>
       <c r="B569" s="15" t="s">
-        <v>3881</v>
+        <v>3878</v>
       </c>
       <c r="C569" s="15"/>
       <c r="D569" s="16"/>
@@ -30264,7 +30261,7 @@
         <v>10418</v>
       </c>
       <c r="B572" s="15" t="s">
-        <v>3882</v>
+        <v>3879</v>
       </c>
       <c r="C572" s="15"/>
       <c r="D572" s="16"/>
@@ -30291,7 +30288,7 @@
         <v>10419</v>
       </c>
       <c r="B573" s="15" t="s">
-        <v>3883</v>
+        <v>3880</v>
       </c>
       <c r="C573" s="15"/>
       <c r="D573" s="16"/>
@@ -30318,7 +30315,7 @@
         <v>10420</v>
       </c>
       <c r="B574" s="15" t="s">
-        <v>3884</v>
+        <v>3881</v>
       </c>
       <c r="C574" s="15"/>
       <c r="D574" s="16"/>
@@ -30484,7 +30481,7 @@
         <v>20423</v>
       </c>
       <c r="B580" s="15" t="s">
-        <v>3885</v>
+        <v>3882</v>
       </c>
       <c r="C580" s="15"/>
       <c r="D580" s="16"/>
@@ -30522,10 +30519,10 @@
       <c r="K581" s="17"/>
       <c r="L581" s="17"/>
       <c r="M581" s="18" t="s">
-        <v>3840</v>
+        <v>3839</v>
       </c>
       <c r="N581" s="18" t="s">
-        <v>3533</v>
+        <v>3532</v>
       </c>
       <c r="O581" s="19"/>
       <c r="P581" s="19"/>
@@ -30549,10 +30546,10 @@
       <c r="K582" s="17"/>
       <c r="L582" s="17"/>
       <c r="M582" s="18" t="s">
-        <v>3841</v>
+        <v>3840</v>
       </c>
       <c r="N582" s="18" t="s">
-        <v>3534</v>
+        <v>3533</v>
       </c>
       <c r="O582" s="19"/>
       <c r="P582" s="19"/>
@@ -30727,7 +30724,7 @@
         <v>10431</v>
       </c>
       <c r="B589" s="15" t="s">
-        <v>3886</v>
+        <v>3883</v>
       </c>
       <c r="C589" s="15"/>
       <c r="D589" s="16"/>
@@ -30754,7 +30751,7 @@
         <v>10432</v>
       </c>
       <c r="B590" s="15" t="s">
-        <v>3887</v>
+        <v>3884</v>
       </c>
       <c r="C590" s="15"/>
       <c r="D590" s="16"/>
@@ -30891,7 +30888,7 @@
         <v>20436</v>
       </c>
       <c r="B595" s="15" t="s">
-        <v>3888</v>
+        <v>3885</v>
       </c>
       <c r="C595" s="15"/>
       <c r="D595" s="16"/>
@@ -30970,7 +30967,7 @@
         <v>10438</v>
       </c>
       <c r="B598" s="15" t="s">
-        <v>3889</v>
+        <v>3886</v>
       </c>
       <c r="C598" s="15"/>
       <c r="D598" s="16"/>
@@ -31013,7 +31010,7 @@
         <v>60</v>
       </c>
       <c r="N599" s="18" t="s">
-        <v>3943</v>
+        <v>3939</v>
       </c>
       <c r="O599" s="19"/>
       <c r="P599" s="19"/>
@@ -31053,7 +31050,7 @@
         <v>10441</v>
       </c>
       <c r="B601" s="15" t="s">
-        <v>3890</v>
+        <v>3887</v>
       </c>
       <c r="C601" s="15"/>
       <c r="D601" s="16"/>
@@ -31312,7 +31309,7 @@
         <v>862</v>
       </c>
       <c r="N610" s="18" t="s">
-        <v>3530</v>
+        <v>3529</v>
       </c>
       <c r="O610" s="19"/>
       <c r="P610" s="19"/>
@@ -31651,13 +31648,13 @@
         <v>10458</v>
       </c>
       <c r="B623" s="15" t="s">
-        <v>3583</v>
+        <v>3582</v>
       </c>
       <c r="C623" s="15">
         <v>1</v>
       </c>
       <c r="D623" s="16" t="s">
-        <v>3582</v>
+        <v>3581</v>
       </c>
       <c r="E623" s="17"/>
       <c r="F623" s="17"/>
@@ -31673,10 +31670,10 @@
       </c>
       <c r="O623" s="19"/>
       <c r="P623" s="19" t="s">
-        <v>3757</v>
+        <v>3756</v>
       </c>
       <c r="Q623" s="20" t="s">
-        <v>3755</v>
+        <v>3754</v>
       </c>
     </row>
     <row r="624" spans="1:17" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -31684,7 +31681,7 @@
         <v>20461</v>
       </c>
       <c r="B624" s="15" t="s">
-        <v>3584</v>
+        <v>3583</v>
       </c>
       <c r="C624" s="15">
         <v>2</v>
@@ -31711,7 +31708,7 @@
         <v>20462</v>
       </c>
       <c r="B625" s="15" t="s">
-        <v>3756</v>
+        <v>3755</v>
       </c>
       <c r="C625" s="15">
         <v>2</v>
@@ -31792,7 +31789,7 @@
         <v>10460</v>
       </c>
       <c r="B628" s="15" t="s">
-        <v>3544</v>
+        <v>3543</v>
       </c>
       <c r="C628" s="15"/>
       <c r="D628" s="16"/>
@@ -32829,7 +32826,7 @@
         <v>886</v>
       </c>
       <c r="N665" s="18" t="s">
-        <v>3548</v>
+        <v>3547</v>
       </c>
       <c r="O665" s="19" t="s">
         <v>1285</v>
@@ -33926,10 +33923,10 @@
         <v>1307</v>
       </c>
       <c r="N704" s="18" t="s">
-        <v>3507</v>
+        <v>3506</v>
       </c>
       <c r="O704" s="19" t="s">
-        <v>3506</v>
+        <v>3505</v>
       </c>
       <c r="P704" s="19"/>
       <c r="Q704" s="20"/>
@@ -33956,7 +33953,7 @@
       <c r="M705" s="18"/>
       <c r="N705" s="18"/>
       <c r="O705" s="19" t="s">
-        <v>3531</v>
+        <v>3530</v>
       </c>
       <c r="P705" s="19"/>
       <c r="Q705" s="20"/>
@@ -34786,7 +34783,7 @@
         <v>1433</v>
       </c>
       <c r="N734" s="18" t="s">
-        <v>3448</v>
+        <v>3447</v>
       </c>
       <c r="O734" s="19"/>
       <c r="P734" s="19"/>
@@ -34815,7 +34812,7 @@
         <v>1435</v>
       </c>
       <c r="N735" s="18" t="s">
-        <v>3447</v>
+        <v>3446</v>
       </c>
       <c r="O735" s="19"/>
       <c r="P735" s="19"/>
@@ -34980,7 +34977,7 @@
       <c r="K741" s="17"/>
       <c r="L741" s="17"/>
       <c r="M741" s="18" t="s">
-        <v>3503</v>
+        <v>3502</v>
       </c>
       <c r="N741" s="18" t="s">
         <v>1447</v>
@@ -35054,7 +35051,7 @@
         <v>20567</v>
       </c>
       <c r="B744" s="15" t="s">
-        <v>3502</v>
+        <v>3501</v>
       </c>
       <c r="C744" s="15"/>
       <c r="D744" s="16"/>
@@ -35067,17 +35064,17 @@
       <c r="K744" s="17"/>
       <c r="L744" s="17"/>
       <c r="M744" s="18" t="s">
-        <v>3503</v>
+        <v>3502</v>
       </c>
       <c r="N744" s="18" t="s">
-        <v>3505</v>
+        <v>3504</v>
       </c>
       <c r="O744" s="19"/>
       <c r="P744" s="19" t="s">
-        <v>3747</v>
+        <v>3746</v>
       </c>
       <c r="Q744" s="20" t="s">
-        <v>3752</v>
+        <v>3751</v>
       </c>
     </row>
     <row r="745" spans="1:17" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -35376,7 +35373,7 @@
         <v>1476</v>
       </c>
       <c r="O755" s="19" t="s">
-        <v>3501</v>
+        <v>3500</v>
       </c>
       <c r="P755" s="19"/>
       <c r="Q755" s="20"/>
@@ -35429,13 +35426,13 @@
         <v>1307</v>
       </c>
       <c r="N757" s="18" t="s">
-        <v>3504</v>
+        <v>3503</v>
       </c>
       <c r="O757" s="19" t="s">
         <v>1479</v>
       </c>
       <c r="P757" s="19" t="s">
-        <v>3747</v>
+        <v>3746</v>
       </c>
       <c r="Q757" s="20" t="s">
         <v>1480</v>
@@ -36047,7 +36044,7 @@
         <v>1527</v>
       </c>
       <c r="N779" s="18" t="s">
-        <v>3450</v>
+        <v>3449</v>
       </c>
       <c r="O779" s="19" t="s">
         <v>1528</v>
@@ -36078,7 +36075,7 @@
         <v>1530</v>
       </c>
       <c r="N780" s="18" t="s">
-        <v>3449</v>
+        <v>3448</v>
       </c>
       <c r="O780" s="19" t="s">
         <v>1528</v>
@@ -36522,7 +36519,7 @@
         <v>1552</v>
       </c>
       <c r="N796" s="18" t="s">
-        <v>3514</v>
+        <v>3513</v>
       </c>
       <c r="O796" s="19"/>
       <c r="P796" s="19"/>
@@ -36551,7 +36548,7 @@
         <v>1504</v>
       </c>
       <c r="N797" s="18" t="s">
-        <v>3515</v>
+        <v>3514</v>
       </c>
       <c r="O797" s="19"/>
       <c r="P797" s="19"/>
@@ -36839,7 +36836,7 @@
         <v>1563</v>
       </c>
       <c r="N807" s="18" t="s">
-        <v>3439</v>
+        <v>3438</v>
       </c>
       <c r="O807" s="19"/>
       <c r="P807" s="19"/>
@@ -37636,7 +37633,7 @@
         <v>10649</v>
       </c>
       <c r="B836" s="15" t="s">
-        <v>3573</v>
+        <v>3572</v>
       </c>
       <c r="C836" s="15"/>
       <c r="D836" s="16"/>
@@ -37663,7 +37660,7 @@
         <v>10650</v>
       </c>
       <c r="B837" s="15" t="s">
-        <v>3572</v>
+        <v>3571</v>
       </c>
       <c r="C837" s="15"/>
       <c r="D837" s="16"/>
@@ -37690,7 +37687,7 @@
         <v>10651</v>
       </c>
       <c r="B838" s="15" t="s">
-        <v>3574</v>
+        <v>3573</v>
       </c>
       <c r="C838" s="15"/>
       <c r="D838" s="16"/>
@@ -37717,7 +37714,7 @@
         <v>10652</v>
       </c>
       <c r="B839" s="15" t="s">
-        <v>3575</v>
+        <v>3574</v>
       </c>
       <c r="C839" s="15"/>
       <c r="D839" s="16"/>
@@ -37744,7 +37741,7 @@
         <v>10653</v>
       </c>
       <c r="B840" s="15" t="s">
-        <v>3576</v>
+        <v>3575</v>
       </c>
       <c r="C840" s="15"/>
       <c r="D840" s="16"/>
@@ -38678,7 +38675,7 @@
         <v>1664</v>
       </c>
       <c r="N872" s="18" t="s">
-        <v>3675</v>
+        <v>3674</v>
       </c>
       <c r="O872" s="19"/>
       <c r="P872" s="19"/>
@@ -38707,7 +38704,7 @@
         <v>1707</v>
       </c>
       <c r="N873" s="18" t="s">
-        <v>3676</v>
+        <v>3675</v>
       </c>
       <c r="O873" s="19"/>
       <c r="P873" s="19"/>
@@ -39060,7 +39057,7 @@
         <v>1737</v>
       </c>
       <c r="N886" s="18" t="s">
-        <v>3535</v>
+        <v>3534</v>
       </c>
       <c r="O886" s="19"/>
       <c r="P886" s="19"/>
@@ -39087,7 +39084,7 @@
         <v>1294</v>
       </c>
       <c r="N887" s="18" t="s">
-        <v>3536</v>
+        <v>3535</v>
       </c>
       <c r="O887" s="19"/>
       <c r="P887" s="19"/>
@@ -39260,7 +39257,7 @@
         <v>10706</v>
       </c>
       <c r="B894" s="15" t="s">
-        <v>3891</v>
+        <v>3888</v>
       </c>
       <c r="C894" s="15"/>
       <c r="D894" s="16"/>
@@ -41044,13 +41041,13 @@
         <v>1887</v>
       </c>
       <c r="O957" s="19" t="s">
-        <v>3403</v>
+        <v>3402</v>
       </c>
       <c r="P957" s="19" t="s">
-        <v>3747</v>
+        <v>3746</v>
       </c>
       <c r="Q957" s="20" t="s">
-        <v>3402</v>
+        <v>3401</v>
       </c>
     </row>
     <row r="958" spans="1:17" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -41085,7 +41082,7 @@
         <v>20770</v>
       </c>
       <c r="B959" s="15" t="s">
-        <v>3906</v>
+        <v>3902</v>
       </c>
       <c r="C959" s="15">
         <v>2</v>
@@ -41100,10 +41097,10 @@
       <c r="K959" s="17"/>
       <c r="L959" s="17"/>
       <c r="M959" s="18" t="s">
+        <v>3545</v>
+      </c>
+      <c r="N959" s="18" t="s">
         <v>3546</v>
-      </c>
-      <c r="N959" s="18" t="s">
-        <v>3547</v>
       </c>
       <c r="O959" s="19"/>
       <c r="P959" s="19"/>
@@ -41114,7 +41111,7 @@
         <v>10770</v>
       </c>
       <c r="B960" s="15" t="s">
-        <v>3851</v>
+        <v>3951</v>
       </c>
       <c r="C960" s="15">
         <v>2</v>
@@ -41143,7 +41140,7 @@
         <v>10771</v>
       </c>
       <c r="B961" s="15" t="s">
-        <v>3842</v>
+        <v>3841</v>
       </c>
       <c r="C961" s="15">
         <v>2</v>
@@ -41172,7 +41169,7 @@
         <v>10772</v>
       </c>
       <c r="B962" s="15" t="s">
-        <v>3942</v>
+        <v>3938</v>
       </c>
       <c r="C962" s="15">
         <v>2</v>
@@ -41201,7 +41198,7 @@
         <v>10773</v>
       </c>
       <c r="B963" s="15" t="s">
-        <v>3904</v>
+        <v>3952</v>
       </c>
       <c r="C963" s="15">
         <v>2</v>
@@ -41259,7 +41256,7 @@
         <v>10775</v>
       </c>
       <c r="B965" s="15" t="s">
-        <v>3852</v>
+        <v>3952</v>
       </c>
       <c r="C965" s="15">
         <v>2</v>
@@ -41288,7 +41285,7 @@
         <v>10776</v>
       </c>
       <c r="B966" s="15" t="s">
-        <v>3818</v>
+        <v>3817</v>
       </c>
       <c r="C966" s="15">
         <v>2</v>
@@ -41346,7 +41343,7 @@
         <v>10778</v>
       </c>
       <c r="B968" s="15" t="s">
-        <v>3905</v>
+        <v>3901</v>
       </c>
       <c r="C968" s="15">
         <v>2</v>
@@ -41375,7 +41372,7 @@
         <v>10779</v>
       </c>
       <c r="B969" s="15" t="s">
-        <v>3853</v>
+        <v>3850</v>
       </c>
       <c r="C969" s="15">
         <v>2</v>
@@ -41433,7 +41430,7 @@
         <v>10781</v>
       </c>
       <c r="B971" s="15" t="s">
-        <v>3825</v>
+        <v>3824</v>
       </c>
       <c r="C971" s="15">
         <v>2</v>
@@ -41462,7 +41459,7 @@
         <v>10782</v>
       </c>
       <c r="B972" s="15" t="s">
-        <v>3817</v>
+        <v>3816</v>
       </c>
       <c r="C972" s="15">
         <v>2</v>
@@ -42352,7 +42349,7 @@
         <v>1294</v>
       </c>
       <c r="N1002" s="18" t="s">
-        <v>3537</v>
+        <v>3536</v>
       </c>
       <c r="O1002" s="19"/>
       <c r="P1002" s="19"/>
@@ -43534,7 +43531,7 @@
         <v>2043</v>
       </c>
       <c r="N1044" s="18" t="s">
-        <v>3538</v>
+        <v>3537</v>
       </c>
       <c r="O1044" s="19"/>
       <c r="P1044" s="19"/>
@@ -44134,7 +44131,7 @@
         <v>10876</v>
       </c>
       <c r="B1066" s="15" t="s">
-        <v>3569</v>
+        <v>3568</v>
       </c>
       <c r="C1066" s="15">
         <v>1</v>
@@ -45584,7 +45581,7 @@
       <c r="K1117" s="17"/>
       <c r="L1117" s="17"/>
       <c r="M1117" s="18" t="s">
-        <v>3830</v>
+        <v>3829</v>
       </c>
       <c r="N1117" s="18" t="s">
         <v>2216</v>
@@ -46079,7 +46076,7 @@
         <v>2256</v>
       </c>
       <c r="N1135" s="18" t="s">
-        <v>3833</v>
+        <v>3832</v>
       </c>
       <c r="O1135" s="19"/>
       <c r="P1135" s="19"/>
@@ -46106,7 +46103,7 @@
         <v>2258</v>
       </c>
       <c r="N1136" s="18" t="s">
-        <v>3834</v>
+        <v>3833</v>
       </c>
       <c r="O1136" s="19"/>
       <c r="P1136" s="19"/>
@@ -46135,7 +46132,7 @@
         <v>2260</v>
       </c>
       <c r="N1137" s="18" t="s">
-        <v>3835</v>
+        <v>3834</v>
       </c>
       <c r="O1137" s="19"/>
       <c r="P1137" s="19"/>
@@ -46921,7 +46918,7 @@
         <v>2321</v>
       </c>
       <c r="N1165" s="18" t="s">
-        <v>3452</v>
+        <v>3451</v>
       </c>
       <c r="O1165" s="19"/>
       <c r="P1165" s="19"/>
@@ -46950,7 +46947,7 @@
         <v>2322</v>
       </c>
       <c r="N1166" s="18" t="s">
-        <v>3451</v>
+        <v>3450</v>
       </c>
       <c r="O1166" s="19"/>
       <c r="P1166" s="19"/>
@@ -48112,7 +48109,7 @@
         <v>2246</v>
       </c>
       <c r="N1208" s="18" t="s">
-        <v>3563</v>
+        <v>3562</v>
       </c>
       <c r="O1208" s="19"/>
       <c r="P1208" s="19"/>
@@ -48123,7 +48120,7 @@
         <v>21015</v>
       </c>
       <c r="B1209" s="15" t="s">
-        <v>3562</v>
+        <v>3561</v>
       </c>
       <c r="C1209" s="15"/>
       <c r="D1209" s="16"/>
@@ -48139,7 +48136,7 @@
         <v>2246</v>
       </c>
       <c r="N1209" s="18" t="s">
-        <v>3564</v>
+        <v>3563</v>
       </c>
       <c r="O1209" s="19"/>
       <c r="P1209" s="19"/>
@@ -48166,7 +48163,7 @@
         <v>2246</v>
       </c>
       <c r="N1210" s="18" t="s">
-        <v>3564</v>
+        <v>3563</v>
       </c>
       <c r="O1210" s="19"/>
       <c r="P1210" s="19"/>
@@ -48193,7 +48190,7 @@
         <v>2246</v>
       </c>
       <c r="N1211" s="18" t="s">
-        <v>3564</v>
+        <v>3563</v>
       </c>
       <c r="O1211" s="19"/>
       <c r="P1211" s="19"/>
@@ -48220,7 +48217,7 @@
         <v>2246</v>
       </c>
       <c r="N1212" s="18" t="s">
-        <v>3564</v>
+        <v>3563</v>
       </c>
       <c r="O1212" s="19"/>
       <c r="P1212" s="19"/>
@@ -48247,7 +48244,7 @@
         <v>2246</v>
       </c>
       <c r="N1213" s="18" t="s">
-        <v>3564</v>
+        <v>3563</v>
       </c>
       <c r="O1213" s="19"/>
       <c r="P1213" s="19"/>
@@ -48274,7 +48271,7 @@
         <v>2246</v>
       </c>
       <c r="N1214" s="18" t="s">
-        <v>3564</v>
+        <v>3563</v>
       </c>
       <c r="O1214" s="19"/>
       <c r="P1214" s="19"/>
@@ -50401,7 +50398,7 @@
         <v>2573</v>
       </c>
       <c r="N1291" s="18" t="s">
-        <v>3516</v>
+        <v>3515</v>
       </c>
       <c r="O1291" s="19"/>
       <c r="P1291" s="19"/>
@@ -50890,7 +50887,7 @@
       <c r="K1309" s="17"/>
       <c r="L1309" s="17"/>
       <c r="M1309" s="18" t="s">
-        <v>3440</v>
+        <v>3439</v>
       </c>
       <c r="N1309" s="18" t="s">
         <v>2627</v>
@@ -51221,7 +51218,7 @@
         <v>2611</v>
       </c>
       <c r="N1321" s="18" t="s">
-        <v>3823</v>
+        <v>3822</v>
       </c>
       <c r="O1321" s="19"/>
       <c r="P1321" s="19"/>
@@ -51275,7 +51272,7 @@
         <v>2611</v>
       </c>
       <c r="N1323" s="18" t="s">
-        <v>3824</v>
+        <v>3823</v>
       </c>
       <c r="O1323" s="19"/>
       <c r="P1323" s="19"/>
@@ -51301,7 +51298,7 @@
       <c r="K1324" s="17"/>
       <c r="L1324" s="17"/>
       <c r="M1324" s="18" t="s">
-        <v>3829</v>
+        <v>3828</v>
       </c>
       <c r="N1324" s="18" t="s">
         <v>2659</v>
@@ -51330,10 +51327,10 @@
       <c r="K1325" s="17"/>
       <c r="L1325" s="17"/>
       <c r="M1325" s="18" t="s">
-        <v>3829</v>
+        <v>3828</v>
       </c>
       <c r="N1325" s="18" t="s">
-        <v>3822</v>
+        <v>3821</v>
       </c>
       <c r="O1325" s="19"/>
       <c r="P1325" s="19"/>
@@ -52521,7 +52518,7 @@
         <v>1997</v>
       </c>
       <c r="N1369" s="18" t="s">
-        <v>3517</v>
+        <v>3516</v>
       </c>
       <c r="O1369" s="19"/>
       <c r="P1369" s="19"/>
@@ -53430,10 +53427,10 @@
       </c>
       <c r="O1402" s="19"/>
       <c r="P1402" s="19" t="s">
-        <v>3747</v>
+        <v>3746</v>
       </c>
       <c r="Q1402" s="20" t="s">
-        <v>3753</v>
+        <v>3752</v>
       </c>
     </row>
     <row r="1403" spans="1:17" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -53845,10 +53842,10 @@
       </c>
       <c r="O1417" s="19"/>
       <c r="P1417" s="19" t="s">
-        <v>3747</v>
+        <v>3746</v>
       </c>
       <c r="Q1417" s="20" t="s">
-        <v>3754</v>
+        <v>3753</v>
       </c>
     </row>
     <row r="1418" spans="1:17" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -55228,10 +55225,10 @@
       </c>
       <c r="O1466" s="19"/>
       <c r="P1466" s="19" t="s">
-        <v>3747</v>
+        <v>3746</v>
       </c>
       <c r="Q1466" s="20" t="s">
-        <v>3754</v>
+        <v>3753</v>
       </c>
     </row>
     <row r="1467" spans="1:17" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -55515,17 +55512,17 @@
       <c r="K1476" s="17"/>
       <c r="L1476" s="17"/>
       <c r="M1476" s="18" t="s">
-        <v>3578</v>
+        <v>3577</v>
       </c>
       <c r="N1476" s="18" t="s">
         <v>2956</v>
       </c>
       <c r="O1476" s="19"/>
       <c r="P1476" s="19" t="s">
-        <v>3747</v>
+        <v>3746</v>
       </c>
       <c r="Q1476" s="20" t="s">
-        <v>3754</v>
+        <v>3753</v>
       </c>
     </row>
     <row r="1477" spans="1:17" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -56025,7 +56022,7 @@
         <v>3002</v>
       </c>
       <c r="N1493" s="18" t="s">
-        <v>3849</v>
+        <v>3848</v>
       </c>
       <c r="O1493" s="19"/>
       <c r="P1493" s="19"/>
@@ -56052,7 +56049,7 @@
         <v>3002</v>
       </c>
       <c r="N1494" s="18" t="s">
-        <v>3479</v>
+        <v>3478</v>
       </c>
       <c r="O1494" s="19"/>
       <c r="P1494" s="19"/>
@@ -56078,7 +56075,7 @@
       <c r="K1495" s="17"/>
       <c r="L1495" s="17"/>
       <c r="M1495" s="18" t="s">
-        <v>3850</v>
+        <v>3849</v>
       </c>
       <c r="N1495" s="18" t="s">
         <v>3004</v>
@@ -56489,7 +56486,7 @@
         <v>2920</v>
       </c>
       <c r="N1509" s="18" t="s">
-        <v>3529</v>
+        <v>3528</v>
       </c>
       <c r="O1509" s="19"/>
       <c r="P1509" s="19"/>
@@ -56546,7 +56543,7 @@
         <v>3038</v>
       </c>
       <c r="O1511" s="19" t="s">
-        <v>3754</v>
+        <v>3753</v>
       </c>
       <c r="P1511" s="19"/>
       <c r="Q1511" s="20"/>
@@ -56980,10 +56977,10 @@
       </c>
       <c r="O1526" s="19"/>
       <c r="P1526" s="19" t="s">
-        <v>3747</v>
+        <v>3746</v>
       </c>
       <c r="Q1526" s="20" t="s">
-        <v>3754</v>
+        <v>3753</v>
       </c>
     </row>
     <row r="1527" spans="1:17" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -57385,7 +57382,7 @@
         <v>21326</v>
       </c>
       <c r="B1541" s="15" t="s">
-        <v>3843</v>
+        <v>3842</v>
       </c>
       <c r="C1541" s="15"/>
       <c r="D1541" s="16"/>
@@ -57401,7 +57398,7 @@
         <v>1997</v>
       </c>
       <c r="N1541" s="18" t="s">
-        <v>3846</v>
+        <v>3845</v>
       </c>
       <c r="O1541" s="19"/>
       <c r="P1541" s="19"/>
@@ -57412,7 +57409,7 @@
         <v>21327</v>
       </c>
       <c r="B1542" s="15" t="s">
-        <v>3844</v>
+        <v>3843</v>
       </c>
       <c r="C1542" s="15"/>
       <c r="D1542" s="16"/>
@@ -57428,7 +57425,7 @@
         <v>3093</v>
       </c>
       <c r="N1542" s="18" t="s">
-        <v>3845</v>
+        <v>3844</v>
       </c>
       <c r="O1542" s="19"/>
       <c r="P1542" s="19"/>
@@ -57828,7 +57825,7 @@
         <v>11341</v>
       </c>
       <c r="B1556" s="28" t="s">
-        <v>3947</v>
+        <v>3943</v>
       </c>
       <c r="C1556" s="15">
         <v>2</v>
@@ -58094,7 +58091,7 @@
         <v>3123</v>
       </c>
       <c r="N1564" s="18" t="s">
-        <v>3589</v>
+        <v>3588</v>
       </c>
       <c r="O1564" s="19"/>
       <c r="P1564" s="19"/>
@@ -58118,10 +58115,10 @@
       <c r="K1565" s="17"/>
       <c r="L1565" s="17"/>
       <c r="M1565" s="18" t="s">
-        <v>3588</v>
+        <v>3587</v>
       </c>
       <c r="N1565" s="18" t="s">
-        <v>3453</v>
+        <v>3452</v>
       </c>
       <c r="O1565" s="19"/>
       <c r="P1565" s="19"/>
@@ -58148,7 +58145,7 @@
         <v>3002</v>
       </c>
       <c r="N1566" s="18" t="s">
-        <v>3459</v>
+        <v>3458</v>
       </c>
       <c r="O1566" s="19"/>
       <c r="P1566" s="19"/>
@@ -58175,7 +58172,7 @@
         <v>3002</v>
       </c>
       <c r="N1567" s="18" t="s">
-        <v>3454</v>
+        <v>3453</v>
       </c>
       <c r="O1567" s="19"/>
       <c r="P1567" s="19"/>
@@ -58202,7 +58199,7 @@
         <v>3002</v>
       </c>
       <c r="N1568" s="18" t="s">
-        <v>3455</v>
+        <v>3454</v>
       </c>
       <c r="O1568" s="19"/>
       <c r="P1568" s="19"/>
@@ -58231,7 +58228,7 @@
         <v>3002</v>
       </c>
       <c r="N1569" s="18" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
       <c r="O1569" s="19"/>
       <c r="P1569" s="19"/>
@@ -58260,7 +58257,7 @@
         <v>3002</v>
       </c>
       <c r="N1570" s="18" t="s">
-        <v>3457</v>
+        <v>3456</v>
       </c>
       <c r="O1570" s="19"/>
       <c r="P1570" s="19"/>
@@ -58287,7 +58284,7 @@
         <v>3002</v>
       </c>
       <c r="N1571" s="18" t="s">
-        <v>3458</v>
+        <v>3457</v>
       </c>
       <c r="O1571" s="19"/>
       <c r="P1571" s="19"/>
@@ -58314,7 +58311,7 @@
         <v>3002</v>
       </c>
       <c r="N1572" s="18" t="s">
-        <v>3460</v>
+        <v>3459</v>
       </c>
       <c r="O1572" s="19"/>
       <c r="P1572" s="19"/>
@@ -58368,7 +58365,7 @@
         <v>3002</v>
       </c>
       <c r="N1574" s="18" t="s">
-        <v>3461</v>
+        <v>3460</v>
       </c>
       <c r="O1574" s="19"/>
       <c r="P1574" s="19"/>
@@ -58424,7 +58421,7 @@
         <v>3002</v>
       </c>
       <c r="N1576" s="18" t="s">
-        <v>3462</v>
+        <v>3461</v>
       </c>
       <c r="O1576" s="19"/>
       <c r="P1576" s="19"/>
@@ -58451,7 +58448,7 @@
         <v>3002</v>
       </c>
       <c r="N1577" s="18" t="s">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="O1577" s="19"/>
       <c r="P1577" s="19"/>
@@ -58480,7 +58477,7 @@
         <v>3002</v>
       </c>
       <c r="N1578" s="18" t="s">
-        <v>3464</v>
+        <v>3463</v>
       </c>
       <c r="O1578" s="19"/>
       <c r="P1578" s="19"/>
@@ -58534,7 +58531,7 @@
         <v>3002</v>
       </c>
       <c r="N1580" s="18" t="s">
-        <v>3465</v>
+        <v>3464</v>
       </c>
       <c r="O1580" s="19"/>
       <c r="P1580" s="19"/>
@@ -58561,7 +58558,7 @@
         <v>3002</v>
       </c>
       <c r="N1581" s="18" t="s">
-        <v>3466</v>
+        <v>3465</v>
       </c>
       <c r="O1581" s="19"/>
       <c r="P1581" s="19"/>
@@ -58615,7 +58612,7 @@
         <v>3002</v>
       </c>
       <c r="N1583" s="18" t="s">
-        <v>3467</v>
+        <v>3466</v>
       </c>
       <c r="O1583" s="19"/>
       <c r="P1583" s="19"/>
@@ -58642,7 +58639,7 @@
         <v>3002</v>
       </c>
       <c r="N1584" s="18" t="s">
-        <v>3468</v>
+        <v>3467</v>
       </c>
       <c r="O1584" s="19"/>
       <c r="P1584" s="19"/>
@@ -58669,7 +58666,7 @@
         <v>3002</v>
       </c>
       <c r="N1585" s="18" t="s">
-        <v>3469</v>
+        <v>3468</v>
       </c>
       <c r="O1585" s="19"/>
       <c r="P1585" s="19"/>
@@ -58696,7 +58693,7 @@
         <v>3002</v>
       </c>
       <c r="N1586" s="18" t="s">
-        <v>3470</v>
+        <v>3469</v>
       </c>
       <c r="O1586" s="19"/>
       <c r="P1586" s="19"/>
@@ -58725,7 +58722,7 @@
         <v>3151</v>
       </c>
       <c r="N1587" s="18" t="s">
-        <v>3471</v>
+        <v>3470</v>
       </c>
       <c r="O1587" s="19"/>
       <c r="P1587" s="19"/>
@@ -58752,7 +58749,7 @@
         <v>3002</v>
       </c>
       <c r="N1588" s="18" t="s">
-        <v>3472</v>
+        <v>3471</v>
       </c>
       <c r="O1588" s="19"/>
       <c r="P1588" s="19"/>
@@ -58779,7 +58776,7 @@
         <v>3002</v>
       </c>
       <c r="N1589" s="18" t="s">
-        <v>3473</v>
+        <v>3472</v>
       </c>
       <c r="O1589" s="19"/>
       <c r="P1589" s="19"/>
@@ -58806,7 +58803,7 @@
         <v>3155</v>
       </c>
       <c r="N1590" s="18" t="s">
-        <v>3474</v>
+        <v>3473</v>
       </c>
       <c r="O1590" s="19"/>
       <c r="P1590" s="19"/>
@@ -58833,7 +58830,7 @@
         <v>3002</v>
       </c>
       <c r="N1591" s="18" t="s">
-        <v>3475</v>
+        <v>3474</v>
       </c>
       <c r="O1591" s="19"/>
       <c r="P1591" s="19"/>
@@ -58860,7 +58857,7 @@
         <v>2874</v>
       </c>
       <c r="N1592" s="18" t="s">
-        <v>3476</v>
+        <v>3475</v>
       </c>
       <c r="O1592" s="19"/>
       <c r="P1592" s="19"/>
@@ -58887,7 +58884,7 @@
         <v>3159</v>
       </c>
       <c r="N1593" s="18" t="s">
-        <v>3477</v>
+        <v>3476</v>
       </c>
       <c r="O1593" s="19"/>
       <c r="P1593" s="19"/>
@@ -59853,7 +59850,7 @@
         <v>11414</v>
       </c>
       <c r="B1629" s="15" t="s">
-        <v>3951</v>
+        <v>3946</v>
       </c>
       <c r="C1629" s="15"/>
       <c r="D1629" s="16"/>
@@ -59907,7 +59904,7 @@
         <v>11416</v>
       </c>
       <c r="B1631" s="15" t="s">
-        <v>3950</v>
+        <v>3945</v>
       </c>
       <c r="C1631" s="15"/>
       <c r="D1631" s="16"/>
@@ -59961,7 +59958,7 @@
         <v>11418</v>
       </c>
       <c r="B1633" s="15" t="s">
-        <v>3948</v>
+        <v>3949</v>
       </c>
       <c r="C1633" s="15"/>
       <c r="D1633" s="16"/>
@@ -59988,7 +59985,7 @@
         <v>11419</v>
       </c>
       <c r="B1634" s="15" t="s">
-        <v>3949</v>
+        <v>3944</v>
       </c>
       <c r="C1634" s="15"/>
       <c r="D1634" s="16"/>
@@ -60042,7 +60039,7 @@
         <v>11421</v>
       </c>
       <c r="B1636" s="15" t="s">
-        <v>3252</v>
+        <v>3950</v>
       </c>
       <c r="C1636" s="15"/>
       <c r="D1636" s="16"/>
@@ -60058,7 +60055,7 @@
         <v>1997</v>
       </c>
       <c r="N1636" s="18" t="s">
-        <v>3253</v>
+        <v>3252</v>
       </c>
       <c r="O1636" s="19"/>
       <c r="P1636" s="19"/>
@@ -60069,7 +60066,7 @@
         <v>11422</v>
       </c>
       <c r="B1637" s="15" t="s">
-        <v>3254</v>
+        <v>3253</v>
       </c>
       <c r="C1637" s="15"/>
       <c r="D1637" s="16"/>
@@ -60085,7 +60082,7 @@
         <v>1997</v>
       </c>
       <c r="N1637" s="18" t="s">
-        <v>3255</v>
+        <v>3254</v>
       </c>
       <c r="O1637" s="19"/>
       <c r="P1637" s="19"/>
@@ -60096,11 +60093,11 @@
         <v>11423</v>
       </c>
       <c r="B1638" s="15" t="s">
-        <v>3256</v>
+        <v>3255</v>
       </c>
       <c r="C1638" s="15"/>
       <c r="D1638" s="16" t="s">
-        <v>3257</v>
+        <v>3256</v>
       </c>
       <c r="E1638" s="17"/>
       <c r="F1638" s="17"/>
@@ -60114,7 +60111,7 @@
         <v>1997</v>
       </c>
       <c r="N1638" s="18" t="s">
-        <v>3258</v>
+        <v>3257</v>
       </c>
       <c r="O1638" s="19"/>
       <c r="P1638" s="19"/>
@@ -60125,7 +60122,7 @@
         <v>11424</v>
       </c>
       <c r="B1639" s="15" t="s">
-        <v>3952</v>
+        <v>3947</v>
       </c>
       <c r="C1639" s="15"/>
       <c r="D1639" s="16"/>
@@ -60141,7 +60138,7 @@
         <v>1997</v>
       </c>
       <c r="N1639" s="18" t="s">
-        <v>3896</v>
+        <v>3893</v>
       </c>
       <c r="O1639" s="19"/>
       <c r="P1639" s="19"/>
@@ -60152,7 +60149,7 @@
         <v>11425</v>
       </c>
       <c r="B1640" s="15" t="s">
-        <v>3900</v>
+        <v>3897</v>
       </c>
       <c r="C1640" s="15"/>
       <c r="D1640" s="16"/>
@@ -60168,7 +60165,7 @@
         <v>1997</v>
       </c>
       <c r="N1640" s="18" t="s">
-        <v>3897</v>
+        <v>3894</v>
       </c>
       <c r="O1640" s="19"/>
       <c r="P1640" s="19"/>
@@ -60179,7 +60176,7 @@
         <v>11426</v>
       </c>
       <c r="B1641" s="15" t="s">
-        <v>3901</v>
+        <v>3898</v>
       </c>
       <c r="C1641" s="15"/>
       <c r="D1641" s="16"/>
@@ -60195,7 +60192,7 @@
         <v>1997</v>
       </c>
       <c r="N1641" s="18" t="s">
-        <v>3898</v>
+        <v>3895</v>
       </c>
       <c r="O1641" s="19"/>
       <c r="P1641" s="19"/>
@@ -60206,11 +60203,11 @@
         <v>11427</v>
       </c>
       <c r="B1642" s="15" t="s">
-        <v>3893</v>
+        <v>3890</v>
       </c>
       <c r="C1642" s="15"/>
       <c r="D1642" s="16" t="s">
-        <v>3259</v>
+        <v>3258</v>
       </c>
       <c r="E1642" s="17"/>
       <c r="F1642" s="17"/>
@@ -60224,7 +60221,7 @@
         <v>1997</v>
       </c>
       <c r="N1642" s="18" t="s">
-        <v>3260</v>
+        <v>3259</v>
       </c>
       <c r="O1642" s="19"/>
       <c r="P1642" s="19"/>
@@ -60235,7 +60232,7 @@
         <v>11428</v>
       </c>
       <c r="B1643" s="15" t="s">
-        <v>3261</v>
+        <v>3260</v>
       </c>
       <c r="C1643" s="15"/>
       <c r="D1643" s="16"/>
@@ -60251,7 +60248,7 @@
         <v>1997</v>
       </c>
       <c r="N1643" s="18" t="s">
-        <v>3262</v>
+        <v>3261</v>
       </c>
       <c r="O1643" s="19"/>
       <c r="P1643" s="19"/>
@@ -60262,7 +60259,7 @@
         <v>11429</v>
       </c>
       <c r="B1644" s="15" t="s">
-        <v>3263</v>
+        <v>3262</v>
       </c>
       <c r="C1644" s="15">
         <v>1</v>
@@ -60280,7 +60277,7 @@
         <v>1997</v>
       </c>
       <c r="N1644" s="18" t="s">
-        <v>3264</v>
+        <v>3263</v>
       </c>
       <c r="O1644" s="19"/>
       <c r="P1644" s="19"/>
@@ -60291,7 +60288,7 @@
         <v>11430</v>
       </c>
       <c r="B1645" s="15" t="s">
-        <v>3892</v>
+        <v>3889</v>
       </c>
       <c r="C1645" s="15"/>
       <c r="D1645" s="16"/>
@@ -60307,7 +60304,7 @@
         <v>1997</v>
       </c>
       <c r="N1645" s="18" t="s">
-        <v>3265</v>
+        <v>3264</v>
       </c>
       <c r="O1645" s="19"/>
       <c r="P1645" s="19"/>
@@ -60318,7 +60315,7 @@
         <v>11431</v>
       </c>
       <c r="B1646" s="15" t="s">
-        <v>3894</v>
+        <v>3891</v>
       </c>
       <c r="C1646" s="15"/>
       <c r="D1646" s="16"/>
@@ -60334,7 +60331,7 @@
         <v>1997</v>
       </c>
       <c r="N1646" s="18" t="s">
-        <v>3266</v>
+        <v>3265</v>
       </c>
       <c r="O1646" s="19"/>
       <c r="P1646" s="19"/>
@@ -60345,7 +60342,7 @@
         <v>11432</v>
       </c>
       <c r="B1647" s="15" t="s">
-        <v>3267</v>
+        <v>3266</v>
       </c>
       <c r="C1647" s="15"/>
       <c r="D1647" s="16"/>
@@ -60361,7 +60358,7 @@
         <v>1997</v>
       </c>
       <c r="N1647" s="18" t="s">
-        <v>3895</v>
+        <v>3892</v>
       </c>
       <c r="O1647" s="19"/>
       <c r="P1647" s="19"/>
@@ -60372,7 +60369,7 @@
         <v>11433</v>
       </c>
       <c r="B1648" s="15" t="s">
-        <v>3953</v>
+        <v>3948</v>
       </c>
       <c r="C1648" s="15"/>
       <c r="D1648" s="16"/>
@@ -60388,7 +60385,7 @@
         <v>1997</v>
       </c>
       <c r="N1648" s="18" t="s">
-        <v>3268</v>
+        <v>3267</v>
       </c>
       <c r="O1648" s="19"/>
       <c r="P1648" s="19"/>
@@ -60399,7 +60396,7 @@
         <v>11434</v>
       </c>
       <c r="B1649" s="15" t="s">
-        <v>3269</v>
+        <v>3268</v>
       </c>
       <c r="C1649" s="15"/>
       <c r="D1649" s="16"/>
@@ -60415,7 +60412,7 @@
         <v>1997</v>
       </c>
       <c r="N1649" s="18" t="s">
-        <v>3270</v>
+        <v>3269</v>
       </c>
       <c r="O1649" s="19"/>
       <c r="P1649" s="19"/>
@@ -60426,7 +60423,7 @@
         <v>11435</v>
       </c>
       <c r="B1650" s="15" t="s">
-        <v>3899</v>
+        <v>3896</v>
       </c>
       <c r="C1650" s="15"/>
       <c r="D1650" s="16"/>
@@ -60442,7 +60439,7 @@
         <v>1997</v>
       </c>
       <c r="N1650" s="18" t="s">
-        <v>3271</v>
+        <v>3270</v>
       </c>
       <c r="O1650" s="19"/>
       <c r="P1650" s="19"/>
@@ -60453,7 +60450,7 @@
         <v>11436</v>
       </c>
       <c r="B1651" s="15" t="s">
-        <v>3272</v>
+        <v>3271</v>
       </c>
       <c r="C1651" s="15"/>
       <c r="D1651" s="16"/>
@@ -60469,7 +60466,7 @@
         <v>1997</v>
       </c>
       <c r="N1651" s="18" t="s">
-        <v>3273</v>
+        <v>3272</v>
       </c>
       <c r="O1651" s="19"/>
       <c r="P1651" s="19"/>
@@ -60480,7 +60477,7 @@
         <v>11437</v>
       </c>
       <c r="B1652" s="15" t="s">
-        <v>3274</v>
+        <v>3273</v>
       </c>
       <c r="C1652" s="15"/>
       <c r="D1652" s="16"/>
@@ -60496,7 +60493,7 @@
         <v>1997</v>
       </c>
       <c r="N1652" s="18" t="s">
-        <v>3275</v>
+        <v>3274</v>
       </c>
       <c r="O1652" s="19"/>
       <c r="P1652" s="19"/>
@@ -60507,7 +60504,7 @@
         <v>11438</v>
       </c>
       <c r="B1653" s="15" t="s">
-        <v>3276</v>
+        <v>3275</v>
       </c>
       <c r="C1653" s="15"/>
       <c r="D1653" s="16"/>
@@ -60523,7 +60520,7 @@
         <v>1997</v>
       </c>
       <c r="N1653" s="18" t="s">
-        <v>3277</v>
+        <v>3276</v>
       </c>
       <c r="O1653" s="19"/>
       <c r="P1653" s="19"/>
@@ -60534,11 +60531,11 @@
         <v>11439</v>
       </c>
       <c r="B1654" s="15" t="s">
-        <v>3278</v>
+        <v>3277</v>
       </c>
       <c r="C1654" s="15"/>
       <c r="D1654" s="16" t="s">
-        <v>3279</v>
+        <v>3278</v>
       </c>
       <c r="E1654" s="17"/>
       <c r="F1654" s="17"/>
@@ -60552,7 +60549,7 @@
         <v>1997</v>
       </c>
       <c r="N1654" s="18" t="s">
-        <v>3280</v>
+        <v>3279</v>
       </c>
       <c r="O1654" s="19"/>
       <c r="P1654" s="19"/>
@@ -60563,7 +60560,7 @@
         <v>11440</v>
       </c>
       <c r="B1655" s="15" t="s">
-        <v>3281</v>
+        <v>3280</v>
       </c>
       <c r="C1655" s="15"/>
       <c r="D1655" s="16"/>
@@ -60579,7 +60576,7 @@
         <v>1997</v>
       </c>
       <c r="N1655" s="18" t="s">
-        <v>3282</v>
+        <v>3281</v>
       </c>
       <c r="O1655" s="19"/>
       <c r="P1655" s="19"/>
@@ -60590,7 +60587,7 @@
         <v>11441</v>
       </c>
       <c r="B1656" s="15" t="s">
-        <v>3283</v>
+        <v>3282</v>
       </c>
       <c r="C1656" s="15"/>
       <c r="D1656" s="16"/>
@@ -60606,7 +60603,7 @@
         <v>1997</v>
       </c>
       <c r="N1656" s="18" t="s">
-        <v>3284</v>
+        <v>3283</v>
       </c>
       <c r="O1656" s="19"/>
       <c r="P1656" s="19"/>
@@ -60617,7 +60614,7 @@
         <v>11442</v>
       </c>
       <c r="B1657" s="15" t="s">
-        <v>3285</v>
+        <v>3284</v>
       </c>
       <c r="C1657" s="15"/>
       <c r="D1657" s="16"/>
@@ -60633,7 +60630,7 @@
         <v>1997</v>
       </c>
       <c r="N1657" s="18" t="s">
-        <v>3286</v>
+        <v>3285</v>
       </c>
       <c r="O1657" s="19"/>
       <c r="P1657" s="19"/>
@@ -60644,7 +60641,7 @@
         <v>11443</v>
       </c>
       <c r="B1658" s="15" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
       <c r="C1658" s="15"/>
       <c r="D1658" s="16"/>
@@ -60660,7 +60657,7 @@
         <v>1997</v>
       </c>
       <c r="N1658" s="18" t="s">
-        <v>3288</v>
+        <v>3287</v>
       </c>
       <c r="O1658" s="19"/>
       <c r="P1658" s="19"/>
@@ -60671,7 +60668,7 @@
         <v>11444</v>
       </c>
       <c r="B1659" s="15" t="s">
-        <v>3289</v>
+        <v>3288</v>
       </c>
       <c r="C1659" s="15"/>
       <c r="D1659" s="16"/>
@@ -60687,7 +60684,7 @@
         <v>1997</v>
       </c>
       <c r="N1659" s="18" t="s">
-        <v>3290</v>
+        <v>3289</v>
       </c>
       <c r="O1659" s="19"/>
       <c r="P1659" s="19"/>
@@ -60698,7 +60695,7 @@
         <v>11445</v>
       </c>
       <c r="B1660" s="15" t="s">
-        <v>3291</v>
+        <v>3290</v>
       </c>
       <c r="C1660" s="15"/>
       <c r="D1660" s="16"/>
@@ -60714,7 +60711,7 @@
         <v>1997</v>
       </c>
       <c r="N1660" s="18" t="s">
-        <v>3292</v>
+        <v>3291</v>
       </c>
       <c r="O1660" s="19"/>
       <c r="P1660" s="19"/>
@@ -60725,11 +60722,11 @@
         <v>11446</v>
       </c>
       <c r="B1661" s="15" t="s">
-        <v>3293</v>
+        <v>3292</v>
       </c>
       <c r="C1661" s="15"/>
       <c r="D1661" s="16" t="s">
-        <v>3294</v>
+        <v>3293</v>
       </c>
       <c r="E1661" s="17"/>
       <c r="F1661" s="17"/>
@@ -60743,7 +60740,7 @@
         <v>1997</v>
       </c>
       <c r="N1661" s="18" t="s">
-        <v>3295</v>
+        <v>3294</v>
       </c>
       <c r="O1661" s="19"/>
       <c r="P1661" s="19"/>
@@ -60754,7 +60751,7 @@
         <v>11447</v>
       </c>
       <c r="B1662" s="15" t="s">
-        <v>3296</v>
+        <v>3295</v>
       </c>
       <c r="C1662" s="15"/>
       <c r="D1662" s="16"/>
@@ -60770,7 +60767,7 @@
         <v>1997</v>
       </c>
       <c r="N1662" s="18" t="s">
-        <v>3297</v>
+        <v>3296</v>
       </c>
       <c r="O1662" s="19"/>
       <c r="P1662" s="19"/>
@@ -60781,7 +60778,7 @@
         <v>11448</v>
       </c>
       <c r="B1663" s="15" t="s">
-        <v>3298</v>
+        <v>3297</v>
       </c>
       <c r="C1663" s="15"/>
       <c r="D1663" s="16"/>
@@ -60797,7 +60794,7 @@
         <v>1997</v>
       </c>
       <c r="N1663" s="18" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="O1663" s="19"/>
       <c r="P1663" s="19"/>
@@ -60808,7 +60805,7 @@
         <v>11449</v>
       </c>
       <c r="B1664" s="15" t="s">
-        <v>3300</v>
+        <v>3299</v>
       </c>
       <c r="C1664" s="15"/>
       <c r="D1664" s="16"/>
@@ -60824,7 +60821,7 @@
         <v>1997</v>
       </c>
       <c r="N1664" s="18" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="O1664" s="19"/>
       <c r="P1664" s="19"/>
@@ -60835,11 +60832,11 @@
         <v>11450</v>
       </c>
       <c r="B1665" s="15" t="s">
-        <v>3302</v>
+        <v>3301</v>
       </c>
       <c r="C1665" s="15"/>
       <c r="D1665" s="16" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="E1665" s="17"/>
       <c r="F1665" s="17"/>
@@ -60853,7 +60850,7 @@
         <v>1997</v>
       </c>
       <c r="N1665" s="18" t="s">
-        <v>3304</v>
+        <v>3303</v>
       </c>
       <c r="O1665" s="19"/>
       <c r="P1665" s="19"/>
@@ -60864,13 +60861,13 @@
         <v>11451</v>
       </c>
       <c r="B1666" s="15" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="C1666" s="15">
         <v>3</v>
       </c>
       <c r="D1666" s="16" t="s">
-        <v>3306</v>
+        <v>3305</v>
       </c>
       <c r="E1666" s="17"/>
       <c r="F1666" s="17"/>
@@ -60883,7 +60880,7 @@
       <c r="K1666" s="17"/>
       <c r="L1666" s="17"/>
       <c r="M1666" s="18" t="s">
-        <v>3836</v>
+        <v>3835</v>
       </c>
       <c r="N1666" s="18"/>
       <c r="O1666" s="19"/>
@@ -60895,7 +60892,7 @@
         <v>11452</v>
       </c>
       <c r="B1667" s="15" t="s">
-        <v>3307</v>
+        <v>3306</v>
       </c>
       <c r="C1667" s="15">
         <v>1</v>
@@ -60910,10 +60907,10 @@
       <c r="K1667" s="17"/>
       <c r="L1667" s="17"/>
       <c r="M1667" s="18" t="s">
+        <v>3307</v>
+      </c>
+      <c r="N1667" s="18" t="s">
         <v>3308</v>
-      </c>
-      <c r="N1667" s="18" t="s">
-        <v>3309</v>
       </c>
       <c r="O1667" s="19"/>
       <c r="P1667" s="19"/>
@@ -60924,7 +60921,7 @@
         <v>11453</v>
       </c>
       <c r="B1668" s="15" t="s">
-        <v>3310</v>
+        <v>3309</v>
       </c>
       <c r="C1668" s="15">
         <v>1</v>
@@ -60939,10 +60936,10 @@
       <c r="K1668" s="17"/>
       <c r="L1668" s="17"/>
       <c r="M1668" s="18" t="s">
+        <v>3307</v>
+      </c>
+      <c r="N1668" s="18" t="s">
         <v>3308</v>
-      </c>
-      <c r="N1668" s="18" t="s">
-        <v>3309</v>
       </c>
       <c r="O1668" s="19"/>
       <c r="P1668" s="19"/>
@@ -60953,13 +60950,13 @@
         <v>11454</v>
       </c>
       <c r="B1669" s="15" t="s">
-        <v>3311</v>
+        <v>3310</v>
       </c>
       <c r="C1669" s="15">
         <v>1</v>
       </c>
       <c r="D1669" s="16" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
       <c r="E1669" s="17"/>
       <c r="F1669" s="17"/>
@@ -60970,10 +60967,10 @@
       <c r="K1669" s="17"/>
       <c r="L1669" s="17"/>
       <c r="M1669" s="18" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="N1669" s="18" t="s">
-        <v>3313</v>
+        <v>3312</v>
       </c>
       <c r="O1669" s="19"/>
       <c r="P1669" s="19"/>
@@ -60984,13 +60981,13 @@
         <v>11455</v>
       </c>
       <c r="B1670" s="15" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="C1670" s="15">
         <v>2</v>
       </c>
       <c r="D1670" s="16" t="s">
-        <v>3315</v>
+        <v>3314</v>
       </c>
       <c r="E1670" s="17"/>
       <c r="F1670" s="17"/>
@@ -61001,13 +60998,13 @@
       <c r="K1670" s="17"/>
       <c r="L1670" s="17"/>
       <c r="M1670" s="18" t="s">
+        <v>3315</v>
+      </c>
+      <c r="N1670" s="18" t="s">
         <v>3316</v>
       </c>
-      <c r="N1670" s="18" t="s">
+      <c r="O1670" s="19" t="s">
         <v>3317</v>
-      </c>
-      <c r="O1670" s="19" t="s">
-        <v>3318</v>
       </c>
       <c r="P1670" s="19"/>
       <c r="Q1670" s="20"/>
@@ -61017,7 +61014,7 @@
         <v>11456</v>
       </c>
       <c r="B1671" s="15" t="s">
-        <v>3319</v>
+        <v>3318</v>
       </c>
       <c r="C1671" s="15">
         <v>1</v>
@@ -61032,10 +61029,10 @@
       <c r="K1671" s="17"/>
       <c r="L1671" s="17"/>
       <c r="M1671" s="18" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="N1671" s="18" t="s">
-        <v>3320</v>
+        <v>3319</v>
       </c>
       <c r="O1671" s="19"/>
       <c r="P1671" s="19"/>
@@ -61046,13 +61043,13 @@
         <v>11457</v>
       </c>
       <c r="B1672" s="15" t="s">
-        <v>3321</v>
+        <v>3320</v>
       </c>
       <c r="C1672" s="15">
         <v>2</v>
       </c>
       <c r="D1672" s="16" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
       <c r="E1672" s="17"/>
       <c r="F1672" s="17"/>
@@ -61063,13 +61060,13 @@
       <c r="K1672" s="17"/>
       <c r="L1672" s="17"/>
       <c r="M1672" s="18" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="N1672" s="18" t="s">
+        <v>3322</v>
+      </c>
+      <c r="O1672" s="19" t="s">
         <v>3323</v>
-      </c>
-      <c r="O1672" s="19" t="s">
-        <v>3324</v>
       </c>
       <c r="P1672" s="19"/>
       <c r="Q1672" s="20"/>
@@ -61079,13 +61076,13 @@
         <v>21457</v>
       </c>
       <c r="B1673" s="15" t="s">
-        <v>3325</v>
+        <v>3324</v>
       </c>
       <c r="C1673" s="15">
         <v>2</v>
       </c>
       <c r="D1673" s="16" t="s">
-        <v>3326</v>
+        <v>3325</v>
       </c>
       <c r="E1673" s="17"/>
       <c r="F1673" s="17"/>
@@ -61108,7 +61105,7 @@
         <v>11458</v>
       </c>
       <c r="B1674" s="15" t="s">
-        <v>3327</v>
+        <v>3326</v>
       </c>
       <c r="C1674" s="15">
         <v>1</v>
@@ -61123,7 +61120,7 @@
       <c r="K1674" s="17"/>
       <c r="L1674" s="17"/>
       <c r="M1674" s="18" t="s">
-        <v>3309</v>
+        <v>3308</v>
       </c>
       <c r="N1674" s="18"/>
       <c r="O1674" s="19"/>
@@ -61135,7 +61132,7 @@
         <v>11459</v>
       </c>
       <c r="B1675" s="15" t="s">
-        <v>3328</v>
+        <v>3327</v>
       </c>
       <c r="C1675" s="15">
         <v>1</v>
@@ -61150,7 +61147,7 @@
       <c r="K1675" s="17"/>
       <c r="L1675" s="17"/>
       <c r="M1675" s="18" t="s">
-        <v>3309</v>
+        <v>3308</v>
       </c>
       <c r="N1675" s="18"/>
       <c r="O1675" s="19"/>
@@ -61162,7 +61159,7 @@
         <v>11460</v>
       </c>
       <c r="B1676" s="15" t="s">
-        <v>3329</v>
+        <v>3328</v>
       </c>
       <c r="C1676" s="15">
         <v>2</v>
@@ -61177,10 +61174,10 @@
       <c r="K1676" s="17"/>
       <c r="L1676" s="17"/>
       <c r="M1676" s="18" t="s">
-        <v>3309</v>
+        <v>3308</v>
       </c>
       <c r="N1676" s="18" t="s">
-        <v>3330</v>
+        <v>3329</v>
       </c>
       <c r="O1676" s="19"/>
       <c r="P1676" s="19"/>
@@ -61191,7 +61188,7 @@
         <v>11461</v>
       </c>
       <c r="B1677" s="15" t="s">
-        <v>3331</v>
+        <v>3330</v>
       </c>
       <c r="C1677" s="15">
         <v>2</v>
@@ -61206,10 +61203,10 @@
       <c r="K1677" s="17"/>
       <c r="L1677" s="17"/>
       <c r="M1677" s="18" t="s">
-        <v>3309</v>
+        <v>3308</v>
       </c>
       <c r="N1677" s="18" t="s">
-        <v>3332</v>
+        <v>3331</v>
       </c>
       <c r="O1677" s="19"/>
       <c r="P1677" s="19"/>
@@ -61220,7 +61217,7 @@
         <v>11462</v>
       </c>
       <c r="B1678" s="15" t="s">
-        <v>3333</v>
+        <v>3332</v>
       </c>
       <c r="C1678" s="15">
         <v>2</v>
@@ -61235,10 +61232,10 @@
       <c r="K1678" s="17"/>
       <c r="L1678" s="17"/>
       <c r="M1678" s="18" t="s">
-        <v>3309</v>
+        <v>3308</v>
       </c>
       <c r="N1678" s="18" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
       <c r="O1678" s="19"/>
       <c r="P1678" s="19"/>
@@ -61249,7 +61246,7 @@
         <v>11463</v>
       </c>
       <c r="B1679" s="15" t="s">
-        <v>3335</v>
+        <v>3334</v>
       </c>
       <c r="C1679" s="15">
         <v>2</v>
@@ -61264,10 +61261,10 @@
       <c r="K1679" s="17"/>
       <c r="L1679" s="17"/>
       <c r="M1679" s="18" t="s">
-        <v>3309</v>
+        <v>3308</v>
       </c>
       <c r="N1679" s="18" t="s">
-        <v>3539</v>
+        <v>3538</v>
       </c>
       <c r="O1679" s="19"/>
       <c r="P1679" s="19"/>
@@ -61278,7 +61275,7 @@
         <v>11464</v>
       </c>
       <c r="B1680" s="15" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="C1680" s="15">
         <v>2</v>
@@ -61293,10 +61290,10 @@
       <c r="K1680" s="17"/>
       <c r="L1680" s="17"/>
       <c r="M1680" s="18" t="s">
-        <v>3309</v>
+        <v>3308</v>
       </c>
       <c r="N1680" s="18" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="O1680" s="19"/>
       <c r="P1680" s="19"/>
@@ -61307,13 +61304,13 @@
         <v>11465</v>
       </c>
       <c r="B1681" s="15" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="C1681" s="15">
         <v>2</v>
       </c>
       <c r="D1681" s="16" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="E1681" s="17"/>
       <c r="F1681" s="17"/>
@@ -61326,13 +61323,13 @@
       <c r="K1681" s="17"/>
       <c r="L1681" s="17"/>
       <c r="M1681" s="18" t="s">
-        <v>3309</v>
+        <v>3308</v>
       </c>
       <c r="N1681" s="18" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="O1681" s="19" t="s">
-        <v>3318</v>
+        <v>3317</v>
       </c>
       <c r="P1681" s="19"/>
       <c r="Q1681" s="20"/>
@@ -61342,13 +61339,13 @@
         <v>11466</v>
       </c>
       <c r="B1682" s="15" t="s">
-        <v>3341</v>
+        <v>3340</v>
       </c>
       <c r="C1682" s="15">
         <v>2</v>
       </c>
       <c r="D1682" s="16" t="s">
-        <v>3342</v>
+        <v>3341</v>
       </c>
       <c r="E1682" s="17"/>
       <c r="F1682" s="17"/>
@@ -61359,10 +61356,10 @@
       <c r="K1682" s="17"/>
       <c r="L1682" s="17"/>
       <c r="M1682" s="18" t="s">
-        <v>3309</v>
+        <v>3308</v>
       </c>
       <c r="N1682" s="18" t="s">
-        <v>3343</v>
+        <v>3342</v>
       </c>
       <c r="O1682" s="19" t="s">
         <v>2957</v>
@@ -61375,13 +61372,13 @@
         <v>11467</v>
       </c>
       <c r="B1683" s="15" t="s">
-        <v>3344</v>
+        <v>3343</v>
       </c>
       <c r="C1683" s="15">
         <v>2</v>
       </c>
       <c r="D1683" s="16" t="s">
-        <v>3345</v>
+        <v>3344</v>
       </c>
       <c r="E1683" s="17"/>
       <c r="F1683" s="17"/>
@@ -61392,13 +61389,13 @@
       <c r="K1683" s="17"/>
       <c r="L1683" s="17"/>
       <c r="M1683" s="18" t="s">
-        <v>3309</v>
+        <v>3308</v>
       </c>
       <c r="N1683" s="18" t="s">
+        <v>3345</v>
+      </c>
+      <c r="O1683" s="19" t="s">
         <v>3346</v>
-      </c>
-      <c r="O1683" s="19" t="s">
-        <v>3347</v>
       </c>
       <c r="P1683" s="19"/>
       <c r="Q1683" s="20"/>
@@ -61408,7 +61405,7 @@
         <v>11468</v>
       </c>
       <c r="B1684" s="15" t="s">
-        <v>3414</v>
+        <v>3413</v>
       </c>
       <c r="C1684" s="15">
         <v>2</v>
@@ -61425,7 +61422,7 @@
       </c>
       <c r="L1684" s="17"/>
       <c r="M1684" s="18" t="s">
-        <v>3413</v>
+        <v>3412</v>
       </c>
       <c r="N1684" s="18"/>
       <c r="O1684" s="19"/>
@@ -61437,7 +61434,7 @@
         <v>11469</v>
       </c>
       <c r="B1685" s="15" t="s">
-        <v>3415</v>
+        <v>3414</v>
       </c>
       <c r="C1685" s="15">
         <v>2</v>
@@ -61454,10 +61451,10 @@
       </c>
       <c r="L1685" s="17"/>
       <c r="M1685" s="18" t="s">
+        <v>3415</v>
+      </c>
+      <c r="N1685" s="18" t="s">
         <v>3416</v>
-      </c>
-      <c r="N1685" s="18" t="s">
-        <v>3417</v>
       </c>
       <c r="O1685" s="19"/>
       <c r="P1685" s="19"/>
@@ -61468,7 +61465,7 @@
         <v>30001</v>
       </c>
       <c r="B1686" s="15" t="s">
-        <v>3404</v>
+        <v>3403</v>
       </c>
       <c r="C1686" s="15"/>
       <c r="D1686" s="16"/>
@@ -61481,15 +61478,15 @@
       <c r="K1686" s="17"/>
       <c r="L1686" s="17"/>
       <c r="M1686" s="18" t="s">
-        <v>3409</v>
+        <v>3408</v>
       </c>
       <c r="N1686" s="18"/>
       <c r="O1686" s="19" t="s">
-        <v>3405</v>
+        <v>3404</v>
       </c>
       <c r="P1686" s="19"/>
       <c r="Q1686" s="20" t="s">
-        <v>3406</v>
+        <v>3405</v>
       </c>
     </row>
     <row r="1687" spans="1:17" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -61497,13 +61494,13 @@
         <v>30002</v>
       </c>
       <c r="B1687" s="15" t="s">
-        <v>3407</v>
+        <v>3406</v>
       </c>
       <c r="C1687" s="15">
         <v>2</v>
       </c>
       <c r="D1687" s="16" t="s">
-        <v>3408</v>
+        <v>3407</v>
       </c>
       <c r="E1687" s="17"/>
       <c r="F1687" s="17"/>
@@ -61528,7 +61525,7 @@
         <v>11470</v>
       </c>
       <c r="B1688" s="15" t="s">
-        <v>3518</v>
+        <v>3517</v>
       </c>
       <c r="C1688" s="15"/>
       <c r="D1688" s="16"/>
@@ -61542,7 +61539,7 @@
       <c r="L1688" s="17"/>
       <c r="M1688" s="18"/>
       <c r="N1688" s="18" t="s">
-        <v>3540</v>
+        <v>3539</v>
       </c>
       <c r="O1688" s="19"/>
       <c r="P1688" s="19"/>
@@ -61553,7 +61550,7 @@
         <v>11471</v>
       </c>
       <c r="B1689" s="15" t="s">
-        <v>3902</v>
+        <v>3899</v>
       </c>
       <c r="C1689" s="15"/>
       <c r="D1689" s="16"/>
@@ -61569,7 +61566,7 @@
         <v>1997</v>
       </c>
       <c r="N1689" s="18" t="s">
-        <v>3519</v>
+        <v>3518</v>
       </c>
       <c r="O1689" s="19"/>
       <c r="P1689" s="19"/>
@@ -61580,7 +61577,7 @@
         <v>11472</v>
       </c>
       <c r="B1690" s="15" t="s">
-        <v>3903</v>
+        <v>3900</v>
       </c>
       <c r="C1690" s="15"/>
       <c r="D1690" s="16"/>
@@ -61596,7 +61593,7 @@
         <v>1997</v>
       </c>
       <c r="N1690" s="18" t="s">
-        <v>3520</v>
+        <v>3519</v>
       </c>
       <c r="O1690" s="19"/>
       <c r="P1690" s="19"/>
@@ -61607,7 +61604,7 @@
         <v>11473</v>
       </c>
       <c r="B1691" s="15" t="s">
-        <v>3907</v>
+        <v>3903</v>
       </c>
       <c r="C1691" s="15"/>
       <c r="D1691" s="16"/>
@@ -61623,7 +61620,7 @@
         <v>1997</v>
       </c>
       <c r="N1691" s="18" t="s">
-        <v>3521</v>
+        <v>3520</v>
       </c>
       <c r="O1691" s="19"/>
       <c r="P1691" s="19"/>
@@ -61634,7 +61631,7 @@
         <v>11474</v>
       </c>
       <c r="B1692" s="15" t="s">
-        <v>3908</v>
+        <v>3904</v>
       </c>
       <c r="C1692" s="15"/>
       <c r="D1692" s="16"/>
@@ -61648,7 +61645,7 @@
       <c r="L1692" s="17"/>
       <c r="M1692" s="18"/>
       <c r="N1692" s="18" t="s">
-        <v>3522</v>
+        <v>3521</v>
       </c>
       <c r="O1692" s="19"/>
       <c r="P1692" s="19"/>
@@ -61659,7 +61656,7 @@
         <v>11475</v>
       </c>
       <c r="B1693" s="15" t="s">
-        <v>3909</v>
+        <v>3905</v>
       </c>
       <c r="C1693" s="15"/>
       <c r="D1693" s="16"/>
@@ -61672,10 +61669,10 @@
       <c r="K1693" s="17"/>
       <c r="L1693" s="17"/>
       <c r="M1693" s="18" t="s">
-        <v>3532</v>
+        <v>3531</v>
       </c>
       <c r="N1693" s="18" t="s">
-        <v>3523</v>
+        <v>3522</v>
       </c>
       <c r="O1693" s="19"/>
       <c r="P1693" s="19"/>
@@ -61686,7 +61683,7 @@
         <v>11476</v>
       </c>
       <c r="B1694" s="15" t="s">
-        <v>3910</v>
+        <v>3906</v>
       </c>
       <c r="C1694" s="15"/>
       <c r="D1694" s="16"/>
@@ -61700,7 +61697,7 @@
       <c r="L1694" s="17"/>
       <c r="M1694" s="18"/>
       <c r="N1694" s="18" t="s">
-        <v>3566</v>
+        <v>3565</v>
       </c>
       <c r="O1694" s="19"/>
       <c r="P1694" s="19"/>
@@ -61711,7 +61708,7 @@
         <v>11477</v>
       </c>
       <c r="B1695" s="15" t="s">
-        <v>3912</v>
+        <v>3908</v>
       </c>
       <c r="C1695" s="15"/>
       <c r="D1695" s="16"/>
@@ -61724,10 +61721,10 @@
       <c r="K1695" s="17"/>
       <c r="L1695" s="17"/>
       <c r="M1695" s="18" t="s">
-        <v>3911</v>
+        <v>3907</v>
       </c>
       <c r="N1695" s="18" t="s">
-        <v>3524</v>
+        <v>3523</v>
       </c>
       <c r="O1695" s="19"/>
       <c r="P1695" s="19"/>
@@ -61738,7 +61735,7 @@
         <v>11478</v>
       </c>
       <c r="B1696" s="15" t="s">
-        <v>3913</v>
+        <v>3909</v>
       </c>
       <c r="C1696" s="15"/>
       <c r="D1696" s="16"/>
@@ -61751,10 +61748,10 @@
       <c r="K1696" s="17"/>
       <c r="L1696" s="17"/>
       <c r="M1696" s="18" t="s">
-        <v>3541</v>
+        <v>3540</v>
       </c>
       <c r="N1696" s="18" t="s">
-        <v>3525</v>
+        <v>3524</v>
       </c>
       <c r="O1696" s="19"/>
       <c r="P1696" s="19"/>
@@ -61765,7 +61762,7 @@
         <v>11479</v>
       </c>
       <c r="B1697" s="15" t="s">
-        <v>3914</v>
+        <v>3910</v>
       </c>
       <c r="C1697" s="15"/>
       <c r="D1697" s="16"/>
@@ -61781,7 +61778,7 @@
         <v>1997</v>
       </c>
       <c r="N1697" s="18" t="s">
-        <v>3526</v>
+        <v>3525</v>
       </c>
       <c r="O1697" s="19"/>
       <c r="P1697" s="19"/>
@@ -61792,7 +61789,7 @@
         <v>11480</v>
       </c>
       <c r="B1698" s="15" t="s">
-        <v>3542</v>
+        <v>3541</v>
       </c>
       <c r="C1698" s="15"/>
       <c r="D1698" s="16"/>
@@ -61806,7 +61803,7 @@
       <c r="L1698" s="17"/>
       <c r="M1698" s="18"/>
       <c r="N1698" s="18" t="s">
-        <v>3527</v>
+        <v>3526</v>
       </c>
       <c r="O1698" s="19"/>
       <c r="P1698" s="19"/>
@@ -61817,7 +61814,7 @@
         <v>11481</v>
       </c>
       <c r="B1699" s="15" t="s">
-        <v>3915</v>
+        <v>3911</v>
       </c>
       <c r="C1699" s="15"/>
       <c r="D1699" s="16"/>
@@ -61833,7 +61830,7 @@
         <v>1997</v>
       </c>
       <c r="N1699" s="18" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="O1699" s="19"/>
       <c r="P1699" s="19"/>
@@ -61844,7 +61841,7 @@
         <v>11482</v>
       </c>
       <c r="B1700" s="15" t="s">
-        <v>3917</v>
+        <v>3913</v>
       </c>
       <c r="C1700" s="15"/>
       <c r="D1700" s="16"/>
@@ -61857,10 +61854,10 @@
       <c r="K1700" s="17"/>
       <c r="L1700" s="17"/>
       <c r="M1700" s="18" t="s">
-        <v>3916</v>
+        <v>3912</v>
       </c>
       <c r="N1700" s="18" t="s">
-        <v>3567</v>
+        <v>3566</v>
       </c>
       <c r="O1700" s="19"/>
       <c r="P1700" s="19"/>
@@ -61871,7 +61868,7 @@
         <v>11483</v>
       </c>
       <c r="B1701" s="15" t="s">
-        <v>3919</v>
+        <v>3915</v>
       </c>
       <c r="C1701" s="15"/>
       <c r="D1701" s="16"/>
@@ -61884,10 +61881,10 @@
       <c r="K1701" s="17"/>
       <c r="L1701" s="17"/>
       <c r="M1701" s="18" t="s">
-        <v>3543</v>
+        <v>3542</v>
       </c>
       <c r="N1701" s="18" t="s">
-        <v>3545</v>
+        <v>3544</v>
       </c>
       <c r="O1701" s="19"/>
       <c r="P1701" s="19"/>
@@ -61898,7 +61895,7 @@
         <v>11484</v>
       </c>
       <c r="B1702" s="15" t="s">
-        <v>3920</v>
+        <v>3916</v>
       </c>
       <c r="C1702" s="15"/>
       <c r="D1702" s="16"/>
@@ -61912,7 +61909,7 @@
       <c r="L1702" s="17"/>
       <c r="M1702" s="18"/>
       <c r="N1702" s="18" t="s">
-        <v>3550</v>
+        <v>3549</v>
       </c>
       <c r="O1702" s="19"/>
       <c r="P1702" s="19"/>
@@ -61923,7 +61920,7 @@
         <v>11485</v>
       </c>
       <c r="B1703" s="15" t="s">
-        <v>3549</v>
+        <v>3548</v>
       </c>
       <c r="C1703" s="15"/>
       <c r="D1703" s="16"/>
@@ -61937,7 +61934,7 @@
       <c r="L1703" s="17"/>
       <c r="M1703" s="18"/>
       <c r="N1703" s="18" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="O1703" s="19"/>
       <c r="P1703" s="19"/>
@@ -61948,7 +61945,7 @@
         <v>11486</v>
       </c>
       <c r="B1704" s="15" t="s">
-        <v>3918</v>
+        <v>3914</v>
       </c>
       <c r="C1704" s="15"/>
       <c r="D1704" s="16"/>
@@ -61964,7 +61961,7 @@
         <v>1997</v>
       </c>
       <c r="N1704" s="18" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="O1704" s="19"/>
       <c r="P1704" s="19"/>
@@ -61975,7 +61972,7 @@
         <v>11487</v>
       </c>
       <c r="B1705" s="15" t="s">
-        <v>3933</v>
+        <v>3929</v>
       </c>
       <c r="C1705" s="15"/>
       <c r="D1705" s="16"/>
@@ -61989,7 +61986,7 @@
       <c r="L1705" s="17"/>
       <c r="M1705" s="18"/>
       <c r="N1705" s="18" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="O1705" s="19"/>
       <c r="P1705" s="19"/>
@@ -62000,7 +61997,7 @@
         <v>11488</v>
       </c>
       <c r="B1706" s="15" t="s">
-        <v>3921</v>
+        <v>3917</v>
       </c>
       <c r="C1706" s="15"/>
       <c r="D1706" s="16"/>
@@ -62013,10 +62010,10 @@
       <c r="K1706" s="17"/>
       <c r="L1706" s="17"/>
       <c r="M1706" s="18" t="s">
-        <v>3541</v>
+        <v>3540</v>
       </c>
       <c r="N1706" s="18" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="O1706" s="19"/>
       <c r="P1706" s="19"/>
@@ -62027,7 +62024,7 @@
         <v>11489</v>
       </c>
       <c r="B1707" s="15" t="s">
-        <v>3941</v>
+        <v>3937</v>
       </c>
       <c r="C1707" s="15"/>
       <c r="D1707" s="16"/>
@@ -62040,10 +62037,10 @@
       <c r="K1707" s="17"/>
       <c r="L1707" s="17"/>
       <c r="M1707" s="18" t="s">
-        <v>3940</v>
+        <v>3936</v>
       </c>
       <c r="N1707" s="18" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="O1707" s="19"/>
       <c r="P1707" s="19"/>
@@ -62054,7 +62051,7 @@
         <v>11490</v>
       </c>
       <c r="B1708" s="15" t="s">
-        <v>3922</v>
+        <v>3918</v>
       </c>
       <c r="C1708" s="15"/>
       <c r="D1708" s="16"/>
@@ -62069,10 +62066,10 @@
       <c r="K1708" s="17"/>
       <c r="L1708" s="17"/>
       <c r="M1708" s="18" t="s">
-        <v>3357</v>
+        <v>3356</v>
       </c>
       <c r="N1708" s="18" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="O1708" s="19"/>
       <c r="P1708" s="19"/>
@@ -62083,7 +62080,7 @@
         <v>11491</v>
       </c>
       <c r="B1709" s="15" t="s">
-        <v>3923</v>
+        <v>3919</v>
       </c>
       <c r="C1709" s="15"/>
       <c r="D1709" s="16"/>
@@ -62096,10 +62093,10 @@
       <c r="K1709" s="17"/>
       <c r="L1709" s="17"/>
       <c r="M1709" s="18" t="s">
-        <v>3581</v>
+        <v>3580</v>
       </c>
       <c r="N1709" s="18" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
       <c r="O1709" s="19"/>
       <c r="P1709" s="19"/>
@@ -62110,7 +62107,7 @@
         <v>11492</v>
       </c>
       <c r="B1710" s="15" t="s">
-        <v>3924</v>
+        <v>3920</v>
       </c>
       <c r="C1710" s="15"/>
       <c r="D1710" s="16"/>
@@ -62126,7 +62123,7 @@
         <v>1997</v>
       </c>
       <c r="N1710" s="18" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
       <c r="O1710" s="19"/>
       <c r="P1710" s="19"/>
@@ -62137,7 +62134,7 @@
         <v>11493</v>
       </c>
       <c r="B1711" s="15" t="s">
-        <v>3926</v>
+        <v>3922</v>
       </c>
       <c r="C1711" s="15"/>
       <c r="D1711" s="16"/>
@@ -62150,10 +62147,10 @@
       <c r="K1711" s="17"/>
       <c r="L1711" s="17"/>
       <c r="M1711" s="18" t="s">
-        <v>3503</v>
+        <v>3502</v>
       </c>
       <c r="N1711" s="18" t="s">
-        <v>3559</v>
+        <v>3558</v>
       </c>
       <c r="O1711" s="19"/>
       <c r="P1711" s="19"/>
@@ -62164,7 +62161,7 @@
         <v>11494</v>
       </c>
       <c r="B1712" s="15" t="s">
-        <v>3925</v>
+        <v>3921</v>
       </c>
       <c r="C1712" s="15"/>
       <c r="D1712" s="16"/>
@@ -62177,10 +62174,10 @@
       <c r="K1712" s="17"/>
       <c r="L1712" s="17"/>
       <c r="M1712" s="18" t="s">
-        <v>3541</v>
+        <v>3540</v>
       </c>
       <c r="N1712" s="18" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="O1712" s="19"/>
       <c r="P1712" s="19"/>
@@ -62191,7 +62188,7 @@
         <v>11495</v>
       </c>
       <c r="B1713" s="15" t="s">
-        <v>3927</v>
+        <v>3923</v>
       </c>
       <c r="C1713" s="15"/>
       <c r="D1713" s="16"/>
@@ -62204,10 +62201,10 @@
       <c r="K1713" s="17"/>
       <c r="L1713" s="17"/>
       <c r="M1713" s="18" t="s">
-        <v>3541</v>
+        <v>3540</v>
       </c>
       <c r="N1713" s="18" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
       <c r="O1713" s="19"/>
       <c r="P1713" s="19"/>
@@ -62218,7 +62215,7 @@
         <v>11496</v>
       </c>
       <c r="B1714" s="15" t="s">
-        <v>3930</v>
+        <v>3926</v>
       </c>
       <c r="C1714" s="15"/>
       <c r="D1714" s="16"/>
@@ -62231,10 +62228,10 @@
       <c r="K1714" s="17"/>
       <c r="L1714" s="17"/>
       <c r="M1714" s="18" t="s">
-        <v>3503</v>
+        <v>3502</v>
       </c>
       <c r="N1714" s="18" t="s">
-        <v>3565</v>
+        <v>3564</v>
       </c>
       <c r="O1714" s="19"/>
       <c r="P1714" s="19"/>
@@ -62245,7 +62242,7 @@
         <v>11497</v>
       </c>
       <c r="B1715" s="15" t="s">
-        <v>3931</v>
+        <v>3927</v>
       </c>
       <c r="C1715" s="15"/>
       <c r="D1715" s="16"/>
@@ -62259,7 +62256,7 @@
       <c r="L1715" s="17"/>
       <c r="M1715" s="18"/>
       <c r="N1715" s="18" t="s">
-        <v>3928</v>
+        <v>3924</v>
       </c>
       <c r="O1715" s="19"/>
       <c r="P1715" s="19"/>
@@ -62270,7 +62267,7 @@
         <v>11498</v>
       </c>
       <c r="B1716" s="15" t="s">
-        <v>3932</v>
+        <v>3928</v>
       </c>
       <c r="C1716" s="15"/>
       <c r="D1716" s="16"/>
@@ -62283,10 +62280,10 @@
       <c r="K1716" s="17"/>
       <c r="L1716" s="17"/>
       <c r="M1716" s="18" t="s">
-        <v>3541</v>
+        <v>3540</v>
       </c>
       <c r="N1716" s="18" t="s">
-        <v>3929</v>
+        <v>3925</v>
       </c>
       <c r="O1716" s="19"/>
       <c r="P1716" s="19"/>
@@ -62297,7 +62294,7 @@
         <v>11499</v>
       </c>
       <c r="B1717" s="15" t="s">
-        <v>3580</v>
+        <v>3579</v>
       </c>
       <c r="C1717" s="15"/>
       <c r="D1717" s="16"/>
@@ -62310,10 +62307,10 @@
       <c r="K1717" s="17"/>
       <c r="L1717" s="17"/>
       <c r="M1717" s="18" t="s">
-        <v>3581</v>
+        <v>3580</v>
       </c>
       <c r="N1717" s="18" t="s">
-        <v>3579</v>
+        <v>3578</v>
       </c>
       <c r="O1717" s="19"/>
       <c r="P1717" s="19"/>
@@ -62324,7 +62321,7 @@
         <v>11500</v>
       </c>
       <c r="B1718" s="15" t="s">
-        <v>3934</v>
+        <v>3930</v>
       </c>
       <c r="C1718" s="15"/>
       <c r="D1718" s="16"/>
@@ -62339,10 +62336,10 @@
       <c r="K1718" s="17"/>
       <c r="L1718" s="17"/>
       <c r="M1718" s="18" t="s">
-        <v>3936</v>
+        <v>3932</v>
       </c>
       <c r="N1718" s="18" t="s">
-        <v>3935</v>
+        <v>3931</v>
       </c>
       <c r="O1718" s="19"/>
       <c r="P1718" s="19"/>
@@ -62353,7 +62350,7 @@
         <v>11501</v>
       </c>
       <c r="B1719" s="15" t="s">
-        <v>3938</v>
+        <v>3934</v>
       </c>
       <c r="C1719" s="15"/>
       <c r="D1719" s="16"/>
@@ -62368,10 +62365,10 @@
       <c r="K1719" s="17"/>
       <c r="L1719" s="17"/>
       <c r="M1719" s="18" t="s">
-        <v>3937</v>
+        <v>3933</v>
       </c>
       <c r="N1719" s="18" t="s">
-        <v>3935</v>
+        <v>3931</v>
       </c>
       <c r="O1719" s="19"/>
       <c r="P1719" s="19"/>
@@ -62382,7 +62379,7 @@
         <v>11502</v>
       </c>
       <c r="B1720" s="27" t="s">
-        <v>3939</v>
+        <v>3935</v>
       </c>
       <c r="C1720" s="15"/>
       <c r="D1720" s="16"/>
@@ -62395,10 +62392,10 @@
       <c r="K1720" s="17"/>
       <c r="L1720" s="17"/>
       <c r="M1720" s="18" t="s">
-        <v>3581</v>
+        <v>3580</v>
       </c>
       <c r="N1720" s="18" t="s">
-        <v>3673</v>
+        <v>3672</v>
       </c>
       <c r="O1720" s="19"/>
       <c r="P1720" s="19"/>
@@ -62409,7 +62406,7 @@
         <v>11503</v>
       </c>
       <c r="B1721" s="27" t="s">
-        <v>3854</v>
+        <v>3851</v>
       </c>
       <c r="C1721" s="15"/>
       <c r="D1721" s="16"/>
@@ -62424,7 +62421,7 @@
       <c r="K1721" s="17"/>
       <c r="L1721" s="17"/>
       <c r="M1721" s="18" t="s">
-        <v>3855</v>
+        <v>3852</v>
       </c>
       <c r="N1721" s="18"/>
       <c r="O1721" s="19"/>
@@ -62436,7 +62433,7 @@
         <v>11504</v>
       </c>
       <c r="B1722" s="15" t="s">
-        <v>3856</v>
+        <v>3853</v>
       </c>
       <c r="C1722" s="15">
         <v>3</v>

--- a/data/zh-cn/events.xlsx
+++ b/data/zh-cn/events.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0E5100-004F-48F7-A456-4E68E89306BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A3BD1E-03E6-4B33-B983-989C05EF2D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5251" uniqueCount="3953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5251" uniqueCount="3954">
   <si>
     <t>$id</t>
   </si>
@@ -12536,6 +12536,10 @@
   </si>
   <si>
     <t>微积分正式进入小学数学教材。</t>
+  </si>
+  <si>
+    <t>【绝密消息】本游戏的制作者正在制作一个新游戏，详情关注策划的B站账号神户小德</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -12739,88 +12743,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -13140,10 +13144,10 @@
   <dimension ref="A1:Q1768"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C1676" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C942" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D1396" sqref="D1396"/>
+      <selection pane="bottomRight" activeCell="B968" sqref="B968"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -41191,7 +41195,7 @@
         <v>10773</v>
       </c>
       <c r="B963" s="15" t="s">
-        <v>3934</v>
+        <v>3953</v>
       </c>
       <c r="C963" s="15">
         <v>2</v>

--- a/data/zh-cn/events.xlsx
+++ b/data/zh-cn/events.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A3BD1E-03E6-4B33-B983-989C05EF2D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240E7F34-96A7-4949-A65C-E51003AC2C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5251" uniqueCount="3954">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5252" uniqueCount="3955">
   <si>
     <t>$id</t>
   </si>
@@ -9892,9 +9892,6 @@
     <t>世界第一个八星级酒店在空间站建成。</t>
   </si>
   <si>
-    <t>在上面能看到八大行星。</t>
-  </si>
-  <si>
     <t>EVT?[11439,11263,11288]</t>
   </si>
   <si>
@@ -9947,9 +9944,6 @@
   </si>
   <si>
     <t>EVT?[11448]</t>
-  </si>
-  <si>
-    <t>前领导人打破最长寿的人吉尼斯纪录。</t>
   </si>
   <si>
     <t>EVT?[11449]</t>
@@ -10853,10 +10847,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>国足夺得世界杯。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>EVT?[10011]</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -12044,10 +12034,6 @@
   </si>
   <si>
     <t>((INT&gt;10)&amp;(EVT?[11288]))|(TLT?[2022])</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>【绝密消息】不会吧不会吧，2022年了居然还有人在人生重开？</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -12257,10 +12243,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>大量网红在自己的网民前加上了当地地名。同年多名网红被招安成为当地干部。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>为减少招聘时的性别歧视，某地出台新规定：员工休产假时的工资将延迟到产假结束后的相同长度时间内随工资发放。</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -12342,10 +12324,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>外星人在地球公开现身，宣称某电脑品牌违反宇宙命名公约，且logo涉嫌歧视，责令立即修改。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>美国黄石公园火山爆发。全球平均气温下降1摄氏度。</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -12358,10 +12336,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>西安或将改名为西京，日本政府立即向中方抗议。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>韩国人口直线下滑，韩国政府宣布即将启动“火种”计划。</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -12414,14 +12388,6 @@
   <si>
     <t>山东省宣布本省男性平均身高达到1米8。
 各大社交平台上所在地标注为山东省的男性账户数量激增。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>(TLT?[1133,1132])&amp;(EVT?[10010])</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>本市有人计划在公交车上引爆炸弹，所幸被你提前阻止。</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -12452,10 +12418,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>上海市捐赠给贫困县的物资在当地竟被撕下标签后高价售卖，上海市政府在新闻发布会上痛斥这种卑劣行径。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>美国掀起第四次女性主义浪潮。</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -12464,10 +12426,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>《国际歌》在新时代重放光芒，成为年度流行歌。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>为保护言论自由，国家发文禁止媒体设置“评论精选”功能。</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -12484,61 +12442,109 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>【绝密消息】2022年9月2日，人生重开模拟器正式发布一周年，谢谢大家~</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>据报道，美国一彩民中彩票800亿美元，后被曝光是因美国彩票滞销而编造出的假新闻。</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>邻国首相中枪击身亡。</t>
+    <t>国内互联网企业大幅扩招，业界一片繁荣。</t>
+  </si>
+  <si>
+    <t>某高校被曝光可以走后门进入后，开始明码标价售卖名额。</t>
+  </si>
+  <si>
+    <t>专家建议，农民可以在省会买房，每天坐高铁回老家种田。</t>
+  </si>
+  <si>
+    <t>影视和游戏的画面、音效内容已经完全可以由AI完成制作。</t>
+  </si>
+  <si>
+    <t>专家建议，如果人生不如意可以尝试重开，为减轻养老金压力做出贡献。</t>
+  </si>
+  <si>
+    <t>专家建议，政府应当为专家提供保镖，避免专家被暴民打死。</t>
+  </si>
+  <si>
+    <t>专家建议提高房价。</t>
+  </si>
+  <si>
+    <t>中考分流被取消。</t>
+  </si>
+  <si>
+    <t>某专家在进行《保护环境、不要吃肉》的演讲后，被人意外拍到进入了一家烤肉店。</t>
+  </si>
+  <si>
+    <t>据报道，美国富豪在瑞士银行存款达数千亿美元，引发美国平民不满。</t>
+  </si>
+  <si>
+    <t>今年考研人数突破1千万。</t>
+  </si>
+  <si>
+    <t>印度大量大龄男子找不到对象，犯罪率暴增。</t>
+  </si>
+  <si>
+    <t>专家建议将个税起征点降到0。</t>
+  </si>
+  <si>
+    <t>微积分正式进入小学数学教材。</t>
+  </si>
+  <si>
+    <t>【绝密消息】本游戏的制作者正在制作一个新游戏，详情关注策划的B站账号神户小德</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>国内互联网企业大幅扩招，业界一片繁荣。</t>
-  </si>
-  <si>
-    <t>某高校被曝光可以走后门进入后，开始明码标价售卖名额。</t>
-  </si>
-  <si>
-    <t>专家建议，农民可以在省会买房，每天坐高铁回老家种田。</t>
-  </si>
-  <si>
-    <t>影视和游戏的画面、音效内容已经完全可以由AI完成制作。</t>
-  </si>
-  <si>
-    <t>专家建议，如果人生不如意可以尝试重开，为减轻养老金压力做出贡献。</t>
-  </si>
-  <si>
-    <t>专家建议，政府应当为专家提供保镖，避免专家被暴民打死。</t>
-  </si>
-  <si>
-    <t>专家建议提高房价。</t>
-  </si>
-  <si>
-    <t>中考分流被取消。</t>
-  </si>
-  <si>
-    <t>某专家在进行《保护环境、不要吃肉》的演讲后，被人意外拍到进入了一家烤肉店。</t>
-  </si>
-  <si>
-    <t>据报道，美国富豪在瑞士银行存款达数千亿美元，引发美国平民不满。</t>
-  </si>
-  <si>
-    <t>今年考研人数突破1千万。</t>
-  </si>
-  <si>
-    <t>印度大量大龄男子找不到对象，犯罪率暴增。</t>
-  </si>
-  <si>
-    <t>专家建议将个税起征点降到0。</t>
-  </si>
-  <si>
-    <t>微积分正式进入小学数学教材。</t>
-  </si>
-  <si>
-    <t>【绝密消息】本游戏的制作者正在制作一个新游戏，详情关注策划的B站账号神户小德</t>
+    <t>【绝密消息】不会吧，2023年了居然还有人在人生重开？</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>【绝密消息】现实世界其实比游戏更魔幻。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>印度突发严重传染病，火葬场爆满。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>一年中有100多名明星因偷税被罚。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家开始大力整治，娱乐圈逐渐走向衰亡。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>美国网民并不接受，认为官方的流行语太脱离群众。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>纽约时报公布美国年度十大网络流行语。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球人口跌破80亿。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于中国企业的大力资助，世界杯将入围名额数量提高到了108。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>学术界普遍开始使用AI来写论文，论文产量爆发式增长。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>你感觉自己越来越难从娱乐活动中获得乐趣了。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>据调查，我国政府公信力达到历史最高点。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>据约翰霍普金斯大学研究表明，美国政府公信力仍在持续下降。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>大量网红在自己的网名前加上了当地地名。同年多名网红被招安成为当地干部。</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -13144,10 +13150,10 @@
   <dimension ref="A1:Q1768"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C942" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C500" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B968" sqref="B968"/>
+      <selection pane="bottomRight" activeCell="B597" sqref="B597"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13176,7 +13182,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>3838</v>
+        <v>3835</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -13197,10 +13203,10 @@
         <v>7</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>3402</v>
+        <v>3400</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>3403</v>
+        <v>3401</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>8</v>
@@ -13212,10 +13218,10 @@
         <v>10</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>3411</v>
+        <v>3409</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>3411</v>
+        <v>3409</v>
       </c>
       <c r="Q1" s="7" t="s">
         <v>11</v>
@@ -13229,7 +13235,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>3839</v>
+        <v>3836</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>14</v>
@@ -13253,7 +13259,7 @@
         <v>20</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>3404</v>
+        <v>3402</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>21</v>
@@ -13268,7 +13274,7 @@
         <v>24</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>3410</v>
+        <v>3408</v>
       </c>
       <c r="Q2" s="14" t="s">
         <v>25</v>
@@ -13298,13 +13304,13 @@
       <c r="M3" s="18"/>
       <c r="N3" s="18"/>
       <c r="O3" s="19" t="s">
-        <v>3924</v>
+        <v>3915</v>
       </c>
       <c r="P3" s="19" t="s">
-        <v>3925</v>
+        <v>3916</v>
       </c>
       <c r="Q3" s="20" t="s">
-        <v>3926</v>
+        <v>3917</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -13312,7 +13318,7 @@
         <v>20000</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>3847</v>
+        <v>3843</v>
       </c>
       <c r="C4" s="15">
         <v>3</v>
@@ -13341,7 +13347,7 @@
         <v>20002</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>3849</v>
+        <v>3845</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="16"/>
@@ -13354,13 +13360,13 @@
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
       <c r="M5" s="18" t="s">
-        <v>3850</v>
+        <v>3846</v>
       </c>
       <c r="N5" s="18" t="s">
-        <v>3349</v>
+        <v>3347</v>
       </c>
       <c r="O5" s="19" t="s">
-        <v>3851</v>
+        <v>3847</v>
       </c>
       <c r="P5" s="19"/>
       <c r="Q5" s="20"/>
@@ -13370,7 +13376,7 @@
         <v>20001</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>3848</v>
+        <v>3844</v>
       </c>
       <c r="C6" s="15">
         <v>3</v>
@@ -13472,7 +13478,7 @@
         <v>33</v>
       </c>
       <c r="O9" s="19" t="s">
-        <v>3846</v>
+        <v>3842</v>
       </c>
       <c r="P9" s="19"/>
       <c r="Q9" s="20" t="s">
@@ -13784,7 +13790,7 @@
         <v>60</v>
       </c>
       <c r="N20" s="18" t="s">
-        <v>3726</v>
+        <v>3723</v>
       </c>
       <c r="O20" s="19"/>
       <c r="P20" s="19"/>
@@ -13842,7 +13848,7 @@
         <v>60</v>
       </c>
       <c r="N22" s="18" t="s">
-        <v>3727</v>
+        <v>3724</v>
       </c>
       <c r="O22" s="19"/>
       <c r="P22" s="19"/>
@@ -13906,7 +13912,7 @@
         <v>69</v>
       </c>
       <c r="N24" s="18" t="s">
-        <v>3728</v>
+        <v>3725</v>
       </c>
       <c r="O24" s="19" t="s">
         <v>70</v>
@@ -13941,7 +13947,7 @@
         <v>69</v>
       </c>
       <c r="N25" s="18" t="s">
-        <v>3729</v>
+        <v>3726</v>
       </c>
       <c r="O25" s="19" t="s">
         <v>72</v>
@@ -14849,7 +14855,7 @@
         <v>60</v>
       </c>
       <c r="N55" s="18" t="s">
-        <v>3828</v>
+        <v>3825</v>
       </c>
       <c r="O55" s="19" t="s">
         <v>124</v>
@@ -16330,7 +16336,7 @@
       </c>
       <c r="O106" s="19"/>
       <c r="P106" s="19" t="s">
-        <v>3737</v>
+        <v>3734</v>
       </c>
       <c r="Q106" s="20" t="s">
         <v>287</v>
@@ -16363,7 +16369,7 @@
       <c r="N107" s="18"/>
       <c r="O107" s="19"/>
       <c r="P107" s="19" t="s">
-        <v>3737</v>
+        <v>3734</v>
       </c>
       <c r="Q107" s="20" t="s">
         <v>287</v>
@@ -18400,7 +18406,7 @@
         <v>10155</v>
       </c>
       <c r="B178" s="15" t="s">
-        <v>3665</v>
+        <v>3662</v>
       </c>
       <c r="C178" s="15"/>
       <c r="D178" s="16"/>
@@ -20024,7 +20030,7 @@
         <v>599</v>
       </c>
       <c r="N234" s="18" t="s">
-        <v>3434</v>
+        <v>3432</v>
       </c>
       <c r="O234" s="19"/>
       <c r="P234" s="19"/>
@@ -20050,10 +20056,10 @@
       <c r="K235" s="17"/>
       <c r="L235" s="17"/>
       <c r="M235" s="18" t="s">
+        <v>3431</v>
+      </c>
+      <c r="N235" s="18" t="s">
         <v>3433</v>
-      </c>
-      <c r="N235" s="18" t="s">
-        <v>3435</v>
       </c>
       <c r="O235" s="19"/>
       <c r="P235" s="19"/>
@@ -20082,7 +20088,7 @@
         <v>612</v>
       </c>
       <c r="N236" s="18" t="s">
-        <v>3436</v>
+        <v>3434</v>
       </c>
       <c r="O236" s="19"/>
       <c r="P236" s="19"/>
@@ -20140,10 +20146,10 @@
       <c r="N238" s="18"/>
       <c r="O238" s="19"/>
       <c r="P238" s="19" t="s">
-        <v>3738</v>
+        <v>3735</v>
       </c>
       <c r="Q238" s="20" t="s">
-        <v>3739</v>
+        <v>3736</v>
       </c>
     </row>
     <row r="239" spans="1:17" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -20151,7 +20157,7 @@
         <v>10214</v>
       </c>
       <c r="B239" s="15" t="s">
-        <v>3561</v>
+        <v>3558</v>
       </c>
       <c r="C239" s="15"/>
       <c r="D239" s="16"/>
@@ -20227,10 +20233,10 @@
       <c r="N241" s="18"/>
       <c r="O241" s="19"/>
       <c r="P241" s="19" t="s">
-        <v>3738</v>
+        <v>3735</v>
       </c>
       <c r="Q241" s="20" t="s">
-        <v>3740</v>
+        <v>3737</v>
       </c>
     </row>
     <row r="242" spans="1:17" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -20445,7 +20451,7 @@
       <c r="K248" s="17"/>
       <c r="L248" s="17"/>
       <c r="M248" s="18" t="s">
-        <v>3562</v>
+        <v>3559</v>
       </c>
       <c r="N248" s="18" t="s">
         <v>638</v>
@@ -20651,7 +20657,7 @@
         <v>656</v>
       </c>
       <c r="N255" s="18" t="s">
-        <v>3502</v>
+        <v>3500</v>
       </c>
       <c r="O255" s="19"/>
       <c r="P255" s="19"/>
@@ -20680,7 +20686,7 @@
         <v>658</v>
       </c>
       <c r="N256" s="18" t="s">
-        <v>3503</v>
+        <v>3501</v>
       </c>
       <c r="O256" s="19" t="s">
         <v>659</v>
@@ -20798,7 +20804,7 @@
         <v>668</v>
       </c>
       <c r="N260" s="18" t="s">
-        <v>3504</v>
+        <v>3502</v>
       </c>
       <c r="O260" s="19"/>
       <c r="P260" s="19"/>
@@ -20854,7 +20860,7 @@
         <v>60</v>
       </c>
       <c r="N262" s="21" t="s">
-        <v>3505</v>
+        <v>3503</v>
       </c>
       <c r="O262" s="19"/>
       <c r="P262" s="19"/>
@@ -21105,7 +21111,7 @@
         <v>695</v>
       </c>
       <c r="N271" s="18" t="s">
-        <v>3438</v>
+        <v>3436</v>
       </c>
       <c r="O271" s="19"/>
       <c r="P271" s="19"/>
@@ -21134,7 +21140,7 @@
         <v>697</v>
       </c>
       <c r="N272" s="18" t="s">
-        <v>3437</v>
+        <v>3435</v>
       </c>
       <c r="O272" s="19"/>
       <c r="P272" s="19"/>
@@ -21229,10 +21235,10 @@
       </c>
       <c r="O275" s="19"/>
       <c r="P275" s="19" t="s">
+        <v>3735</v>
+      </c>
+      <c r="Q275" s="20" t="s">
         <v>3738</v>
-      </c>
-      <c r="Q275" s="20" t="s">
-        <v>3741</v>
       </c>
     </row>
     <row r="276" spans="1:17" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -21737,10 +21743,10 @@
       </c>
       <c r="O293" s="19"/>
       <c r="P293" s="19" t="s">
-        <v>3738</v>
+        <v>3735</v>
       </c>
       <c r="Q293" s="20" t="s">
-        <v>3742</v>
+        <v>3739</v>
       </c>
     </row>
     <row r="294" spans="1:17" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -22108,7 +22114,7 @@
         <v>752</v>
       </c>
       <c r="N306" s="18" t="s">
-        <v>3829</v>
+        <v>3826</v>
       </c>
       <c r="O306" s="19"/>
       <c r="P306" s="19"/>
@@ -22137,7 +22143,7 @@
         <v>782</v>
       </c>
       <c r="N307" s="18" t="s">
-        <v>3830</v>
+        <v>3827</v>
       </c>
       <c r="O307" s="19"/>
       <c r="P307" s="19"/>
@@ -22166,7 +22172,7 @@
         <v>784</v>
       </c>
       <c r="N308" s="18" t="s">
-        <v>3470</v>
+        <v>3468</v>
       </c>
       <c r="O308" s="19"/>
       <c r="P308" s="19"/>
@@ -22393,13 +22399,13 @@
         <v>801</v>
       </c>
       <c r="O316" s="19" t="s">
-        <v>3393</v>
+        <v>3391</v>
       </c>
       <c r="P316" s="19" t="s">
-        <v>3738</v>
+        <v>3735</v>
       </c>
       <c r="Q316" s="20" t="s">
-        <v>3392</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="317" spans="1:17" ht="31.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -22426,7 +22432,7 @@
         <v>803</v>
       </c>
       <c r="O317" s="19" t="s">
-        <v>3392</v>
+        <v>3390</v>
       </c>
       <c r="P317" s="19"/>
       <c r="Q317" s="20"/>
@@ -22541,10 +22547,10 @@
         <v>809</v>
       </c>
       <c r="N321" s="18" t="s">
-        <v>3576</v>
+        <v>3573</v>
       </c>
       <c r="O321" s="19" t="s">
-        <v>3740</v>
+        <v>3737</v>
       </c>
       <c r="P321" s="19"/>
       <c r="Q321" s="20"/>
@@ -23457,13 +23463,13 @@
         <v>20323</v>
       </c>
       <c r="B353" s="15" t="s">
-        <v>3473</v>
+        <v>3471</v>
       </c>
       <c r="C353" s="15">
         <v>2</v>
       </c>
       <c r="D353" s="16" t="s">
-        <v>3474</v>
+        <v>3472</v>
       </c>
       <c r="E353" s="17"/>
       <c r="F353" s="17"/>
@@ -23479,7 +23485,7 @@
         <v>886</v>
       </c>
       <c r="N353" s="18" t="s">
-        <v>3475</v>
+        <v>3473</v>
       </c>
       <c r="O353" s="19"/>
       <c r="P353" s="19"/>
@@ -23769,13 +23775,13 @@
         <v>20332</v>
       </c>
       <c r="B363" s="15" t="s">
-        <v>3340</v>
+        <v>3338</v>
       </c>
       <c r="C363" s="15">
         <v>1</v>
       </c>
       <c r="D363" s="16" t="s">
-        <v>3341</v>
+        <v>3339</v>
       </c>
       <c r="E363" s="17"/>
       <c r="F363" s="17"/>
@@ -23791,10 +23797,10 @@
         <v>886</v>
       </c>
       <c r="N363" s="18" t="s">
-        <v>3345</v>
+        <v>3343</v>
       </c>
       <c r="O363" s="19" t="s">
-        <v>3342</v>
+        <v>3340</v>
       </c>
       <c r="P363" s="19"/>
       <c r="Q363" s="20"/>
@@ -23804,7 +23810,7 @@
         <v>20333</v>
       </c>
       <c r="B364" s="15" t="s">
-        <v>3343</v>
+        <v>3341</v>
       </c>
       <c r="C364" s="15">
         <v>2</v>
@@ -23823,10 +23829,10 @@
       <c r="K364" s="17"/>
       <c r="L364" s="17"/>
       <c r="M364" s="18" t="s">
+        <v>3342</v>
+      </c>
+      <c r="N364" s="18" t="s">
         <v>3344</v>
-      </c>
-      <c r="N364" s="18" t="s">
-        <v>3346</v>
       </c>
       <c r="O364" s="19"/>
       <c r="P364" s="19"/>
@@ -23837,11 +23843,11 @@
         <v>20334</v>
       </c>
       <c r="B365" s="15" t="s">
-        <v>3347</v>
+        <v>3345</v>
       </c>
       <c r="C365" s="15"/>
       <c r="D365" s="16" t="s">
-        <v>3348</v>
+        <v>3346</v>
       </c>
       <c r="E365" s="17"/>
       <c r="F365" s="17"/>
@@ -23852,13 +23858,13 @@
       <c r="K365" s="17"/>
       <c r="L365" s="17"/>
       <c r="M365" s="18" t="s">
+        <v>3347</v>
+      </c>
+      <c r="N365" s="18" t="s">
         <v>3349</v>
       </c>
-      <c r="N365" s="18" t="s">
-        <v>3351</v>
-      </c>
       <c r="O365" s="19" t="s">
-        <v>3559</v>
+        <v>3556</v>
       </c>
       <c r="P365" s="19"/>
       <c r="Q365" s="20"/>
@@ -23868,7 +23874,7 @@
         <v>20335</v>
       </c>
       <c r="B366" s="15" t="s">
-        <v>3350</v>
+        <v>3348</v>
       </c>
       <c r="C366" s="15">
         <v>1</v>
@@ -23895,11 +23901,11 @@
         <v>20336</v>
       </c>
       <c r="B367" s="15" t="s">
-        <v>3353</v>
+        <v>3351</v>
       </c>
       <c r="C367" s="15"/>
       <c r="D367" s="16" t="s">
-        <v>3354</v>
+        <v>3352</v>
       </c>
       <c r="E367" s="17"/>
       <c r="F367" s="17"/>
@@ -23910,17 +23916,17 @@
       <c r="K367" s="17"/>
       <c r="L367" s="17"/>
       <c r="M367" s="18" t="s">
-        <v>3352</v>
+        <v>3350</v>
       </c>
       <c r="N367" s="18" t="s">
-        <v>3357</v>
+        <v>3355</v>
       </c>
       <c r="O367" s="19" t="s">
-        <v>3356</v>
+        <v>3354</v>
       </c>
       <c r="P367" s="19"/>
       <c r="Q367" s="20" t="s">
-        <v>3355</v>
+        <v>3353</v>
       </c>
     </row>
     <row r="368" spans="1:17" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -23928,7 +23934,7 @@
         <v>20337</v>
       </c>
       <c r="B368" s="15" t="s">
-        <v>3358</v>
+        <v>3356</v>
       </c>
       <c r="C368" s="15">
         <v>1</v>
@@ -23959,7 +23965,7 @@
         <v>20338</v>
       </c>
       <c r="B369" s="15" t="s">
-        <v>3359</v>
+        <v>3357</v>
       </c>
       <c r="C369" s="15"/>
       <c r="D369" s="16"/>
@@ -23974,10 +23980,10 @@
       <c r="K369" s="17"/>
       <c r="L369" s="17"/>
       <c r="M369" s="18" t="s">
-        <v>3500</v>
+        <v>3498</v>
       </c>
       <c r="N369" s="18" t="s">
-        <v>3501</v>
+        <v>3499</v>
       </c>
       <c r="O369" s="19"/>
       <c r="P369" s="19"/>
@@ -23988,7 +23994,7 @@
         <v>20339</v>
       </c>
       <c r="B370" s="15" t="s">
-        <v>3360</v>
+        <v>3358</v>
       </c>
       <c r="C370" s="15"/>
       <c r="D370" s="16"/>
@@ -24001,10 +24007,10 @@
       <c r="K370" s="17"/>
       <c r="L370" s="17"/>
       <c r="M370" s="18" t="s">
-        <v>3361</v>
+        <v>3359</v>
       </c>
       <c r="N370" s="18" t="s">
-        <v>3425</v>
+        <v>3423</v>
       </c>
       <c r="O370" s="19"/>
       <c r="P370" s="19"/>
@@ -24015,7 +24021,7 @@
         <v>20340</v>
       </c>
       <c r="B371" s="15" t="s">
-        <v>3363</v>
+        <v>3361</v>
       </c>
       <c r="C371" s="15"/>
       <c r="D371" s="16"/>
@@ -24030,13 +24036,13 @@
       <c r="K371" s="17"/>
       <c r="L371" s="17"/>
       <c r="M371" s="18" t="s">
+        <v>3360</v>
+      </c>
+      <c r="N371" s="18" t="s">
         <v>3362</v>
       </c>
-      <c r="N371" s="18" t="s">
-        <v>3364</v>
-      </c>
       <c r="O371" s="19" t="s">
-        <v>3365</v>
+        <v>3363</v>
       </c>
       <c r="P371" s="19"/>
       <c r="Q371" s="20"/>
@@ -24046,7 +24052,7 @@
         <v>20341</v>
       </c>
       <c r="B372" s="15" t="s">
-        <v>3366</v>
+        <v>3364</v>
       </c>
       <c r="C372" s="15"/>
       <c r="D372" s="16"/>
@@ -24071,7 +24077,7 @@
         <v>20342</v>
       </c>
       <c r="B373" s="15" t="s">
-        <v>3367</v>
+        <v>3365</v>
       </c>
       <c r="C373" s="15"/>
       <c r="D373" s="16"/>
@@ -24084,17 +24090,17 @@
       <c r="K373" s="17"/>
       <c r="L373" s="17"/>
       <c r="M373" s="18" t="s">
-        <v>3368</v>
+        <v>3366</v>
       </c>
       <c r="N373" s="18" t="s">
+        <v>3367</v>
+      </c>
+      <c r="O373" s="19" t="s">
         <v>3369</v>
-      </c>
-      <c r="O373" s="19" t="s">
-        <v>3371</v>
       </c>
       <c r="P373" s="19"/>
       <c r="Q373" s="20" t="s">
-        <v>3370</v>
+        <v>3368</v>
       </c>
     </row>
     <row r="374" spans="1:17" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24102,7 +24108,7 @@
         <v>20343</v>
       </c>
       <c r="B374" s="15" t="s">
-        <v>3372</v>
+        <v>3370</v>
       </c>
       <c r="C374" s="15">
         <v>1</v>
@@ -24123,7 +24129,7 @@
       <c r="M374" s="18"/>
       <c r="N374" s="18"/>
       <c r="O374" s="19" t="s">
-        <v>3577</v>
+        <v>3574</v>
       </c>
       <c r="P374" s="19"/>
       <c r="Q374" s="20"/>
@@ -24133,7 +24139,7 @@
         <v>20349</v>
       </c>
       <c r="B375" s="15" t="s">
-        <v>3578</v>
+        <v>3575</v>
       </c>
       <c r="C375" s="15">
         <v>2</v>
@@ -24162,11 +24168,11 @@
         <v>20344</v>
       </c>
       <c r="B376" s="15" t="s">
-        <v>3373</v>
+        <v>3371</v>
       </c>
       <c r="C376" s="15"/>
       <c r="D376" s="16" t="s">
-        <v>3374</v>
+        <v>3372</v>
       </c>
       <c r="E376" s="17"/>
       <c r="F376" s="17"/>
@@ -24177,13 +24183,13 @@
       <c r="K376" s="17"/>
       <c r="L376" s="17"/>
       <c r="M376" s="18" t="s">
-        <v>3352</v>
+        <v>3350</v>
       </c>
       <c r="N376" s="18" t="s">
+        <v>3373</v>
+      </c>
+      <c r="O376" s="19" t="s">
         <v>3375</v>
-      </c>
-      <c r="O376" s="19" t="s">
-        <v>3377</v>
       </c>
       <c r="P376" s="19"/>
       <c r="Q376" s="20"/>
@@ -24193,7 +24199,7 @@
         <v>20345</v>
       </c>
       <c r="B377" s="15" t="s">
-        <v>3376</v>
+        <v>3374</v>
       </c>
       <c r="C377" s="15">
         <v>1</v>
@@ -24226,11 +24232,11 @@
         <v>20346</v>
       </c>
       <c r="B378" s="15" t="s">
-        <v>3378</v>
+        <v>3376</v>
       </c>
       <c r="C378" s="15"/>
       <c r="D378" s="16" t="s">
-        <v>3374</v>
+        <v>3372</v>
       </c>
       <c r="E378" s="17"/>
       <c r="F378" s="17"/>
@@ -24241,17 +24247,17 @@
       <c r="K378" s="17"/>
       <c r="L378" s="17"/>
       <c r="M378" s="18" t="s">
-        <v>3375</v>
+        <v>3373</v>
       </c>
       <c r="N378" s="18" t="s">
-        <v>3381</v>
+        <v>3379</v>
       </c>
       <c r="O378" s="19" t="s">
-        <v>3382</v>
+        <v>3380</v>
       </c>
       <c r="P378" s="19"/>
       <c r="Q378" s="20" t="s">
-        <v>3379</v>
+        <v>3377</v>
       </c>
     </row>
     <row r="379" spans="1:17" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24259,7 +24265,7 @@
         <v>20347</v>
       </c>
       <c r="B379" s="15" t="s">
-        <v>3380</v>
+        <v>3378</v>
       </c>
       <c r="C379" s="15">
         <v>1</v>
@@ -24292,7 +24298,7 @@
         <v>20348</v>
       </c>
       <c r="B380" s="15" t="s">
-        <v>3383</v>
+        <v>3381</v>
       </c>
       <c r="C380" s="15">
         <v>2</v>
@@ -24732,13 +24738,13 @@
         <v>40001</v>
       </c>
       <c r="B394" s="15" t="s">
-        <v>3581</v>
+        <v>3578</v>
       </c>
       <c r="C394" s="15">
         <v>3</v>
       </c>
       <c r="D394" s="16" t="s">
-        <v>3582</v>
+        <v>3579</v>
       </c>
       <c r="E394" s="17">
         <v>5</v>
@@ -24757,10 +24763,10 @@
       <c r="K394" s="17"/>
       <c r="L394" s="17"/>
       <c r="M394" s="18" t="s">
-        <v>3585</v>
+        <v>3582</v>
       </c>
       <c r="N394" s="18" t="s">
-        <v>3805</v>
+        <v>3802</v>
       </c>
       <c r="O394" s="19"/>
       <c r="P394" s="19"/>
@@ -24771,7 +24777,7 @@
         <v>40002</v>
       </c>
       <c r="B395" s="15" t="s">
-        <v>3724</v>
+        <v>3721</v>
       </c>
       <c r="C395" s="15"/>
       <c r="D395" s="16"/>
@@ -24786,10 +24792,10 @@
       <c r="K395" s="17"/>
       <c r="L395" s="17"/>
       <c r="M395" s="18" t="s">
-        <v>3804</v>
+        <v>3801</v>
       </c>
       <c r="N395" s="18" t="s">
-        <v>3601</v>
+        <v>3598</v>
       </c>
       <c r="O395" s="19"/>
       <c r="P395" s="19"/>
@@ -24800,7 +24806,7 @@
         <v>40003</v>
       </c>
       <c r="B396" s="15" t="s">
-        <v>3586</v>
+        <v>3583</v>
       </c>
       <c r="C396" s="15">
         <v>1</v>
@@ -24817,10 +24823,10 @@
       <c r="K396" s="17"/>
       <c r="L396" s="17"/>
       <c r="M396" s="18" t="s">
-        <v>3723</v>
+        <v>3720</v>
       </c>
       <c r="N396" s="18" t="s">
-        <v>3591</v>
+        <v>3588</v>
       </c>
       <c r="O396" s="19"/>
       <c r="P396" s="19"/>
@@ -24831,7 +24837,7 @@
         <v>40004</v>
       </c>
       <c r="B397" s="15" t="s">
-        <v>3587</v>
+        <v>3584</v>
       </c>
       <c r="C397" s="15">
         <v>1</v>
@@ -24848,10 +24854,10 @@
       <c r="K397" s="17"/>
       <c r="L397" s="17"/>
       <c r="M397" s="18" t="s">
-        <v>3596</v>
+        <v>3593</v>
       </c>
       <c r="N397" s="18" t="s">
-        <v>3592</v>
+        <v>3589</v>
       </c>
       <c r="O397" s="19"/>
       <c r="P397" s="19"/>
@@ -24862,7 +24868,7 @@
         <v>40005</v>
       </c>
       <c r="B398" s="15" t="s">
-        <v>3588</v>
+        <v>3585</v>
       </c>
       <c r="C398" s="15">
         <v>1</v>
@@ -24879,10 +24885,10 @@
       <c r="K398" s="17"/>
       <c r="L398" s="17"/>
       <c r="M398" s="18" t="s">
-        <v>3597</v>
+        <v>3594</v>
       </c>
       <c r="N398" s="18" t="s">
-        <v>3593</v>
+        <v>3590</v>
       </c>
       <c r="O398" s="19"/>
       <c r="P398" s="19"/>
@@ -24893,7 +24899,7 @@
         <v>40006</v>
       </c>
       <c r="B399" s="15" t="s">
-        <v>3589</v>
+        <v>3586</v>
       </c>
       <c r="C399" s="15">
         <v>1</v>
@@ -24910,10 +24916,10 @@
       <c r="K399" s="17"/>
       <c r="L399" s="17"/>
       <c r="M399" s="18" t="s">
-        <v>3804</v>
+        <v>3801</v>
       </c>
       <c r="N399" s="18" t="s">
-        <v>3602</v>
+        <v>3599</v>
       </c>
       <c r="O399" s="19"/>
       <c r="P399" s="19"/>
@@ -24924,7 +24930,7 @@
         <v>40007</v>
       </c>
       <c r="B400" s="15" t="s">
-        <v>3590</v>
+        <v>3587</v>
       </c>
       <c r="C400" s="15"/>
       <c r="D400" s="16"/>
@@ -24939,10 +24945,10 @@
       <c r="K400" s="17"/>
       <c r="L400" s="17"/>
       <c r="M400" s="18" t="s">
-        <v>3804</v>
+        <v>3801</v>
       </c>
       <c r="N400" s="18" t="s">
-        <v>3602</v>
+        <v>3599</v>
       </c>
       <c r="O400" s="19"/>
       <c r="P400" s="19"/>
@@ -24953,7 +24959,7 @@
         <v>40008</v>
       </c>
       <c r="B401" s="15" t="s">
-        <v>3594</v>
+        <v>3591</v>
       </c>
       <c r="C401" s="15"/>
       <c r="D401" s="16"/>
@@ -24970,10 +24976,10 @@
       <c r="K401" s="17"/>
       <c r="L401" s="17"/>
       <c r="M401" s="18" t="s">
-        <v>3804</v>
+        <v>3801</v>
       </c>
       <c r="N401" s="18" t="s">
-        <v>3601</v>
+        <v>3598</v>
       </c>
       <c r="O401" s="19"/>
       <c r="P401" s="19"/>
@@ -24984,7 +24990,7 @@
         <v>40009</v>
       </c>
       <c r="B402" s="15" t="s">
-        <v>3595</v>
+        <v>3592</v>
       </c>
       <c r="C402" s="15">
         <v>1</v>
@@ -25003,10 +25009,10 @@
       <c r="K402" s="17"/>
       <c r="L402" s="17"/>
       <c r="M402" s="18" t="s">
-        <v>3723</v>
+        <v>3720</v>
       </c>
       <c r="N402" s="18" t="s">
-        <v>3601</v>
+        <v>3598</v>
       </c>
       <c r="O402" s="19"/>
       <c r="P402" s="19"/>
@@ -25017,13 +25023,13 @@
         <v>40010</v>
       </c>
       <c r="B403" s="15" t="s">
-        <v>3598</v>
+        <v>3595</v>
       </c>
       <c r="C403" s="15">
         <v>2</v>
       </c>
       <c r="D403" s="16" t="s">
-        <v>3599</v>
+        <v>3596</v>
       </c>
       <c r="E403" s="17"/>
       <c r="F403" s="17"/>
@@ -25036,10 +25042,10 @@
       <c r="K403" s="17"/>
       <c r="L403" s="17"/>
       <c r="M403" s="18" t="s">
-        <v>3600</v>
+        <v>3597</v>
       </c>
       <c r="N403" s="18" t="s">
-        <v>3734</v>
+        <v>3731</v>
       </c>
       <c r="O403" s="19"/>
       <c r="P403" s="19"/>
@@ -25050,7 +25056,7 @@
         <v>40011</v>
       </c>
       <c r="B404" s="15" t="s">
-        <v>3603</v>
+        <v>3600</v>
       </c>
       <c r="C404" s="15"/>
       <c r="D404" s="16"/>
@@ -25065,10 +25071,10 @@
       <c r="K404" s="17"/>
       <c r="L404" s="17"/>
       <c r="M404" s="18" t="s">
-        <v>3601</v>
+        <v>3598</v>
       </c>
       <c r="N404" s="18" t="s">
-        <v>3630</v>
+        <v>3627</v>
       </c>
       <c r="O404" s="19"/>
       <c r="P404" s="19"/>
@@ -25079,7 +25085,7 @@
         <v>40012</v>
       </c>
       <c r="B405" s="15" t="s">
-        <v>3604</v>
+        <v>3601</v>
       </c>
       <c r="C405" s="15">
         <v>1</v>
@@ -25096,10 +25102,10 @@
       <c r="K405" s="17"/>
       <c r="L405" s="17"/>
       <c r="M405" s="18" t="s">
-        <v>3607</v>
+        <v>3604</v>
       </c>
       <c r="N405" s="18" t="s">
-        <v>3609</v>
+        <v>3606</v>
       </c>
       <c r="O405" s="19"/>
       <c r="P405" s="19"/>
@@ -25110,7 +25116,7 @@
         <v>40013</v>
       </c>
       <c r="B406" s="15" t="s">
-        <v>3605</v>
+        <v>3602</v>
       </c>
       <c r="C406" s="15">
         <v>1</v>
@@ -25127,10 +25133,10 @@
       <c r="K406" s="17"/>
       <c r="L406" s="17"/>
       <c r="M406" s="18" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
       <c r="N406" s="18" t="s">
-        <v>3610</v>
+        <v>3607</v>
       </c>
       <c r="O406" s="19"/>
       <c r="P406" s="19"/>
@@ -25141,7 +25147,7 @@
         <v>40014</v>
       </c>
       <c r="B407" s="15" t="s">
-        <v>3606</v>
+        <v>3603</v>
       </c>
       <c r="C407" s="15">
         <v>1</v>
@@ -25158,10 +25164,10 @@
       <c r="K407" s="17"/>
       <c r="L407" s="17"/>
       <c r="M407" s="18" t="s">
-        <v>3628</v>
+        <v>3625</v>
       </c>
       <c r="N407" s="18" t="s">
-        <v>3611</v>
+        <v>3608</v>
       </c>
       <c r="O407" s="19"/>
       <c r="P407" s="19"/>
@@ -25172,13 +25178,13 @@
         <v>40015</v>
       </c>
       <c r="B408" s="15" t="s">
-        <v>3612</v>
+        <v>3609</v>
       </c>
       <c r="C408" s="15">
         <v>2</v>
       </c>
       <c r="D408" s="16" t="s">
-        <v>3613</v>
+        <v>3610</v>
       </c>
       <c r="E408" s="17"/>
       <c r="F408" s="17">
@@ -25193,10 +25199,10 @@
       <c r="K408" s="17"/>
       <c r="L408" s="17"/>
       <c r="M408" s="18" t="s">
-        <v>3601</v>
+        <v>3598</v>
       </c>
       <c r="N408" s="18" t="s">
-        <v>3732</v>
+        <v>3729</v>
       </c>
       <c r="O408" s="19"/>
       <c r="P408" s="19"/>
@@ -25207,7 +25213,7 @@
         <v>40016</v>
       </c>
       <c r="B409" s="15" t="s">
-        <v>3614</v>
+        <v>3611</v>
       </c>
       <c r="C409" s="15">
         <v>2</v>
@@ -25222,10 +25228,10 @@
       <c r="K409" s="17"/>
       <c r="L409" s="17"/>
       <c r="M409" s="18" t="s">
-        <v>3601</v>
+        <v>3598</v>
       </c>
       <c r="N409" s="18" t="s">
-        <v>3733</v>
+        <v>3730</v>
       </c>
       <c r="O409" s="19"/>
       <c r="P409" s="19"/>
@@ -25236,7 +25242,7 @@
         <v>40017</v>
       </c>
       <c r="B410" s="15" t="s">
-        <v>3615</v>
+        <v>3612</v>
       </c>
       <c r="C410" s="15">
         <v>2</v>
@@ -25255,10 +25261,10 @@
       <c r="K410" s="17"/>
       <c r="L410" s="17"/>
       <c r="M410" s="18" t="s">
-        <v>3601</v>
+        <v>3598</v>
       </c>
       <c r="N410" s="18" t="s">
-        <v>3620</v>
+        <v>3617</v>
       </c>
       <c r="O410" s="19"/>
       <c r="P410" s="19"/>
@@ -25269,7 +25275,7 @@
         <v>40018</v>
       </c>
       <c r="B411" s="15" t="s">
-        <v>3616</v>
+        <v>3613</v>
       </c>
       <c r="C411" s="15">
         <v>2</v>
@@ -25288,10 +25294,10 @@
       <c r="K411" s="17"/>
       <c r="L411" s="17"/>
       <c r="M411" s="18" t="s">
-        <v>3601</v>
+        <v>3598</v>
       </c>
       <c r="N411" s="18" t="s">
-        <v>3621</v>
+        <v>3618</v>
       </c>
       <c r="O411" s="19"/>
       <c r="P411" s="19"/>
@@ -25302,7 +25308,7 @@
         <v>40019</v>
       </c>
       <c r="B412" s="15" t="s">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C412" s="15">
         <v>2</v>
@@ -25321,10 +25327,10 @@
       <c r="K412" s="17"/>
       <c r="L412" s="17"/>
       <c r="M412" s="18" t="s">
-        <v>3601</v>
+        <v>3598</v>
       </c>
       <c r="N412" s="18" t="s">
-        <v>3622</v>
+        <v>3619</v>
       </c>
       <c r="O412" s="19"/>
       <c r="P412" s="19"/>
@@ -25335,7 +25341,7 @@
         <v>40020</v>
       </c>
       <c r="B413" s="15" t="s">
-        <v>3618</v>
+        <v>3615</v>
       </c>
       <c r="C413" s="15">
         <v>2</v>
@@ -25354,10 +25360,10 @@
       <c r="K413" s="17"/>
       <c r="L413" s="17"/>
       <c r="M413" s="18" t="s">
-        <v>3601</v>
+        <v>3598</v>
       </c>
       <c r="N413" s="18" t="s">
-        <v>3623</v>
+        <v>3620</v>
       </c>
       <c r="O413" s="19"/>
       <c r="P413" s="19"/>
@@ -25368,7 +25374,7 @@
         <v>40021</v>
       </c>
       <c r="B414" s="15" t="s">
-        <v>3619</v>
+        <v>3616</v>
       </c>
       <c r="C414" s="15">
         <v>2</v>
@@ -25387,10 +25393,10 @@
       <c r="K414" s="17"/>
       <c r="L414" s="17"/>
       <c r="M414" s="18" t="s">
-        <v>3601</v>
+        <v>3598</v>
       </c>
       <c r="N414" s="18" t="s">
-        <v>3624</v>
+        <v>3621</v>
       </c>
       <c r="O414" s="19"/>
       <c r="P414" s="19"/>
@@ -25401,7 +25407,7 @@
         <v>40022</v>
       </c>
       <c r="B415" s="15" t="s">
-        <v>3625</v>
+        <v>3622</v>
       </c>
       <c r="C415" s="15">
         <v>2</v>
@@ -25418,10 +25424,10 @@
       <c r="K415" s="17"/>
       <c r="L415" s="17"/>
       <c r="M415" s="18" t="s">
-        <v>3601</v>
+        <v>3598</v>
       </c>
       <c r="N415" s="18" t="s">
-        <v>3630</v>
+        <v>3627</v>
       </c>
       <c r="O415" s="19"/>
       <c r="P415" s="19"/>
@@ -25432,13 +25438,13 @@
         <v>40023</v>
       </c>
       <c r="B416" s="15" t="s">
-        <v>3627</v>
+        <v>3624</v>
       </c>
       <c r="C416" s="15">
         <v>2</v>
       </c>
       <c r="D416" s="16" t="s">
-        <v>3626</v>
+        <v>3623</v>
       </c>
       <c r="E416" s="17"/>
       <c r="F416" s="17">
@@ -25453,10 +25459,10 @@
       <c r="K416" s="17"/>
       <c r="L416" s="17"/>
       <c r="M416" s="18" t="s">
-        <v>3629</v>
+        <v>3626</v>
       </c>
       <c r="N416" s="18" t="s">
-        <v>3630</v>
+        <v>3627</v>
       </c>
       <c r="O416" s="19"/>
       <c r="P416" s="19"/>
@@ -25467,7 +25473,7 @@
         <v>40024</v>
       </c>
       <c r="B417" s="15" t="s">
-        <v>3631</v>
+        <v>3628</v>
       </c>
       <c r="C417" s="15"/>
       <c r="D417" s="16"/>
@@ -25484,10 +25490,10 @@
       <c r="K417" s="17"/>
       <c r="L417" s="17"/>
       <c r="M417" s="18" t="s">
-        <v>3630</v>
+        <v>3627</v>
       </c>
       <c r="N417" s="18" t="s">
-        <v>3659</v>
+        <v>3656</v>
       </c>
       <c r="O417" s="19"/>
       <c r="P417" s="19"/>
@@ -25498,7 +25504,7 @@
         <v>40025</v>
       </c>
       <c r="B418" s="15" t="s">
-        <v>3632</v>
+        <v>3629</v>
       </c>
       <c r="C418" s="15"/>
       <c r="D418" s="16"/>
@@ -25513,10 +25519,10 @@
       <c r="K418" s="17"/>
       <c r="L418" s="17"/>
       <c r="M418" s="18" t="s">
-        <v>3630</v>
+        <v>3627</v>
       </c>
       <c r="N418" s="18" t="s">
-        <v>3659</v>
+        <v>3656</v>
       </c>
       <c r="O418" s="19"/>
       <c r="P418" s="19"/>
@@ -25527,13 +25533,13 @@
         <v>40026</v>
       </c>
       <c r="B419" s="15" t="s">
-        <v>3636</v>
+        <v>3633</v>
       </c>
       <c r="C419" s="15">
         <v>1</v>
       </c>
       <c r="D419" s="16" t="s">
-        <v>3633</v>
+        <v>3630</v>
       </c>
       <c r="E419" s="17"/>
       <c r="F419" s="17">
@@ -25548,10 +25554,10 @@
       <c r="K419" s="17"/>
       <c r="L419" s="17"/>
       <c r="M419" s="18" t="s">
+        <v>3636</v>
+      </c>
+      <c r="N419" s="18" t="s">
         <v>3639</v>
-      </c>
-      <c r="N419" s="18" t="s">
-        <v>3642</v>
       </c>
       <c r="O419" s="19"/>
       <c r="P419" s="19"/>
@@ -25562,13 +25568,13 @@
         <v>40027</v>
       </c>
       <c r="B420" s="15" t="s">
-        <v>3637</v>
+        <v>3634</v>
       </c>
       <c r="C420" s="15">
         <v>1</v>
       </c>
       <c r="D420" s="16" t="s">
-        <v>3634</v>
+        <v>3631</v>
       </c>
       <c r="E420" s="17"/>
       <c r="F420" s="17">
@@ -25583,10 +25589,10 @@
       <c r="K420" s="17"/>
       <c r="L420" s="17"/>
       <c r="M420" s="18" t="s">
+        <v>3637</v>
+      </c>
+      <c r="N420" s="18" t="s">
         <v>3640</v>
-      </c>
-      <c r="N420" s="18" t="s">
-        <v>3643</v>
       </c>
       <c r="O420" s="19"/>
       <c r="P420" s="19"/>
@@ -25597,13 +25603,13 @@
         <v>40028</v>
       </c>
       <c r="B421" s="15" t="s">
-        <v>3638</v>
+        <v>3635</v>
       </c>
       <c r="C421" s="15">
         <v>1</v>
       </c>
       <c r="D421" s="16" t="s">
-        <v>3635</v>
+        <v>3632</v>
       </c>
       <c r="E421" s="17"/>
       <c r="F421" s="17">
@@ -25618,10 +25624,10 @@
       <c r="K421" s="17"/>
       <c r="L421" s="17"/>
       <c r="M421" s="18" t="s">
+        <v>3638</v>
+      </c>
+      <c r="N421" s="18" t="s">
         <v>3641</v>
-      </c>
-      <c r="N421" s="18" t="s">
-        <v>3644</v>
       </c>
       <c r="O421" s="19"/>
       <c r="P421" s="19"/>
@@ -25632,7 +25638,7 @@
         <v>40029</v>
       </c>
       <c r="B422" s="15" t="s">
-        <v>3645</v>
+        <v>3642</v>
       </c>
       <c r="C422" s="15">
         <v>2</v>
@@ -25651,10 +25657,10 @@
       <c r="K422" s="17"/>
       <c r="L422" s="17"/>
       <c r="M422" s="18" t="s">
+        <v>3653</v>
+      </c>
+      <c r="N422" s="18" t="s">
         <v>3656</v>
-      </c>
-      <c r="N422" s="18" t="s">
-        <v>3659</v>
       </c>
       <c r="O422" s="19"/>
       <c r="P422" s="19"/>
@@ -25665,7 +25671,7 @@
         <v>40030</v>
       </c>
       <c r="B423" s="15" t="s">
-        <v>3646</v>
+        <v>3643</v>
       </c>
       <c r="C423" s="15">
         <v>2</v>
@@ -25684,10 +25690,10 @@
       <c r="K423" s="17"/>
       <c r="L423" s="17"/>
       <c r="M423" s="18" t="s">
-        <v>3657</v>
+        <v>3654</v>
       </c>
       <c r="N423" s="18" t="s">
-        <v>3659</v>
+        <v>3656</v>
       </c>
       <c r="O423" s="19"/>
       <c r="P423" s="19"/>
@@ -25698,7 +25704,7 @@
         <v>40031</v>
       </c>
       <c r="B424" s="15" t="s">
-        <v>3648</v>
+        <v>3645</v>
       </c>
       <c r="C424" s="15">
         <v>2</v>
@@ -25717,10 +25723,10 @@
       <c r="K424" s="17"/>
       <c r="L424" s="17"/>
       <c r="M424" s="18" t="s">
+        <v>3653</v>
+      </c>
+      <c r="N424" s="18" t="s">
         <v>3656</v>
-      </c>
-      <c r="N424" s="18" t="s">
-        <v>3659</v>
       </c>
       <c r="O424" s="19"/>
       <c r="P424" s="19"/>
@@ -25731,7 +25737,7 @@
         <v>40032</v>
       </c>
       <c r="B425" s="15" t="s">
-        <v>3647</v>
+        <v>3644</v>
       </c>
       <c r="C425" s="15">
         <v>2</v>
@@ -25748,10 +25754,10 @@
       <c r="K425" s="17"/>
       <c r="L425" s="17"/>
       <c r="M425" s="18" t="s">
-        <v>3640</v>
+        <v>3637</v>
       </c>
       <c r="N425" s="18" t="s">
-        <v>3682</v>
+        <v>3679</v>
       </c>
       <c r="O425" s="19"/>
       <c r="P425" s="19"/>
@@ -25762,7 +25768,7 @@
         <v>40033</v>
       </c>
       <c r="B426" s="15" t="s">
-        <v>3649</v>
+        <v>3646</v>
       </c>
       <c r="C426" s="15"/>
       <c r="D426" s="16"/>
@@ -25775,13 +25781,13 @@
       <c r="K426" s="17"/>
       <c r="L426" s="17"/>
       <c r="M426" s="18" t="s">
-        <v>3804</v>
+        <v>3801</v>
       </c>
       <c r="N426" s="18" t="s">
-        <v>3683</v>
+        <v>3680</v>
       </c>
       <c r="O426" s="19" t="s">
-        <v>3730</v>
+        <v>3727</v>
       </c>
       <c r="P426" s="19"/>
       <c r="Q426" s="20"/>
@@ -25810,10 +25816,10 @@
       <c r="K427" s="17"/>
       <c r="L427" s="17"/>
       <c r="M427" s="18" t="s">
-        <v>3602</v>
+        <v>3599</v>
       </c>
       <c r="N427" s="18" t="s">
-        <v>3650</v>
+        <v>3647</v>
       </c>
       <c r="O427" s="19"/>
       <c r="P427" s="19"/>
@@ -25843,10 +25849,10 @@
       <c r="K428" s="17"/>
       <c r="L428" s="17"/>
       <c r="M428" s="18" t="s">
-        <v>3602</v>
+        <v>3599</v>
       </c>
       <c r="N428" s="18" t="s">
-        <v>3651</v>
+        <v>3648</v>
       </c>
       <c r="O428" s="19"/>
       <c r="P428" s="19"/>
@@ -25876,10 +25882,10 @@
       <c r="K429" s="17"/>
       <c r="L429" s="17"/>
       <c r="M429" s="18" t="s">
-        <v>3602</v>
+        <v>3599</v>
       </c>
       <c r="N429" s="18" t="s">
-        <v>3652</v>
+        <v>3649</v>
       </c>
       <c r="O429" s="19"/>
       <c r="P429" s="19"/>
@@ -25909,10 +25915,10 @@
       <c r="K430" s="17"/>
       <c r="L430" s="17"/>
       <c r="M430" s="18" t="s">
-        <v>3602</v>
+        <v>3599</v>
       </c>
       <c r="N430" s="18" t="s">
-        <v>3653</v>
+        <v>3650</v>
       </c>
       <c r="O430" s="19"/>
       <c r="P430" s="19"/>
@@ -25942,10 +25948,10 @@
       <c r="K431" s="17"/>
       <c r="L431" s="17"/>
       <c r="M431" s="18" t="s">
-        <v>3602</v>
+        <v>3599</v>
       </c>
       <c r="N431" s="18" t="s">
-        <v>3654</v>
+        <v>3651</v>
       </c>
       <c r="O431" s="19"/>
       <c r="P431" s="19"/>
@@ -25956,7 +25962,7 @@
         <v>40039</v>
       </c>
       <c r="B432" s="15" t="s">
-        <v>3663</v>
+        <v>3660</v>
       </c>
       <c r="C432" s="15"/>
       <c r="D432" s="16"/>
@@ -25973,13 +25979,13 @@
       <c r="K432" s="17"/>
       <c r="L432" s="17"/>
       <c r="M432" s="18" t="s">
+        <v>3652</v>
+      </c>
+      <c r="N432" s="18" t="s">
+        <v>3656</v>
+      </c>
+      <c r="O432" s="19" t="s">
         <v>3655</v>
-      </c>
-      <c r="N432" s="18" t="s">
-        <v>3659</v>
-      </c>
-      <c r="O432" s="19" t="s">
-        <v>3658</v>
       </c>
       <c r="P432" s="19"/>
       <c r="Q432" s="20"/>
@@ -25989,7 +25995,7 @@
         <v>40040</v>
       </c>
       <c r="B433" s="15" t="s">
-        <v>3660</v>
+        <v>3657</v>
       </c>
       <c r="C433" s="15">
         <v>3</v>
@@ -26016,7 +26022,7 @@
         <v>40041</v>
       </c>
       <c r="B434" s="15" t="s">
-        <v>3661</v>
+        <v>3658</v>
       </c>
       <c r="C434" s="15"/>
       <c r="D434" s="16"/>
@@ -26029,13 +26035,13 @@
       <c r="K434" s="17"/>
       <c r="L434" s="17"/>
       <c r="M434" s="18" t="s">
-        <v>3804</v>
+        <v>3801</v>
       </c>
       <c r="N434" s="18" t="s">
-        <v>3715</v>
+        <v>3712</v>
       </c>
       <c r="O434" s="19" t="s">
-        <v>3730</v>
+        <v>3727</v>
       </c>
       <c r="P434" s="19"/>
       <c r="Q434" s="20"/>
@@ -26045,7 +26051,7 @@
         <v>40042</v>
       </c>
       <c r="B435" s="15" t="s">
-        <v>3670</v>
+        <v>3667</v>
       </c>
       <c r="C435" s="15"/>
       <c r="D435" s="16"/>
@@ -26058,10 +26064,10 @@
       <c r="K435" s="17"/>
       <c r="L435" s="17"/>
       <c r="M435" s="18" t="s">
-        <v>3668</v>
+        <v>3665</v>
       </c>
       <c r="N435" s="18" t="s">
-        <v>3672</v>
+        <v>3669</v>
       </c>
       <c r="O435" s="19"/>
       <c r="P435" s="19"/>
@@ -26072,7 +26078,7 @@
         <v>40043</v>
       </c>
       <c r="B436" s="15" t="s">
-        <v>3669</v>
+        <v>3666</v>
       </c>
       <c r="C436" s="15"/>
       <c r="D436" s="16"/>
@@ -26085,10 +26091,10 @@
       <c r="K436" s="17"/>
       <c r="L436" s="17"/>
       <c r="M436" s="18" t="s">
-        <v>3672</v>
+        <v>3669</v>
       </c>
       <c r="N436" s="18" t="s">
-        <v>3692</v>
+        <v>3689</v>
       </c>
       <c r="O436" s="19"/>
       <c r="P436" s="19"/>
@@ -26099,7 +26105,7 @@
         <v>40044</v>
       </c>
       <c r="B437" s="15" t="s">
-        <v>3673</v>
+        <v>3670</v>
       </c>
       <c r="C437" s="15"/>
       <c r="D437" s="16"/>
@@ -26112,10 +26118,10 @@
       <c r="K437" s="17"/>
       <c r="L437" s="17"/>
       <c r="M437" s="18" t="s">
-        <v>3672</v>
+        <v>3669</v>
       </c>
       <c r="N437" s="18" t="s">
-        <v>3692</v>
+        <v>3689</v>
       </c>
       <c r="O437" s="19"/>
       <c r="P437" s="19"/>
@@ -26126,7 +26132,7 @@
         <v>40045</v>
       </c>
       <c r="B438" s="15" t="s">
-        <v>3674</v>
+        <v>3671</v>
       </c>
       <c r="C438" s="15"/>
       <c r="D438" s="16"/>
@@ -26139,10 +26145,10 @@
       <c r="K438" s="17"/>
       <c r="L438" s="17"/>
       <c r="M438" s="18" t="s">
-        <v>3671</v>
+        <v>3668</v>
       </c>
       <c r="N438" s="18" t="s">
-        <v>3692</v>
+        <v>3689</v>
       </c>
       <c r="O438" s="19"/>
       <c r="P438" s="19"/>
@@ -26153,11 +26159,11 @@
         <v>40046</v>
       </c>
       <c r="B439" s="15" t="s">
-        <v>3675</v>
+        <v>3672</v>
       </c>
       <c r="C439" s="15"/>
       <c r="D439" s="16" t="s">
-        <v>3676</v>
+        <v>3673</v>
       </c>
       <c r="E439" s="17"/>
       <c r="F439" s="17"/>
@@ -26168,10 +26174,10 @@
       <c r="K439" s="17"/>
       <c r="L439" s="17"/>
       <c r="M439" s="18" t="s">
-        <v>3671</v>
+        <v>3668</v>
       </c>
       <c r="N439" s="18" t="s">
-        <v>3692</v>
+        <v>3689</v>
       </c>
       <c r="O439" s="19"/>
       <c r="P439" s="19"/>
@@ -26182,13 +26188,13 @@
         <v>40047</v>
       </c>
       <c r="B440" s="15" t="s">
-        <v>3675</v>
+        <v>3672</v>
       </c>
       <c r="C440" s="15">
         <v>2</v>
       </c>
       <c r="D440" s="16" t="s">
-        <v>3677</v>
+        <v>3674</v>
       </c>
       <c r="E440" s="17"/>
       <c r="F440" s="17"/>
@@ -26199,10 +26205,10 @@
       <c r="K440" s="17"/>
       <c r="L440" s="17"/>
       <c r="M440" s="18" t="s">
-        <v>3671</v>
+        <v>3668</v>
       </c>
       <c r="N440" s="18" t="s">
-        <v>3691</v>
+        <v>3688</v>
       </c>
       <c r="O440" s="19"/>
       <c r="P440" s="19"/>
@@ -26213,13 +26219,13 @@
         <v>40048</v>
       </c>
       <c r="B441" s="15" t="s">
-        <v>3675</v>
+        <v>3672</v>
       </c>
       <c r="C441" s="15">
         <v>2</v>
       </c>
       <c r="D441" s="16" t="s">
-        <v>3679</v>
+        <v>3676</v>
       </c>
       <c r="E441" s="17"/>
       <c r="F441" s="17"/>
@@ -26230,10 +26236,10 @@
       <c r="K441" s="17"/>
       <c r="L441" s="17"/>
       <c r="M441" s="18" t="s">
-        <v>3678</v>
+        <v>3675</v>
       </c>
       <c r="N441" s="18" t="s">
-        <v>3690</v>
+        <v>3687</v>
       </c>
       <c r="O441" s="19"/>
       <c r="P441" s="19"/>
@@ -26244,13 +26250,13 @@
         <v>40049</v>
       </c>
       <c r="B442" s="15" t="s">
-        <v>3675</v>
+        <v>3672</v>
       </c>
       <c r="C442" s="15">
         <v>3</v>
       </c>
       <c r="D442" s="16" t="s">
-        <v>3681</v>
+        <v>3678</v>
       </c>
       <c r="E442" s="17"/>
       <c r="F442" s="17"/>
@@ -26261,10 +26267,10 @@
       <c r="K442" s="17"/>
       <c r="L442" s="17"/>
       <c r="M442" s="18" t="s">
-        <v>3680</v>
+        <v>3677</v>
       </c>
       <c r="N442" s="18" t="s">
-        <v>3692</v>
+        <v>3689</v>
       </c>
       <c r="O442" s="19"/>
       <c r="P442" s="19"/>
@@ -26275,13 +26281,13 @@
         <v>40050</v>
       </c>
       <c r="B443" s="15" t="s">
-        <v>3684</v>
+        <v>3681</v>
       </c>
       <c r="C443" s="15">
         <v>3</v>
       </c>
       <c r="D443" s="16" t="s">
-        <v>3685</v>
+        <v>3682</v>
       </c>
       <c r="E443" s="17"/>
       <c r="F443" s="17"/>
@@ -26294,7 +26300,7 @@
       <c r="K443" s="17"/>
       <c r="L443" s="17"/>
       <c r="M443" s="18" t="s">
-        <v>3686</v>
+        <v>3683</v>
       </c>
       <c r="N443" s="18"/>
       <c r="O443" s="19"/>
@@ -26306,13 +26312,13 @@
         <v>40051</v>
       </c>
       <c r="B444" s="15" t="s">
-        <v>3687</v>
+        <v>3684</v>
       </c>
       <c r="C444" s="15">
         <v>3</v>
       </c>
       <c r="D444" s="16" t="s">
-        <v>3693</v>
+        <v>3690</v>
       </c>
       <c r="E444" s="17"/>
       <c r="F444" s="17"/>
@@ -26323,10 +26329,10 @@
       <c r="K444" s="17"/>
       <c r="L444" s="17"/>
       <c r="M444" s="18" t="s">
-        <v>3688</v>
+        <v>3685</v>
       </c>
       <c r="N444" s="18" t="s">
-        <v>3689</v>
+        <v>3686</v>
       </c>
       <c r="O444" s="19"/>
       <c r="P444" s="19"/>
@@ -26337,13 +26343,13 @@
         <v>40052</v>
       </c>
       <c r="B445" s="15" t="s">
-        <v>3708</v>
+        <v>3705</v>
       </c>
       <c r="C445" s="15">
         <v>3</v>
       </c>
       <c r="D445" s="16" t="s">
-        <v>3696</v>
+        <v>3693</v>
       </c>
       <c r="E445" s="17"/>
       <c r="F445" s="17"/>
@@ -26354,10 +26360,10 @@
       <c r="K445" s="17"/>
       <c r="L445" s="17"/>
       <c r="M445" s="18" t="s">
-        <v>3694</v>
+        <v>3691</v>
       </c>
       <c r="N445" s="18" t="s">
-        <v>3695</v>
+        <v>3692</v>
       </c>
       <c r="O445" s="19"/>
       <c r="P445" s="19"/>
@@ -26368,7 +26374,7 @@
         <v>40053</v>
       </c>
       <c r="B446" s="15" t="s">
-        <v>3697</v>
+        <v>3694</v>
       </c>
       <c r="C446" s="15">
         <v>3</v>
@@ -26385,10 +26391,10 @@
       <c r="K446" s="17"/>
       <c r="L446" s="17"/>
       <c r="M446" s="18" t="s">
+        <v>3692</v>
+      </c>
+      <c r="N446" s="18" t="s">
         <v>3695</v>
-      </c>
-      <c r="N446" s="18" t="s">
-        <v>3698</v>
       </c>
       <c r="O446" s="19"/>
       <c r="P446" s="19"/>
@@ -26399,7 +26405,7 @@
         <v>40054</v>
       </c>
       <c r="B447" s="15" t="s">
-        <v>3701</v>
+        <v>3698</v>
       </c>
       <c r="C447" s="15">
         <v>3</v>
@@ -26414,17 +26420,17 @@
       <c r="K447" s="17"/>
       <c r="L447" s="17"/>
       <c r="M447" s="18" t="s">
-        <v>3698</v>
+        <v>3695</v>
       </c>
       <c r="N447" s="18" t="s">
-        <v>3699</v>
+        <v>3696</v>
       </c>
       <c r="O447" s="19" t="s">
-        <v>3703</v>
+        <v>3700</v>
       </c>
       <c r="P447" s="19"/>
       <c r="Q447" s="20" t="s">
-        <v>3704</v>
+        <v>3701</v>
       </c>
     </row>
     <row r="448" spans="1:17" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -26432,7 +26438,7 @@
         <v>40055</v>
       </c>
       <c r="B448" s="15" t="s">
-        <v>3702</v>
+        <v>3699</v>
       </c>
       <c r="C448" s="15">
         <v>3</v>
@@ -26451,11 +26457,11 @@
       <c r="M448" s="18"/>
       <c r="N448" s="18"/>
       <c r="O448" s="19" t="s">
-        <v>3705</v>
+        <v>3702</v>
       </c>
       <c r="P448" s="19"/>
       <c r="Q448" s="20" t="s">
-        <v>3700</v>
+        <v>3697</v>
       </c>
     </row>
     <row r="449" spans="1:17" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -26463,7 +26469,7 @@
         <v>40056</v>
       </c>
       <c r="B449" s="15" t="s">
-        <v>3709</v>
+        <v>3706</v>
       </c>
       <c r="C449" s="15">
         <v>3</v>
@@ -26482,11 +26488,11 @@
       <c r="M449" s="18"/>
       <c r="N449" s="18"/>
       <c r="O449" s="19" t="s">
-        <v>3707</v>
+        <v>3704</v>
       </c>
       <c r="P449" s="19"/>
       <c r="Q449" s="20" t="s">
-        <v>3706</v>
+        <v>3703</v>
       </c>
     </row>
     <row r="450" spans="1:17" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -26494,7 +26500,7 @@
         <v>40057</v>
       </c>
       <c r="B450" s="15" t="s">
-        <v>3710</v>
+        <v>3707</v>
       </c>
       <c r="C450" s="15">
         <v>3</v>
@@ -26513,7 +26519,7 @@
       <c r="M450" s="18"/>
       <c r="N450" s="18"/>
       <c r="O450" s="19" t="s">
-        <v>3711</v>
+        <v>3708</v>
       </c>
       <c r="P450" s="19"/>
       <c r="Q450" s="20"/>
@@ -26523,7 +26529,7 @@
         <v>40058</v>
       </c>
       <c r="B451" s="15" t="s">
-        <v>3713</v>
+        <v>3710</v>
       </c>
       <c r="C451" s="15">
         <v>3</v>
@@ -26560,7 +26566,7 @@
         <v>40059</v>
       </c>
       <c r="B452" s="15" t="s">
-        <v>3712</v>
+        <v>3709</v>
       </c>
       <c r="C452" s="15">
         <v>3</v>
@@ -26577,7 +26583,7 @@
       <c r="K452" s="17"/>
       <c r="L452" s="17"/>
       <c r="M452" s="18" t="s">
-        <v>3714</v>
+        <v>3711</v>
       </c>
       <c r="N452" s="18"/>
       <c r="O452" s="19"/>
@@ -26589,13 +26595,13 @@
         <v>40060</v>
       </c>
       <c r="B453" s="15" t="s">
-        <v>3716</v>
+        <v>3713</v>
       </c>
       <c r="C453" s="15">
         <v>1</v>
       </c>
       <c r="D453" s="16" t="s">
-        <v>3717</v>
+        <v>3714</v>
       </c>
       <c r="E453" s="17"/>
       <c r="F453" s="17"/>
@@ -26606,10 +26612,10 @@
       <c r="K453" s="17"/>
       <c r="L453" s="17"/>
       <c r="M453" s="18" t="s">
-        <v>3718</v>
+        <v>3715</v>
       </c>
       <c r="N453" s="18" t="s">
-        <v>3720</v>
+        <v>3717</v>
       </c>
       <c r="O453" s="19"/>
       <c r="P453" s="19"/>
@@ -26620,13 +26626,13 @@
         <v>40061</v>
       </c>
       <c r="B454" s="15" t="s">
-        <v>3721</v>
+        <v>3718</v>
       </c>
       <c r="C454" s="15">
         <v>3</v>
       </c>
       <c r="D454" s="16" t="s">
-        <v>3722</v>
+        <v>3719</v>
       </c>
       <c r="E454" s="17">
         <v>2</v>
@@ -26643,10 +26649,10 @@
       <c r="K454" s="17"/>
       <c r="L454" s="17"/>
       <c r="M454" s="18" t="s">
-        <v>3719</v>
+        <v>3716</v>
       </c>
       <c r="N454" s="18" t="s">
-        <v>3725</v>
+        <v>3722</v>
       </c>
       <c r="O454" s="19"/>
       <c r="P454" s="19"/>
@@ -26657,7 +26663,7 @@
         <v>40062</v>
       </c>
       <c r="B455" s="15" t="s">
-        <v>3736</v>
+        <v>3733</v>
       </c>
       <c r="C455" s="15">
         <v>3</v>
@@ -26678,10 +26684,10 @@
       <c r="M455" s="18"/>
       <c r="N455" s="18"/>
       <c r="O455" s="19" t="s">
-        <v>3749</v>
+        <v>3746</v>
       </c>
       <c r="P455" s="19" t="s">
-        <v>3750</v>
+        <v>3747</v>
       </c>
       <c r="Q455" s="20"/>
     </row>
@@ -26690,7 +26696,7 @@
         <v>40063</v>
       </c>
       <c r="B456" s="15" t="s">
-        <v>3751</v>
+        <v>3748</v>
       </c>
       <c r="C456" s="15">
         <v>3</v>
@@ -26719,11 +26725,11 @@
         <v>40064</v>
       </c>
       <c r="B457" s="15" t="s">
-        <v>3735</v>
+        <v>3732</v>
       </c>
       <c r="C457" s="15"/>
       <c r="D457" s="16" t="s">
-        <v>3754</v>
+        <v>3751</v>
       </c>
       <c r="E457" s="17"/>
       <c r="F457" s="17"/>
@@ -26748,7 +26754,7 @@
         <v>40065</v>
       </c>
       <c r="B458" s="15" t="s">
-        <v>3755</v>
+        <v>3752</v>
       </c>
       <c r="C458" s="15"/>
       <c r="D458" s="16"/>
@@ -26761,7 +26767,7 @@
       <c r="K458" s="17"/>
       <c r="L458" s="17"/>
       <c r="M458" s="18" t="s">
-        <v>3759</v>
+        <v>3756</v>
       </c>
       <c r="N458" s="18"/>
       <c r="O458" s="19"/>
@@ -26773,7 +26779,7 @@
         <v>40066</v>
       </c>
       <c r="B459" s="15" t="s">
-        <v>3752</v>
+        <v>3749</v>
       </c>
       <c r="C459" s="15"/>
       <c r="D459" s="16"/>
@@ -26786,10 +26792,10 @@
       <c r="K459" s="17"/>
       <c r="L459" s="17"/>
       <c r="M459" s="18" t="s">
+        <v>3757</v>
+      </c>
+      <c r="N459" s="18" t="s">
         <v>3760</v>
-      </c>
-      <c r="N459" s="18" t="s">
-        <v>3763</v>
       </c>
       <c r="O459" s="19"/>
       <c r="P459" s="19"/>
@@ -26800,7 +26806,7 @@
         <v>40067</v>
       </c>
       <c r="B460" s="15" t="s">
-        <v>3753</v>
+        <v>3750</v>
       </c>
       <c r="C460" s="15"/>
       <c r="D460" s="16"/>
@@ -26813,7 +26819,7 @@
       <c r="K460" s="17"/>
       <c r="L460" s="17"/>
       <c r="M460" s="18" t="s">
-        <v>3760</v>
+        <v>3757</v>
       </c>
       <c r="N460" s="18"/>
       <c r="O460" s="19"/>
@@ -26825,7 +26831,7 @@
         <v>40068</v>
       </c>
       <c r="B461" s="15" t="s">
-        <v>3756</v>
+        <v>3753</v>
       </c>
       <c r="C461" s="15"/>
       <c r="D461" s="16"/>
@@ -26838,7 +26844,7 @@
       <c r="K461" s="17"/>
       <c r="L461" s="17"/>
       <c r="M461" s="18" t="s">
-        <v>3761</v>
+        <v>3758</v>
       </c>
       <c r="N461" s="18"/>
       <c r="O461" s="19"/>
@@ -26850,7 +26856,7 @@
         <v>40069</v>
       </c>
       <c r="B462" s="15" t="s">
-        <v>3757</v>
+        <v>3754</v>
       </c>
       <c r="C462" s="15"/>
       <c r="D462" s="16"/>
@@ -26863,7 +26869,7 @@
       <c r="K462" s="17"/>
       <c r="L462" s="17"/>
       <c r="M462" s="18" t="s">
-        <v>3762</v>
+        <v>3759</v>
       </c>
       <c r="N462" s="18"/>
       <c r="O462" s="19"/>
@@ -26875,7 +26881,7 @@
         <v>40070</v>
       </c>
       <c r="B463" s="15" t="s">
-        <v>3758</v>
+        <v>3755</v>
       </c>
       <c r="C463" s="15"/>
       <c r="D463" s="16"/>
@@ -26888,11 +26894,11 @@
       <c r="K463" s="17"/>
       <c r="L463" s="17"/>
       <c r="M463" s="18" t="s">
-        <v>3759</v>
+        <v>3756</v>
       </c>
       <c r="N463" s="18"/>
       <c r="O463" s="19" t="s">
-        <v>3764</v>
+        <v>3761</v>
       </c>
       <c r="P463" s="19"/>
       <c r="Q463" s="20"/>
@@ -26902,7 +26908,7 @@
         <v>40071</v>
       </c>
       <c r="B464" s="15" t="s">
-        <v>3765</v>
+        <v>3762</v>
       </c>
       <c r="C464" s="15"/>
       <c r="D464" s="16"/>
@@ -26915,11 +26921,11 @@
       <c r="K464" s="17"/>
       <c r="L464" s="17"/>
       <c r="M464" s="18" t="s">
-        <v>3759</v>
+        <v>3756</v>
       </c>
       <c r="N464" s="18"/>
       <c r="O464" s="19" t="s">
-        <v>3764</v>
+        <v>3761</v>
       </c>
       <c r="P464" s="19"/>
       <c r="Q464" s="20"/>
@@ -26929,7 +26935,7 @@
         <v>40072</v>
       </c>
       <c r="B465" s="15" t="s">
-        <v>3766</v>
+        <v>3763</v>
       </c>
       <c r="C465" s="15"/>
       <c r="D465" s="16"/>
@@ -26942,11 +26948,11 @@
       <c r="K465" s="17"/>
       <c r="L465" s="17"/>
       <c r="M465" s="18" t="s">
-        <v>3761</v>
+        <v>3758</v>
       </c>
       <c r="N465" s="18"/>
       <c r="O465" s="19" t="s">
-        <v>3764</v>
+        <v>3761</v>
       </c>
       <c r="P465" s="19"/>
       <c r="Q465" s="20"/>
@@ -26956,7 +26962,7 @@
         <v>40073</v>
       </c>
       <c r="B466" s="15" t="s">
-        <v>3768</v>
+        <v>3765</v>
       </c>
       <c r="C466" s="15"/>
       <c r="D466" s="16"/>
@@ -26973,10 +26979,10 @@
       <c r="K466" s="17"/>
       <c r="L466" s="17"/>
       <c r="M466" s="18" t="s">
-        <v>3767</v>
+        <v>3764</v>
       </c>
       <c r="N466" s="18" t="s">
-        <v>3810</v>
+        <v>3807</v>
       </c>
       <c r="O466" s="19"/>
       <c r="P466" s="19"/>
@@ -26987,7 +26993,7 @@
         <v>40074</v>
       </c>
       <c r="B467" s="15" t="s">
-        <v>3772</v>
+        <v>3769</v>
       </c>
       <c r="C467" s="15"/>
       <c r="D467" s="16"/>
@@ -27002,10 +27008,10 @@
       <c r="K467" s="17"/>
       <c r="L467" s="17"/>
       <c r="M467" s="18" t="s">
-        <v>3767</v>
+        <v>3764</v>
       </c>
       <c r="N467" s="18" t="s">
-        <v>3810</v>
+        <v>3807</v>
       </c>
       <c r="O467" s="19"/>
       <c r="P467" s="19"/>
@@ -27016,7 +27022,7 @@
         <v>40075</v>
       </c>
       <c r="B468" s="15" t="s">
-        <v>3770</v>
+        <v>3767</v>
       </c>
       <c r="C468" s="15">
         <v>2</v>
@@ -27031,10 +27037,10 @@
       <c r="K468" s="17"/>
       <c r="L468" s="17"/>
       <c r="M468" s="18" t="s">
-        <v>3769</v>
+        <v>3766</v>
       </c>
       <c r="N468" s="18" t="s">
-        <v>3810</v>
+        <v>3807</v>
       </c>
       <c r="O468" s="19"/>
       <c r="P468" s="19"/>
@@ -27045,7 +27051,7 @@
         <v>40076</v>
       </c>
       <c r="B469" s="15" t="s">
-        <v>3773</v>
+        <v>3770</v>
       </c>
       <c r="C469" s="15"/>
       <c r="D469" s="16"/>
@@ -27060,10 +27066,10 @@
       <c r="K469" s="17"/>
       <c r="L469" s="17"/>
       <c r="M469" s="18" t="s">
-        <v>3771</v>
+        <v>3768</v>
       </c>
       <c r="N469" s="18" t="s">
-        <v>3811</v>
+        <v>3808</v>
       </c>
       <c r="O469" s="19"/>
       <c r="P469" s="19"/>
@@ -27074,7 +27080,7 @@
         <v>40077</v>
       </c>
       <c r="B470" s="15" t="s">
-        <v>3774</v>
+        <v>3771</v>
       </c>
       <c r="C470" s="15"/>
       <c r="D470" s="16"/>
@@ -27091,10 +27097,10 @@
       <c r="K470" s="17"/>
       <c r="L470" s="17"/>
       <c r="M470" s="18" t="s">
-        <v>3771</v>
+        <v>3768</v>
       </c>
       <c r="N470" s="18" t="s">
-        <v>3811</v>
+        <v>3808</v>
       </c>
       <c r="O470" s="19"/>
       <c r="P470" s="19"/>
@@ -27105,13 +27111,13 @@
         <v>40078</v>
       </c>
       <c r="B471" s="15" t="s">
-        <v>3775</v>
+        <v>3772</v>
       </c>
       <c r="C471" s="15">
         <v>2</v>
       </c>
       <c r="D471" s="16" t="s">
-        <v>3776</v>
+        <v>3773</v>
       </c>
       <c r="E471" s="17"/>
       <c r="F471" s="17"/>
@@ -27122,10 +27128,10 @@
       <c r="K471" s="17"/>
       <c r="L471" s="17"/>
       <c r="M471" s="18" t="s">
-        <v>3777</v>
+        <v>3774</v>
       </c>
       <c r="N471" s="18" t="s">
-        <v>3811</v>
+        <v>3808</v>
       </c>
       <c r="O471" s="19"/>
       <c r="P471" s="19"/>
@@ -27136,7 +27142,7 @@
         <v>40079</v>
       </c>
       <c r="B472" s="15" t="s">
-        <v>3778</v>
+        <v>3775</v>
       </c>
       <c r="C472" s="15"/>
       <c r="D472" s="16"/>
@@ -27149,10 +27155,10 @@
       <c r="K472" s="17"/>
       <c r="L472" s="17"/>
       <c r="M472" s="18" t="s">
-        <v>3779</v>
+        <v>3776</v>
       </c>
       <c r="N472" s="18" t="s">
-        <v>3812</v>
+        <v>3809</v>
       </c>
       <c r="O472" s="19"/>
       <c r="P472" s="19"/>
@@ -27163,7 +27169,7 @@
         <v>40080</v>
       </c>
       <c r="B473" s="15" t="s">
-        <v>3780</v>
+        <v>3777</v>
       </c>
       <c r="C473" s="15"/>
       <c r="D473" s="16"/>
@@ -27176,13 +27182,13 @@
       <c r="K473" s="17"/>
       <c r="L473" s="17"/>
       <c r="M473" s="18" t="s">
-        <v>3783</v>
+        <v>3780</v>
       </c>
       <c r="N473" s="18" t="s">
-        <v>3812</v>
+        <v>3809</v>
       </c>
       <c r="O473" s="19" t="s">
-        <v>3784</v>
+        <v>3781</v>
       </c>
       <c r="P473" s="19"/>
       <c r="Q473" s="20"/>
@@ -27192,7 +27198,7 @@
         <v>40081</v>
       </c>
       <c r="B474" s="15" t="s">
-        <v>3781</v>
+        <v>3778</v>
       </c>
       <c r="C474" s="15"/>
       <c r="D474" s="16"/>
@@ -27205,13 +27211,13 @@
       <c r="K474" s="17"/>
       <c r="L474" s="17"/>
       <c r="M474" s="18" t="s">
-        <v>3783</v>
+        <v>3780</v>
       </c>
       <c r="N474" s="18" t="s">
-        <v>3812</v>
+        <v>3809</v>
       </c>
       <c r="O474" s="19" t="s">
-        <v>3784</v>
+        <v>3781</v>
       </c>
       <c r="P474" s="19"/>
       <c r="Q474" s="20"/>
@@ -27221,7 +27227,7 @@
         <v>40082</v>
       </c>
       <c r="B475" s="15" t="s">
-        <v>3782</v>
+        <v>3779</v>
       </c>
       <c r="C475" s="15"/>
       <c r="D475" s="16"/>
@@ -27234,13 +27240,13 @@
       <c r="K475" s="17"/>
       <c r="L475" s="17"/>
       <c r="M475" s="18" t="s">
-        <v>3783</v>
+        <v>3780</v>
       </c>
       <c r="N475" s="18" t="s">
-        <v>3812</v>
+        <v>3809</v>
       </c>
       <c r="O475" s="19" t="s">
-        <v>3784</v>
+        <v>3781</v>
       </c>
       <c r="P475" s="19"/>
       <c r="Q475" s="20"/>
@@ -27250,7 +27256,7 @@
         <v>40083</v>
       </c>
       <c r="B476" s="15" t="s">
-        <v>3800</v>
+        <v>3797</v>
       </c>
       <c r="C476" s="15">
         <v>3</v>
@@ -27265,13 +27271,13 @@
       <c r="K476" s="17"/>
       <c r="L476" s="17"/>
       <c r="M476" s="18" t="s">
-        <v>3783</v>
+        <v>3780</v>
       </c>
       <c r="N476" s="18" t="s">
-        <v>3812</v>
+        <v>3809</v>
       </c>
       <c r="O476" s="19" t="s">
-        <v>3801</v>
+        <v>3798</v>
       </c>
       <c r="P476" s="19"/>
       <c r="Q476" s="20"/>
@@ -27281,7 +27287,7 @@
         <v>40084</v>
       </c>
       <c r="B477" s="15" t="s">
-        <v>3802</v>
+        <v>3799</v>
       </c>
       <c r="C477" s="15">
         <v>3</v>
@@ -27296,13 +27302,13 @@
       <c r="K477" s="17"/>
       <c r="L477" s="17"/>
       <c r="M477" s="18" t="s">
-        <v>3771</v>
+        <v>3768</v>
       </c>
       <c r="N477" s="18" t="s">
-        <v>3811</v>
+        <v>3808</v>
       </c>
       <c r="O477" s="19" t="s">
-        <v>3803</v>
+        <v>3800</v>
       </c>
       <c r="P477" s="19"/>
       <c r="Q477" s="20"/>
@@ -27328,10 +27334,10 @@
         <v>886</v>
       </c>
       <c r="N478" s="18" t="s">
-        <v>3806</v>
+        <v>3803</v>
       </c>
       <c r="O478" s="19" t="s">
-        <v>3823</v>
+        <v>3820</v>
       </c>
       <c r="P478" s="19"/>
       <c r="Q478" s="20"/>
@@ -27357,10 +27363,10 @@
         <v>886</v>
       </c>
       <c r="N479" s="18" t="s">
-        <v>3807</v>
+        <v>3804</v>
       </c>
       <c r="O479" s="19" t="s">
-        <v>3823</v>
+        <v>3820</v>
       </c>
       <c r="P479" s="19"/>
       <c r="Q479" s="20"/>
@@ -27389,7 +27395,7 @@
       <c r="K480" s="17"/>
       <c r="L480" s="17"/>
       <c r="M480" s="18" t="s">
-        <v>3584</v>
+        <v>3581</v>
       </c>
       <c r="N480" s="18" t="s">
         <v>952</v>
@@ -27422,7 +27428,7 @@
       <c r="K481" s="17"/>
       <c r="L481" s="17"/>
       <c r="M481" s="18" t="s">
-        <v>3583</v>
+        <v>3580</v>
       </c>
       <c r="N481" s="18" t="s">
         <v>955</v>
@@ -27513,7 +27519,7 @@
       <c r="K484" s="17"/>
       <c r="L484" s="17"/>
       <c r="M484" s="18" t="s">
-        <v>3862</v>
+        <v>3858</v>
       </c>
       <c r="N484" s="18" t="s">
         <v>960</v>
@@ -27882,7 +27888,7 @@
       <c r="K495" s="17"/>
       <c r="L495" s="17"/>
       <c r="M495" s="18" t="s">
-        <v>3584</v>
+        <v>3581</v>
       </c>
       <c r="N495" s="18" t="s">
         <v>995</v>
@@ -27911,7 +27917,7 @@
       <c r="K496" s="17"/>
       <c r="L496" s="17"/>
       <c r="M496" s="18" t="s">
-        <v>3584</v>
+        <v>3581</v>
       </c>
       <c r="N496" s="18"/>
       <c r="O496" s="19"/>
@@ -27945,7 +27951,7 @@
         <v>999</v>
       </c>
       <c r="N497" s="18" t="s">
-        <v>3568</v>
+        <v>3565</v>
       </c>
       <c r="O497" s="19"/>
       <c r="P497" s="19"/>
@@ -27956,7 +27962,7 @@
         <v>10366</v>
       </c>
       <c r="B498" s="15" t="s">
-        <v>3852</v>
+        <v>3848</v>
       </c>
       <c r="C498" s="15">
         <v>1</v>
@@ -27971,19 +27977,19 @@
       <c r="K498" s="17"/>
       <c r="L498" s="17"/>
       <c r="M498" s="18" t="s">
+        <v>3849</v>
+      </c>
+      <c r="N498" s="18" t="s">
+        <v>3861</v>
+      </c>
+      <c r="O498" s="19" t="s">
         <v>3853</v>
       </c>
-      <c r="N498" s="18" t="s">
-        <v>3865</v>
-      </c>
-      <c r="O498" s="19" t="s">
-        <v>3857</v>
-      </c>
       <c r="P498" s="19" t="s">
-        <v>3859</v>
+        <v>3855</v>
       </c>
       <c r="Q498" s="20" t="s">
-        <v>3858</v>
+        <v>3854</v>
       </c>
     </row>
     <row r="499" spans="1:17" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27991,7 +27997,7 @@
         <v>20366</v>
       </c>
       <c r="B499" s="27" t="s">
-        <v>3854</v>
+        <v>3850</v>
       </c>
       <c r="C499" s="15">
         <v>2</v>
@@ -28017,7 +28023,7 @@
       <c r="N499" s="18"/>
       <c r="O499" s="19"/>
       <c r="P499" s="19" t="s">
-        <v>3861</v>
+        <v>3857</v>
       </c>
       <c r="Q499" s="20"/>
     </row>
@@ -28026,7 +28032,7 @@
         <v>20365</v>
       </c>
       <c r="B500" s="15" t="s">
-        <v>3855</v>
+        <v>3851</v>
       </c>
       <c r="C500" s="15">
         <v>1</v>
@@ -28052,7 +28058,7 @@
       <c r="N500" s="18"/>
       <c r="O500" s="19"/>
       <c r="P500" s="19" t="s">
-        <v>3861</v>
+        <v>3857</v>
       </c>
       <c r="Q500" s="20"/>
     </row>
@@ -28061,7 +28067,7 @@
         <v>20364</v>
       </c>
       <c r="B501" s="15" t="s">
-        <v>3856</v>
+        <v>3852</v>
       </c>
       <c r="C501" s="15"/>
       <c r="D501" s="16"/>
@@ -28081,7 +28087,7 @@
       <c r="N501" s="18"/>
       <c r="O501" s="19"/>
       <c r="P501" s="19" t="s">
-        <v>3861</v>
+        <v>3857</v>
       </c>
       <c r="Q501" s="20"/>
     </row>
@@ -28090,7 +28096,7 @@
         <v>20363</v>
       </c>
       <c r="B502" s="15" t="s">
-        <v>3860</v>
+        <v>3856</v>
       </c>
       <c r="C502" s="15"/>
       <c r="D502" s="16"/>
@@ -28107,13 +28113,13 @@
       <c r="M502" s="18"/>
       <c r="N502" s="18"/>
       <c r="O502" s="19" t="s">
-        <v>3863</v>
+        <v>3859</v>
       </c>
       <c r="P502" s="19" t="s">
-        <v>3866</v>
+        <v>3862</v>
       </c>
       <c r="Q502" s="20" t="s">
-        <v>3868</v>
+        <v>3864</v>
       </c>
     </row>
     <row r="503" spans="1:17" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -28121,7 +28127,7 @@
         <v>20362</v>
       </c>
       <c r="B503" s="15" t="s">
-        <v>3864</v>
+        <v>3860</v>
       </c>
       <c r="C503" s="15">
         <v>1</v>
@@ -28150,7 +28156,7 @@
         <v>20361</v>
       </c>
       <c r="B504" s="15" t="s">
-        <v>3867</v>
+        <v>3863</v>
       </c>
       <c r="C504" s="15"/>
       <c r="D504" s="16"/>
@@ -28192,7 +28198,7 @@
       <c r="K505" s="17"/>
       <c r="L505" s="17"/>
       <c r="M505" s="18" t="s">
-        <v>3785</v>
+        <v>3782</v>
       </c>
       <c r="N505" s="18"/>
       <c r="O505" s="19"/>
@@ -28204,13 +28210,13 @@
         <v>20367</v>
       </c>
       <c r="B506" s="15" t="s">
-        <v>3384</v>
+        <v>3382</v>
       </c>
       <c r="C506" s="15">
         <v>3</v>
       </c>
       <c r="D506" s="16" t="s">
-        <v>3385</v>
+        <v>3383</v>
       </c>
       <c r="E506" s="17"/>
       <c r="F506" s="17">
@@ -28227,10 +28233,10 @@
       <c r="K506" s="17"/>
       <c r="L506" s="17"/>
       <c r="M506" s="18" t="s">
-        <v>3799</v>
+        <v>3796</v>
       </c>
       <c r="N506" s="18" t="s">
-        <v>3662</v>
+        <v>3659</v>
       </c>
       <c r="O506" s="19"/>
       <c r="P506" s="19"/>
@@ -28255,10 +28261,10 @@
       <c r="L507" s="17"/>
       <c r="M507" s="18"/>
       <c r="N507" s="18" t="s">
-        <v>3731</v>
+        <v>3728</v>
       </c>
       <c r="O507" s="19" t="s">
-        <v>3823</v>
+        <v>3820</v>
       </c>
       <c r="P507" s="19"/>
       <c r="Q507" s="20"/>
@@ -28268,7 +28274,7 @@
         <v>20369</v>
       </c>
       <c r="B508" s="15" t="s">
-        <v>3472</v>
+        <v>3470</v>
       </c>
       <c r="C508" s="15"/>
       <c r="D508" s="16"/>
@@ -28281,11 +28287,11 @@
       <c r="K508" s="17"/>
       <c r="L508" s="17"/>
       <c r="M508" s="18" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="N508" s="18"/>
       <c r="O508" s="19" t="s">
-        <v>3822</v>
+        <v>3819</v>
       </c>
       <c r="P508" s="19"/>
       <c r="Q508" s="20"/>
@@ -28312,7 +28318,7 @@
       <c r="K509" s="17"/>
       <c r="L509" s="17"/>
       <c r="M509" s="18" t="s">
-        <v>3787</v>
+        <v>3784</v>
       </c>
       <c r="N509" s="18" t="s">
         <v>1002</v>
@@ -28343,7 +28349,7 @@
       <c r="K510" s="17"/>
       <c r="L510" s="17"/>
       <c r="M510" s="18" t="s">
-        <v>3788</v>
+        <v>3785</v>
       </c>
       <c r="N510" s="18" t="s">
         <v>1004</v>
@@ -28374,7 +28380,7 @@
       <c r="K511" s="17"/>
       <c r="L511" s="17"/>
       <c r="M511" s="18" t="s">
-        <v>3789</v>
+        <v>3786</v>
       </c>
       <c r="N511" s="18" t="s">
         <v>1006</v>
@@ -28405,7 +28411,7 @@
       <c r="K512" s="17"/>
       <c r="L512" s="17"/>
       <c r="M512" s="18" t="s">
-        <v>3790</v>
+        <v>3787</v>
       </c>
       <c r="N512" s="18" t="s">
         <v>1008</v>
@@ -28436,7 +28442,7 @@
       <c r="K513" s="17"/>
       <c r="L513" s="17"/>
       <c r="M513" s="18" t="s">
-        <v>3791</v>
+        <v>3788</v>
       </c>
       <c r="N513" s="18" t="s">
         <v>1010</v>
@@ -28467,7 +28473,7 @@
       <c r="K514" s="17"/>
       <c r="L514" s="17"/>
       <c r="M514" s="18" t="s">
-        <v>3792</v>
+        <v>3789</v>
       </c>
       <c r="N514" s="18" t="s">
         <v>1012</v>
@@ -28498,7 +28504,7 @@
       <c r="K515" s="17"/>
       <c r="L515" s="17"/>
       <c r="M515" s="18" t="s">
-        <v>3793</v>
+        <v>3790</v>
       </c>
       <c r="N515" s="18" t="s">
         <v>1014</v>
@@ -28529,7 +28535,7 @@
       <c r="K516" s="17"/>
       <c r="L516" s="17"/>
       <c r="M516" s="18" t="s">
-        <v>3794</v>
+        <v>3791</v>
       </c>
       <c r="N516" s="18" t="s">
         <v>1016</v>
@@ -28562,7 +28568,7 @@
       <c r="K517" s="17"/>
       <c r="L517" s="17"/>
       <c r="M517" s="18" t="s">
-        <v>3795</v>
+        <v>3792</v>
       </c>
       <c r="N517" s="18" t="s">
         <v>1018</v>
@@ -28595,7 +28601,7 @@
       <c r="K518" s="17"/>
       <c r="L518" s="17"/>
       <c r="M518" s="18" t="s">
-        <v>3796</v>
+        <v>3793</v>
       </c>
       <c r="N518" s="18" t="s">
         <v>1020</v>
@@ -28626,7 +28632,7 @@
         <v>1018</v>
       </c>
       <c r="O519" s="19" t="s">
-        <v>3823</v>
+        <v>3820</v>
       </c>
       <c r="P519" s="19"/>
       <c r="Q519" s="20"/>
@@ -28636,13 +28642,13 @@
         <v>20380</v>
       </c>
       <c r="B520" s="15" t="s">
-        <v>3476</v>
+        <v>3474</v>
       </c>
       <c r="C520" s="15">
         <v>2</v>
       </c>
       <c r="D520" s="16" t="s">
-        <v>3479</v>
+        <v>3477</v>
       </c>
       <c r="E520" s="17"/>
       <c r="F520" s="17"/>
@@ -28655,10 +28661,10 @@
       <c r="K520" s="17"/>
       <c r="L520" s="17"/>
       <c r="M520" s="18" t="s">
-        <v>3797</v>
+        <v>3794</v>
       </c>
       <c r="N520" s="18" t="s">
-        <v>3477</v>
+        <v>3475</v>
       </c>
       <c r="O520" s="19"/>
       <c r="P520" s="19"/>
@@ -28669,13 +28675,13 @@
         <v>20381</v>
       </c>
       <c r="B521" s="15" t="s">
-        <v>3478</v>
+        <v>3476</v>
       </c>
       <c r="C521" s="15">
         <v>2</v>
       </c>
       <c r="D521" s="16" t="s">
-        <v>3480</v>
+        <v>3478</v>
       </c>
       <c r="E521" s="17"/>
       <c r="F521" s="17">
@@ -28690,10 +28696,10 @@
       <c r="K521" s="17"/>
       <c r="L521" s="17"/>
       <c r="M521" s="18" t="s">
-        <v>3797</v>
+        <v>3794</v>
       </c>
       <c r="N521" s="18" t="s">
-        <v>3481</v>
+        <v>3479</v>
       </c>
       <c r="O521" s="19"/>
       <c r="P521" s="19"/>
@@ -28704,13 +28710,13 @@
         <v>20382</v>
       </c>
       <c r="B522" s="15" t="s">
-        <v>3484</v>
+        <v>3482</v>
       </c>
       <c r="C522" s="15">
         <v>2</v>
       </c>
       <c r="D522" s="16" t="s">
-        <v>3485</v>
+        <v>3483</v>
       </c>
       <c r="E522" s="17"/>
       <c r="F522" s="17">
@@ -28727,10 +28733,10 @@
       <c r="K522" s="17"/>
       <c r="L522" s="17"/>
       <c r="M522" s="18" t="s">
-        <v>3797</v>
+        <v>3794</v>
       </c>
       <c r="N522" s="18" t="s">
-        <v>3486</v>
+        <v>3484</v>
       </c>
       <c r="O522" s="19"/>
       <c r="P522" s="19"/>
@@ -28741,13 +28747,13 @@
         <v>20383</v>
       </c>
       <c r="B523" s="15" t="s">
-        <v>3489</v>
+        <v>3487</v>
       </c>
       <c r="C523" s="15">
         <v>2</v>
       </c>
       <c r="D523" s="16" t="s">
-        <v>3490</v>
+        <v>3488</v>
       </c>
       <c r="E523" s="17"/>
       <c r="F523" s="17">
@@ -28762,10 +28768,10 @@
       <c r="K523" s="17"/>
       <c r="L523" s="17"/>
       <c r="M523" s="18" t="s">
-        <v>3797</v>
+        <v>3794</v>
       </c>
       <c r="N523" s="18" t="s">
-        <v>3487</v>
+        <v>3485</v>
       </c>
       <c r="O523" s="19"/>
       <c r="P523" s="19"/>
@@ -28776,13 +28782,13 @@
         <v>20384</v>
       </c>
       <c r="B524" s="15" t="s">
-        <v>3491</v>
+        <v>3489</v>
       </c>
       <c r="C524" s="15">
         <v>2</v>
       </c>
       <c r="D524" s="16" t="s">
-        <v>3492</v>
+        <v>3490</v>
       </c>
       <c r="E524" s="17"/>
       <c r="F524" s="17"/>
@@ -28793,10 +28799,10 @@
       <c r="K524" s="17"/>
       <c r="L524" s="17"/>
       <c r="M524" s="18" t="s">
-        <v>3797</v>
+        <v>3794</v>
       </c>
       <c r="N524" s="18" t="s">
-        <v>3488</v>
+        <v>3486</v>
       </c>
       <c r="O524" s="19"/>
       <c r="P524" s="19"/>
@@ -28826,7 +28832,7 @@
       <c r="K525" s="17"/>
       <c r="L525" s="17"/>
       <c r="M525" s="18" t="s">
-        <v>3797</v>
+        <v>3794</v>
       </c>
       <c r="N525" s="18" t="s">
         <v>1022</v>
@@ -28859,7 +28865,7 @@
       <c r="K526" s="17"/>
       <c r="L526" s="17"/>
       <c r="M526" s="18" t="s">
-        <v>3797</v>
+        <v>3794</v>
       </c>
       <c r="N526" s="18" t="s">
         <v>1024</v>
@@ -28892,7 +28898,7 @@
       <c r="K527" s="17"/>
       <c r="L527" s="17"/>
       <c r="M527" s="18" t="s">
-        <v>3797</v>
+        <v>3794</v>
       </c>
       <c r="N527" s="18" t="s">
         <v>1026</v>
@@ -28925,7 +28931,7 @@
       <c r="K528" s="17"/>
       <c r="L528" s="17"/>
       <c r="M528" s="18" t="s">
-        <v>3797</v>
+        <v>3794</v>
       </c>
       <c r="N528" s="18" t="s">
         <v>1028</v>
@@ -28958,7 +28964,7 @@
       <c r="K529" s="17"/>
       <c r="L529" s="17"/>
       <c r="M529" s="18" t="s">
-        <v>3797</v>
+        <v>3794</v>
       </c>
       <c r="N529" s="18" t="s">
         <v>1030</v>
@@ -28989,7 +28995,7 @@
       <c r="K530" s="17"/>
       <c r="L530" s="17"/>
       <c r="M530" s="18" t="s">
-        <v>3785</v>
+        <v>3782</v>
       </c>
       <c r="N530" s="18"/>
       <c r="O530" s="19"/>
@@ -29020,7 +29026,7 @@
       <c r="K531" s="17"/>
       <c r="L531" s="17"/>
       <c r="M531" s="18" t="s">
-        <v>3798</v>
+        <v>3795</v>
       </c>
       <c r="N531" s="18" t="s">
         <v>1033</v>
@@ -29053,7 +29059,7 @@
       <c r="K532" s="17"/>
       <c r="L532" s="17"/>
       <c r="M532" s="18" t="s">
-        <v>3798</v>
+        <v>3795</v>
       </c>
       <c r="N532" s="18" t="s">
         <v>1035</v>
@@ -29086,7 +29092,7 @@
       <c r="K533" s="17"/>
       <c r="L533" s="17"/>
       <c r="M533" s="18" t="s">
-        <v>3798</v>
+        <v>3795</v>
       </c>
       <c r="N533" s="18" t="s">
         <v>1037</v>
@@ -29119,7 +29125,7 @@
       <c r="K534" s="17"/>
       <c r="L534" s="17"/>
       <c r="M534" s="18" t="s">
-        <v>3798</v>
+        <v>3795</v>
       </c>
       <c r="N534" s="18" t="s">
         <v>1039</v>
@@ -29152,7 +29158,7 @@
       <c r="K535" s="17"/>
       <c r="L535" s="17"/>
       <c r="M535" s="18" t="s">
-        <v>3798</v>
+        <v>3795</v>
       </c>
       <c r="N535" s="18" t="s">
         <v>1041</v>
@@ -29166,7 +29172,7 @@
         <v>20390</v>
       </c>
       <c r="B536" s="15" t="s">
-        <v>3817</v>
+        <v>3814</v>
       </c>
       <c r="C536" s="15">
         <v>3</v>
@@ -29183,10 +29189,10 @@
       </c>
       <c r="L536" s="17"/>
       <c r="M536" s="18" t="s">
-        <v>3818</v>
+        <v>3815</v>
       </c>
       <c r="N536" s="18" t="s">
-        <v>3819</v>
+        <v>3816</v>
       </c>
       <c r="O536" s="19"/>
       <c r="P536" s="19"/>
@@ -29248,10 +29254,10 @@
         <v>1045</v>
       </c>
       <c r="P538" s="19" t="s">
-        <v>3413</v>
+        <v>3411</v>
       </c>
       <c r="Q538" s="20" t="s">
-        <v>3412</v>
+        <v>3410</v>
       </c>
     </row>
     <row r="539" spans="1:17" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -29281,7 +29287,7 @@
         <v>1047</v>
       </c>
       <c r="P539" s="19" t="s">
-        <v>3415</v>
+        <v>3413</v>
       </c>
       <c r="Q539" s="20" t="s">
         <v>1048</v>
@@ -29314,7 +29320,7 @@
         <v>1050</v>
       </c>
       <c r="P540" s="19" t="s">
-        <v>3416</v>
+        <v>3414</v>
       </c>
       <c r="Q540" s="20" t="s">
         <v>1051</v>
@@ -29347,7 +29353,7 @@
         <v>1053</v>
       </c>
       <c r="P541" s="19" t="s">
-        <v>3417</v>
+        <v>3415</v>
       </c>
       <c r="Q541" s="20" t="s">
         <v>1054</v>
@@ -29380,7 +29386,7 @@
         <v>1056</v>
       </c>
       <c r="P542" s="19" t="s">
-        <v>3418</v>
+        <v>3416</v>
       </c>
       <c r="Q542" s="20" t="s">
         <v>1057</v>
@@ -29413,7 +29419,7 @@
         <v>1059</v>
       </c>
       <c r="P543" s="19" t="s">
-        <v>3419</v>
+        <v>3417</v>
       </c>
       <c r="Q543" s="20" t="s">
         <v>1060</v>
@@ -29446,7 +29452,7 @@
         <v>1062</v>
       </c>
       <c r="P544" s="19" t="s">
-        <v>3420</v>
+        <v>3418</v>
       </c>
       <c r="Q544" s="20" t="s">
         <v>1063</v>
@@ -29479,7 +29485,7 @@
         <v>1065</v>
       </c>
       <c r="P545" s="19" t="s">
-        <v>3421</v>
+        <v>3419</v>
       </c>
       <c r="Q545" s="20" t="s">
         <v>1066</v>
@@ -29509,10 +29515,10 @@
       <c r="M546" s="18"/>
       <c r="N546" s="18"/>
       <c r="O546" s="19" t="s">
-        <v>3483</v>
+        <v>3481</v>
       </c>
       <c r="P546" s="19" t="s">
-        <v>3422</v>
+        <v>3420</v>
       </c>
       <c r="Q546" s="20" t="s">
         <v>1068</v>
@@ -29542,7 +29548,7 @@
       <c r="M547" s="18"/>
       <c r="N547" s="18"/>
       <c r="O547" s="19" t="s">
-        <v>3482</v>
+        <v>3480</v>
       </c>
       <c r="P547" s="19"/>
       <c r="Q547" s="20"/>
@@ -29571,13 +29577,13 @@
       <c r="M548" s="18"/>
       <c r="N548" s="18"/>
       <c r="O548" s="19" t="s">
-        <v>3386</v>
+        <v>3384</v>
       </c>
       <c r="P548" s="19" t="s">
-        <v>3424</v>
+        <v>3422</v>
       </c>
       <c r="Q548" s="20" t="s">
-        <v>3423</v>
+        <v>3421</v>
       </c>
     </row>
     <row r="549" spans="1:17" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -29604,10 +29610,10 @@
       <c r="M549" s="18"/>
       <c r="N549" s="18"/>
       <c r="O549" s="19" t="s">
-        <v>3387</v>
+        <v>3385</v>
       </c>
       <c r="P549" s="19" t="s">
-        <v>3424</v>
+        <v>3422</v>
       </c>
       <c r="Q549" s="20" t="s">
         <v>1071</v>
@@ -29637,10 +29643,10 @@
       <c r="M550" s="18"/>
       <c r="N550" s="18"/>
       <c r="O550" s="19" t="s">
-        <v>3388</v>
+        <v>3386</v>
       </c>
       <c r="P550" s="19" t="s">
-        <v>3414</v>
+        <v>3412</v>
       </c>
       <c r="Q550" s="20" t="s">
         <v>1071</v>
@@ -29670,10 +29676,10 @@
       <c r="M551" s="18"/>
       <c r="N551" s="18"/>
       <c r="O551" s="19" t="s">
-        <v>3389</v>
+        <v>3387</v>
       </c>
       <c r="P551" s="19" t="s">
-        <v>3414</v>
+        <v>3412</v>
       </c>
       <c r="Q551" s="20" t="s">
         <v>1071</v>
@@ -29703,10 +29709,10 @@
       <c r="M552" s="18"/>
       <c r="N552" s="18"/>
       <c r="O552" s="19" t="s">
-        <v>3390</v>
+        <v>3388</v>
       </c>
       <c r="P552" s="19" t="s">
-        <v>3424</v>
+        <v>3422</v>
       </c>
       <c r="Q552" s="20" t="s">
         <v>1071</v>
@@ -29736,10 +29742,10 @@
       <c r="M553" s="18"/>
       <c r="N553" s="18"/>
       <c r="O553" s="26" t="s">
-        <v>3391</v>
+        <v>3389</v>
       </c>
       <c r="P553" s="19" t="s">
-        <v>3414</v>
+        <v>3412</v>
       </c>
       <c r="Q553" s="20" t="s">
         <v>1071</v>
@@ -29772,7 +29778,7 @@
         <v>1078</v>
       </c>
       <c r="P554" s="19" t="s">
-        <v>3414</v>
+        <v>3412</v>
       </c>
       <c r="Q554" s="20" t="s">
         <v>1071</v>
@@ -29814,13 +29820,13 @@
         <v>20409</v>
       </c>
       <c r="B556" s="15" t="s">
-        <v>3426</v>
+        <v>3424</v>
       </c>
       <c r="C556" s="15">
         <v>3</v>
       </c>
       <c r="D556" s="16" t="s">
-        <v>3427</v>
+        <v>3425</v>
       </c>
       <c r="E556" s="17"/>
       <c r="F556" s="17"/>
@@ -29847,7 +29853,7 @@
         <v>20408</v>
       </c>
       <c r="B557" s="15" t="s">
-        <v>3428</v>
+        <v>3426</v>
       </c>
       <c r="C557" s="15">
         <v>3</v>
@@ -29862,7 +29868,7 @@
       <c r="K557" s="17"/>
       <c r="L557" s="17"/>
       <c r="M557" s="18" t="s">
-        <v>3430</v>
+        <v>3428</v>
       </c>
       <c r="N557" s="18"/>
       <c r="O557" s="19"/>
@@ -29887,7 +29893,7 @@
       <c r="K558" s="17"/>
       <c r="L558" s="17"/>
       <c r="M558" s="18" t="s">
-        <v>3429</v>
+        <v>3427</v>
       </c>
       <c r="N558" s="18" t="s">
         <v>1082</v>
@@ -30123,7 +30129,7 @@
         <v>10414</v>
       </c>
       <c r="B567" s="15" t="s">
-        <v>3869</v>
+        <v>3865</v>
       </c>
       <c r="C567" s="15"/>
       <c r="D567" s="16"/>
@@ -30177,7 +30183,7 @@
         <v>10416</v>
       </c>
       <c r="B569" s="15" t="s">
-        <v>3870</v>
+        <v>3866</v>
       </c>
       <c r="C569" s="15"/>
       <c r="D569" s="16"/>
@@ -30258,7 +30264,7 @@
         <v>10418</v>
       </c>
       <c r="B572" s="15" t="s">
-        <v>3871</v>
+        <v>3867</v>
       </c>
       <c r="C572" s="15"/>
       <c r="D572" s="16"/>
@@ -30285,7 +30291,7 @@
         <v>10419</v>
       </c>
       <c r="B573" s="15" t="s">
-        <v>3872</v>
+        <v>3868</v>
       </c>
       <c r="C573" s="15"/>
       <c r="D573" s="16"/>
@@ -30312,7 +30318,7 @@
         <v>10420</v>
       </c>
       <c r="B574" s="15" t="s">
-        <v>3873</v>
+        <v>3869</v>
       </c>
       <c r="C574" s="15"/>
       <c r="D574" s="16"/>
@@ -30478,7 +30484,7 @@
         <v>20423</v>
       </c>
       <c r="B580" s="15" t="s">
-        <v>3874</v>
+        <v>3870</v>
       </c>
       <c r="C580" s="15"/>
       <c r="D580" s="16"/>
@@ -30516,10 +30522,10 @@
       <c r="K581" s="17"/>
       <c r="L581" s="17"/>
       <c r="M581" s="18" t="s">
-        <v>3831</v>
+        <v>3828</v>
       </c>
       <c r="N581" s="18" t="s">
-        <v>3525</v>
+        <v>3523</v>
       </c>
       <c r="O581" s="19"/>
       <c r="P581" s="19"/>
@@ -30543,10 +30549,10 @@
       <c r="K582" s="17"/>
       <c r="L582" s="17"/>
       <c r="M582" s="18" t="s">
-        <v>3832</v>
+        <v>3829</v>
       </c>
       <c r="N582" s="18" t="s">
-        <v>3526</v>
+        <v>3524</v>
       </c>
       <c r="O582" s="19"/>
       <c r="P582" s="19"/>
@@ -30721,7 +30727,7 @@
         <v>10431</v>
       </c>
       <c r="B589" s="15" t="s">
-        <v>3875</v>
+        <v>3871</v>
       </c>
       <c r="C589" s="15"/>
       <c r="D589" s="16"/>
@@ -30748,7 +30754,7 @@
         <v>10432</v>
       </c>
       <c r="B590" s="15" t="s">
-        <v>3876</v>
+        <v>3872</v>
       </c>
       <c r="C590" s="15"/>
       <c r="D590" s="16"/>
@@ -30885,7 +30891,7 @@
         <v>20436</v>
       </c>
       <c r="B595" s="15" t="s">
-        <v>3877</v>
+        <v>3873</v>
       </c>
       <c r="C595" s="15"/>
       <c r="D595" s="16"/>
@@ -30964,7 +30970,7 @@
         <v>10438</v>
       </c>
       <c r="B598" s="15" t="s">
-        <v>3878</v>
+        <v>3874</v>
       </c>
       <c r="C598" s="15"/>
       <c r="D598" s="16"/>
@@ -31007,7 +31013,7 @@
         <v>60</v>
       </c>
       <c r="N599" s="18" t="s">
-        <v>3923</v>
+        <v>3914</v>
       </c>
       <c r="O599" s="19"/>
       <c r="P599" s="19"/>
@@ -31047,7 +31053,7 @@
         <v>10441</v>
       </c>
       <c r="B601" s="15" t="s">
-        <v>3879</v>
+        <v>3954</v>
       </c>
       <c r="C601" s="15"/>
       <c r="D601" s="16"/>
@@ -31306,7 +31312,7 @@
         <v>862</v>
       </c>
       <c r="N610" s="18" t="s">
-        <v>3522</v>
+        <v>3520</v>
       </c>
       <c r="O610" s="19"/>
       <c r="P610" s="19"/>
@@ -31645,13 +31651,13 @@
         <v>10458</v>
       </c>
       <c r="B623" s="15" t="s">
-        <v>3574</v>
+        <v>3571</v>
       </c>
       <c r="C623" s="15">
         <v>1</v>
       </c>
       <c r="D623" s="16" t="s">
-        <v>3573</v>
+        <v>3570</v>
       </c>
       <c r="E623" s="17"/>
       <c r="F623" s="17"/>
@@ -31667,10 +31673,10 @@
       </c>
       <c r="O623" s="19"/>
       <c r="P623" s="19" t="s">
-        <v>3748</v>
+        <v>3745</v>
       </c>
       <c r="Q623" s="20" t="s">
-        <v>3746</v>
+        <v>3743</v>
       </c>
     </row>
     <row r="624" spans="1:17" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -31678,7 +31684,7 @@
         <v>20461</v>
       </c>
       <c r="B624" s="15" t="s">
-        <v>3575</v>
+        <v>3572</v>
       </c>
       <c r="C624" s="15">
         <v>2</v>
@@ -31705,7 +31711,7 @@
         <v>20462</v>
       </c>
       <c r="B625" s="15" t="s">
-        <v>3747</v>
+        <v>3744</v>
       </c>
       <c r="C625" s="15">
         <v>2</v>
@@ -31786,7 +31792,7 @@
         <v>10460</v>
       </c>
       <c r="B628" s="15" t="s">
-        <v>3536</v>
+        <v>3533</v>
       </c>
       <c r="C628" s="15"/>
       <c r="D628" s="16"/>
@@ -32823,7 +32829,7 @@
         <v>886</v>
       </c>
       <c r="N665" s="18" t="s">
-        <v>3540</v>
+        <v>3537</v>
       </c>
       <c r="O665" s="19" t="s">
         <v>1285</v>
@@ -33920,10 +33926,10 @@
         <v>1307</v>
       </c>
       <c r="N704" s="18" t="s">
-        <v>3499</v>
+        <v>3497</v>
       </c>
       <c r="O704" s="19" t="s">
-        <v>3498</v>
+        <v>3496</v>
       </c>
       <c r="P704" s="19"/>
       <c r="Q704" s="20"/>
@@ -33950,7 +33956,7 @@
       <c r="M705" s="18"/>
       <c r="N705" s="18"/>
       <c r="O705" s="19" t="s">
-        <v>3523</v>
+        <v>3521</v>
       </c>
       <c r="P705" s="19"/>
       <c r="Q705" s="20"/>
@@ -34780,7 +34786,7 @@
         <v>1433</v>
       </c>
       <c r="N734" s="18" t="s">
-        <v>3440</v>
+        <v>3438</v>
       </c>
       <c r="O734" s="19"/>
       <c r="P734" s="19"/>
@@ -34809,7 +34815,7 @@
         <v>1435</v>
       </c>
       <c r="N735" s="18" t="s">
-        <v>3439</v>
+        <v>3437</v>
       </c>
       <c r="O735" s="19"/>
       <c r="P735" s="19"/>
@@ -34974,7 +34980,7 @@
       <c r="K741" s="17"/>
       <c r="L741" s="17"/>
       <c r="M741" s="18" t="s">
-        <v>3495</v>
+        <v>3493</v>
       </c>
       <c r="N741" s="18" t="s">
         <v>1447</v>
@@ -35048,7 +35054,7 @@
         <v>20567</v>
       </c>
       <c r="B744" s="15" t="s">
-        <v>3494</v>
+        <v>3492</v>
       </c>
       <c r="C744" s="15"/>
       <c r="D744" s="16"/>
@@ -35061,17 +35067,17 @@
       <c r="K744" s="17"/>
       <c r="L744" s="17"/>
       <c r="M744" s="18" t="s">
+        <v>3493</v>
+      </c>
+      <c r="N744" s="18" t="s">
         <v>3495</v>
-      </c>
-      <c r="N744" s="18" t="s">
-        <v>3497</v>
       </c>
       <c r="O744" s="19"/>
       <c r="P744" s="19" t="s">
-        <v>3738</v>
+        <v>3735</v>
       </c>
       <c r="Q744" s="20" t="s">
-        <v>3743</v>
+        <v>3740</v>
       </c>
     </row>
     <row r="745" spans="1:17" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -35370,7 +35376,7 @@
         <v>1476</v>
       </c>
       <c r="O755" s="19" t="s">
-        <v>3493</v>
+        <v>3491</v>
       </c>
       <c r="P755" s="19"/>
       <c r="Q755" s="20"/>
@@ -35423,13 +35429,13 @@
         <v>1307</v>
       </c>
       <c r="N757" s="18" t="s">
-        <v>3496</v>
+        <v>3494</v>
       </c>
       <c r="O757" s="19" t="s">
         <v>1479</v>
       </c>
       <c r="P757" s="19" t="s">
-        <v>3738</v>
+        <v>3735</v>
       </c>
       <c r="Q757" s="20" t="s">
         <v>1480</v>
@@ -36041,7 +36047,7 @@
         <v>1527</v>
       </c>
       <c r="N779" s="18" t="s">
-        <v>3442</v>
+        <v>3440</v>
       </c>
       <c r="O779" s="19" t="s">
         <v>1528</v>
@@ -36072,7 +36078,7 @@
         <v>1530</v>
       </c>
       <c r="N780" s="18" t="s">
-        <v>3441</v>
+        <v>3439</v>
       </c>
       <c r="O780" s="19" t="s">
         <v>1528</v>
@@ -36516,7 +36522,7 @@
         <v>1552</v>
       </c>
       <c r="N796" s="18" t="s">
-        <v>3506</v>
+        <v>3504</v>
       </c>
       <c r="O796" s="19"/>
       <c r="P796" s="19"/>
@@ -36545,7 +36551,7 @@
         <v>1504</v>
       </c>
       <c r="N797" s="18" t="s">
-        <v>3507</v>
+        <v>3505</v>
       </c>
       <c r="O797" s="19"/>
       <c r="P797" s="19"/>
@@ -36833,7 +36839,7 @@
         <v>1563</v>
       </c>
       <c r="N807" s="18" t="s">
-        <v>3431</v>
+        <v>3429</v>
       </c>
       <c r="O807" s="19"/>
       <c r="P807" s="19"/>
@@ -37630,7 +37636,7 @@
         <v>10649</v>
       </c>
       <c r="B836" s="15" t="s">
-        <v>3564</v>
+        <v>3561</v>
       </c>
       <c r="C836" s="15"/>
       <c r="D836" s="16"/>
@@ -37657,7 +37663,7 @@
         <v>10650</v>
       </c>
       <c r="B837" s="15" t="s">
-        <v>3563</v>
+        <v>3560</v>
       </c>
       <c r="C837" s="15"/>
       <c r="D837" s="16"/>
@@ -37684,7 +37690,7 @@
         <v>10651</v>
       </c>
       <c r="B838" s="15" t="s">
-        <v>3565</v>
+        <v>3562</v>
       </c>
       <c r="C838" s="15"/>
       <c r="D838" s="16"/>
@@ -37711,7 +37717,7 @@
         <v>10652</v>
       </c>
       <c r="B839" s="15" t="s">
-        <v>3566</v>
+        <v>3563</v>
       </c>
       <c r="C839" s="15"/>
       <c r="D839" s="16"/>
@@ -37738,7 +37744,7 @@
         <v>10653</v>
       </c>
       <c r="B840" s="15" t="s">
-        <v>3567</v>
+        <v>3564</v>
       </c>
       <c r="C840" s="15"/>
       <c r="D840" s="16"/>
@@ -38672,7 +38678,7 @@
         <v>1664</v>
       </c>
       <c r="N872" s="18" t="s">
-        <v>3666</v>
+        <v>3663</v>
       </c>
       <c r="O872" s="19"/>
       <c r="P872" s="19"/>
@@ -38701,7 +38707,7 @@
         <v>1707</v>
       </c>
       <c r="N873" s="18" t="s">
-        <v>3667</v>
+        <v>3664</v>
       </c>
       <c r="O873" s="19"/>
       <c r="P873" s="19"/>
@@ -39054,7 +39060,7 @@
         <v>1737</v>
       </c>
       <c r="N886" s="18" t="s">
-        <v>3527</v>
+        <v>3525</v>
       </c>
       <c r="O886" s="19"/>
       <c r="P886" s="19"/>
@@ -39081,7 +39087,7 @@
         <v>1294</v>
       </c>
       <c r="N887" s="18" t="s">
-        <v>3528</v>
+        <v>3526</v>
       </c>
       <c r="O887" s="19"/>
       <c r="P887" s="19"/>
@@ -39254,7 +39260,7 @@
         <v>10706</v>
       </c>
       <c r="B894" s="15" t="s">
-        <v>3880</v>
+        <v>3875</v>
       </c>
       <c r="C894" s="15"/>
       <c r="D894" s="16"/>
@@ -41038,13 +41044,13 @@
         <v>1887</v>
       </c>
       <c r="O957" s="19" t="s">
-        <v>3395</v>
+        <v>3393</v>
       </c>
       <c r="P957" s="19" t="s">
-        <v>3738</v>
+        <v>3735</v>
       </c>
       <c r="Q957" s="20" t="s">
-        <v>3394</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="958" spans="1:17" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -41079,7 +41085,7 @@
         <v>20770</v>
       </c>
       <c r="B959" s="15" t="s">
-        <v>3891</v>
+        <v>3886</v>
       </c>
       <c r="C959" s="15">
         <v>2</v>
@@ -41094,10 +41100,10 @@
       <c r="K959" s="17"/>
       <c r="L959" s="17"/>
       <c r="M959" s="18" t="s">
-        <v>3538</v>
+        <v>3535</v>
       </c>
       <c r="N959" s="18" t="s">
-        <v>3539</v>
+        <v>3536</v>
       </c>
       <c r="O959" s="19"/>
       <c r="P959" s="19"/>
@@ -41108,7 +41114,7 @@
         <v>10770</v>
       </c>
       <c r="B960" s="15" t="s">
-        <v>3933</v>
+        <v>3922</v>
       </c>
       <c r="C960" s="15">
         <v>2</v>
@@ -41137,7 +41143,7 @@
         <v>10771</v>
       </c>
       <c r="B961" s="15" t="s">
-        <v>3833</v>
+        <v>3830</v>
       </c>
       <c r="C961" s="15">
         <v>2</v>
@@ -41166,7 +41172,7 @@
         <v>10772</v>
       </c>
       <c r="B962" s="15" t="s">
-        <v>3922</v>
+        <v>3913</v>
       </c>
       <c r="C962" s="15">
         <v>2</v>
@@ -41195,7 +41201,7 @@
         <v>10773</v>
       </c>
       <c r="B963" s="15" t="s">
-        <v>3953</v>
+        <v>3940</v>
       </c>
       <c r="C963" s="15">
         <v>2</v>
@@ -41253,7 +41259,7 @@
         <v>10775</v>
       </c>
       <c r="B965" s="15" t="s">
-        <v>3934</v>
+        <v>3923</v>
       </c>
       <c r="C965" s="15">
         <v>2</v>
@@ -41282,7 +41288,7 @@
         <v>10776</v>
       </c>
       <c r="B966" s="15" t="s">
-        <v>3809</v>
+        <v>3806</v>
       </c>
       <c r="C966" s="15">
         <v>2</v>
@@ -41311,7 +41317,7 @@
         <v>10777</v>
       </c>
       <c r="B967" s="15" t="s">
-        <v>3936</v>
+        <v>3942</v>
       </c>
       <c r="C967" s="15">
         <v>2</v>
@@ -41340,7 +41346,7 @@
         <v>10778</v>
       </c>
       <c r="B968" s="15" t="s">
-        <v>3890</v>
+        <v>3885</v>
       </c>
       <c r="C968" s="15">
         <v>2</v>
@@ -41369,7 +41375,7 @@
         <v>10779</v>
       </c>
       <c r="B969" s="15" t="s">
-        <v>3842</v>
+        <v>3941</v>
       </c>
       <c r="C969" s="15">
         <v>2</v>
@@ -41398,7 +41404,7 @@
         <v>10780</v>
       </c>
       <c r="B970" s="15" t="s">
-        <v>3935</v>
+        <v>3924</v>
       </c>
       <c r="C970" s="15">
         <v>2</v>
@@ -41427,7 +41433,7 @@
         <v>10781</v>
       </c>
       <c r="B971" s="15" t="s">
-        <v>3816</v>
+        <v>3813</v>
       </c>
       <c r="C971" s="15">
         <v>2</v>
@@ -41456,7 +41462,7 @@
         <v>10782</v>
       </c>
       <c r="B972" s="15" t="s">
-        <v>3808</v>
+        <v>3805</v>
       </c>
       <c r="C972" s="15">
         <v>2</v>
@@ -42346,7 +42352,7 @@
         <v>1294</v>
       </c>
       <c r="N1002" s="18" t="s">
-        <v>3529</v>
+        <v>3527</v>
       </c>
       <c r="O1002" s="19"/>
       <c r="P1002" s="19"/>
@@ -43528,7 +43534,7 @@
         <v>2041</v>
       </c>
       <c r="N1044" s="18" t="s">
-        <v>3530</v>
+        <v>3528</v>
       </c>
       <c r="O1044" s="19"/>
       <c r="P1044" s="19"/>
@@ -44128,7 +44134,7 @@
         <v>10876</v>
       </c>
       <c r="B1066" s="15" t="s">
-        <v>3560</v>
+        <v>3557</v>
       </c>
       <c r="C1066" s="15">
         <v>1</v>
@@ -45578,7 +45584,7 @@
       <c r="K1117" s="17"/>
       <c r="L1117" s="17"/>
       <c r="M1117" s="18" t="s">
-        <v>3821</v>
+        <v>3818</v>
       </c>
       <c r="N1117" s="18" t="s">
         <v>2214</v>
@@ -46073,7 +46079,7 @@
         <v>2254</v>
       </c>
       <c r="N1135" s="18" t="s">
-        <v>3824</v>
+        <v>3821</v>
       </c>
       <c r="O1135" s="19"/>
       <c r="P1135" s="19"/>
@@ -46100,7 +46106,7 @@
         <v>2256</v>
       </c>
       <c r="N1136" s="18" t="s">
-        <v>3825</v>
+        <v>3822</v>
       </c>
       <c r="O1136" s="19"/>
       <c r="P1136" s="19"/>
@@ -46129,7 +46135,7 @@
         <v>2258</v>
       </c>
       <c r="N1137" s="18" t="s">
-        <v>3826</v>
+        <v>3823</v>
       </c>
       <c r="O1137" s="19"/>
       <c r="P1137" s="19"/>
@@ -46915,7 +46921,7 @@
         <v>2319</v>
       </c>
       <c r="N1165" s="18" t="s">
-        <v>3444</v>
+        <v>3442</v>
       </c>
       <c r="O1165" s="19"/>
       <c r="P1165" s="19"/>
@@ -46944,7 +46950,7 @@
         <v>2320</v>
       </c>
       <c r="N1166" s="18" t="s">
-        <v>3443</v>
+        <v>3441</v>
       </c>
       <c r="O1166" s="19"/>
       <c r="P1166" s="19"/>
@@ -48106,7 +48112,7 @@
         <v>2244</v>
       </c>
       <c r="N1208" s="18" t="s">
-        <v>3554</v>
+        <v>3551</v>
       </c>
       <c r="O1208" s="19"/>
       <c r="P1208" s="19"/>
@@ -48117,7 +48123,7 @@
         <v>21015</v>
       </c>
       <c r="B1209" s="15" t="s">
-        <v>3553</v>
+        <v>3550</v>
       </c>
       <c r="C1209" s="15"/>
       <c r="D1209" s="16"/>
@@ -48133,7 +48139,7 @@
         <v>2244</v>
       </c>
       <c r="N1209" s="18" t="s">
-        <v>3555</v>
+        <v>3552</v>
       </c>
       <c r="O1209" s="19"/>
       <c r="P1209" s="19"/>
@@ -48160,7 +48166,7 @@
         <v>2244</v>
       </c>
       <c r="N1210" s="18" t="s">
-        <v>3555</v>
+        <v>3552</v>
       </c>
       <c r="O1210" s="19"/>
       <c r="P1210" s="19"/>
@@ -48187,7 +48193,7 @@
         <v>2244</v>
       </c>
       <c r="N1211" s="18" t="s">
-        <v>3555</v>
+        <v>3552</v>
       </c>
       <c r="O1211" s="19"/>
       <c r="P1211" s="19"/>
@@ -48214,7 +48220,7 @@
         <v>2244</v>
       </c>
       <c r="N1212" s="18" t="s">
-        <v>3555</v>
+        <v>3552</v>
       </c>
       <c r="O1212" s="19"/>
       <c r="P1212" s="19"/>
@@ -48241,7 +48247,7 @@
         <v>2244</v>
       </c>
       <c r="N1213" s="18" t="s">
-        <v>3555</v>
+        <v>3552</v>
       </c>
       <c r="O1213" s="19"/>
       <c r="P1213" s="19"/>
@@ -48268,7 +48274,7 @@
         <v>2244</v>
       </c>
       <c r="N1214" s="18" t="s">
-        <v>3555</v>
+        <v>3552</v>
       </c>
       <c r="O1214" s="19"/>
       <c r="P1214" s="19"/>
@@ -50395,7 +50401,7 @@
         <v>2571</v>
       </c>
       <c r="N1291" s="18" t="s">
-        <v>3508</v>
+        <v>3506</v>
       </c>
       <c r="O1291" s="19"/>
       <c r="P1291" s="19"/>
@@ -50884,7 +50890,7 @@
       <c r="K1309" s="17"/>
       <c r="L1309" s="17"/>
       <c r="M1309" s="18" t="s">
-        <v>3432</v>
+        <v>3430</v>
       </c>
       <c r="N1309" s="18" t="s">
         <v>2625</v>
@@ -51215,7 +51221,7 @@
         <v>2609</v>
       </c>
       <c r="N1321" s="18" t="s">
-        <v>3814</v>
+        <v>3811</v>
       </c>
       <c r="O1321" s="19"/>
       <c r="P1321" s="19"/>
@@ -51269,7 +51275,7 @@
         <v>2609</v>
       </c>
       <c r="N1323" s="18" t="s">
-        <v>3815</v>
+        <v>3812</v>
       </c>
       <c r="O1323" s="19"/>
       <c r="P1323" s="19"/>
@@ -51295,7 +51301,7 @@
       <c r="K1324" s="17"/>
       <c r="L1324" s="17"/>
       <c r="M1324" s="18" t="s">
-        <v>3820</v>
+        <v>3817</v>
       </c>
       <c r="N1324" s="18" t="s">
         <v>2657</v>
@@ -51324,10 +51330,10 @@
       <c r="K1325" s="17"/>
       <c r="L1325" s="17"/>
       <c r="M1325" s="18" t="s">
-        <v>3820</v>
+        <v>3817</v>
       </c>
       <c r="N1325" s="18" t="s">
-        <v>3813</v>
+        <v>3810</v>
       </c>
       <c r="O1325" s="19"/>
       <c r="P1325" s="19"/>
@@ -52515,7 +52521,7 @@
         <v>1995</v>
       </c>
       <c r="N1369" s="18" t="s">
-        <v>3509</v>
+        <v>3507</v>
       </c>
       <c r="O1369" s="19"/>
       <c r="P1369" s="19"/>
@@ -53211,7 +53217,7 @@
         <v>11197</v>
       </c>
       <c r="B1395" s="15" t="s">
-        <v>3952</v>
+        <v>3939</v>
       </c>
       <c r="C1395" s="15"/>
       <c r="D1395" s="16"/>
@@ -53238,7 +53244,7 @@
         <v>11198</v>
       </c>
       <c r="B1396" s="15" t="s">
-        <v>3951</v>
+        <v>3938</v>
       </c>
       <c r="C1396" s="15"/>
       <c r="D1396" s="16"/>
@@ -53294,7 +53300,7 @@
         <v>11200</v>
       </c>
       <c r="B1398" s="15" t="s">
-        <v>3950</v>
+        <v>3937</v>
       </c>
       <c r="C1398" s="15"/>
       <c r="D1398" s="16"/>
@@ -53424,10 +53430,10 @@
       </c>
       <c r="O1402" s="19"/>
       <c r="P1402" s="19" t="s">
-        <v>3738</v>
+        <v>3735</v>
       </c>
       <c r="Q1402" s="20" t="s">
-        <v>3744</v>
+        <v>3741</v>
       </c>
     </row>
     <row r="1403" spans="1:17" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -53839,10 +53845,10 @@
       </c>
       <c r="O1417" s="19"/>
       <c r="P1417" s="19" t="s">
-        <v>3738</v>
+        <v>3735</v>
       </c>
       <c r="Q1417" s="20" t="s">
-        <v>3745</v>
+        <v>3742</v>
       </c>
     </row>
     <row r="1418" spans="1:17" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -55222,10 +55228,10 @@
       </c>
       <c r="O1466" s="19"/>
       <c r="P1466" s="19" t="s">
-        <v>3738</v>
+        <v>3735</v>
       </c>
       <c r="Q1466" s="20" t="s">
-        <v>3745</v>
+        <v>3742</v>
       </c>
     </row>
     <row r="1467" spans="1:17" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -55509,17 +55515,17 @@
       <c r="K1476" s="17"/>
       <c r="L1476" s="17"/>
       <c r="M1476" s="18" t="s">
-        <v>3569</v>
+        <v>3566</v>
       </c>
       <c r="N1476" s="18" t="s">
         <v>2951</v>
       </c>
       <c r="O1476" s="19"/>
       <c r="P1476" s="19" t="s">
-        <v>3738</v>
+        <v>3735</v>
       </c>
       <c r="Q1476" s="20" t="s">
-        <v>3745</v>
+        <v>3742</v>
       </c>
     </row>
     <row r="1477" spans="1:17" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -56019,7 +56025,7 @@
         <v>2997</v>
       </c>
       <c r="N1493" s="18" t="s">
-        <v>3840</v>
+        <v>3837</v>
       </c>
       <c r="O1493" s="19"/>
       <c r="P1493" s="19"/>
@@ -56046,7 +56052,7 @@
         <v>2997</v>
       </c>
       <c r="N1494" s="18" t="s">
-        <v>3471</v>
+        <v>3469</v>
       </c>
       <c r="O1494" s="19"/>
       <c r="P1494" s="19"/>
@@ -56072,7 +56078,7 @@
       <c r="K1495" s="17"/>
       <c r="L1495" s="17"/>
       <c r="M1495" s="18" t="s">
-        <v>3841</v>
+        <v>3838</v>
       </c>
       <c r="N1495" s="18" t="s">
         <v>2999</v>
@@ -56483,7 +56489,7 @@
         <v>2915</v>
       </c>
       <c r="N1509" s="18" t="s">
-        <v>3521</v>
+        <v>3519</v>
       </c>
       <c r="O1509" s="19"/>
       <c r="P1509" s="19"/>
@@ -56540,7 +56546,7 @@
         <v>3033</v>
       </c>
       <c r="O1511" s="19" t="s">
-        <v>3745</v>
+        <v>3742</v>
       </c>
       <c r="P1511" s="19"/>
       <c r="Q1511" s="20"/>
@@ -56974,10 +56980,10 @@
       </c>
       <c r="O1526" s="19"/>
       <c r="P1526" s="19" t="s">
-        <v>3738</v>
+        <v>3735</v>
       </c>
       <c r="Q1526" s="20" t="s">
-        <v>3745</v>
+        <v>3742</v>
       </c>
     </row>
     <row r="1527" spans="1:17" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -57379,7 +57385,7 @@
         <v>21326</v>
       </c>
       <c r="B1541" s="15" t="s">
-        <v>3834</v>
+        <v>3831</v>
       </c>
       <c r="C1541" s="15"/>
       <c r="D1541" s="16"/>
@@ -57395,7 +57401,7 @@
         <v>1995</v>
       </c>
       <c r="N1541" s="18" t="s">
-        <v>3837</v>
+        <v>3834</v>
       </c>
       <c r="O1541" s="19"/>
       <c r="P1541" s="19"/>
@@ -57406,7 +57412,7 @@
         <v>21327</v>
       </c>
       <c r="B1542" s="15" t="s">
-        <v>3835</v>
+        <v>3832</v>
       </c>
       <c r="C1542" s="15"/>
       <c r="D1542" s="16"/>
@@ -57422,7 +57428,7 @@
         <v>3088</v>
       </c>
       <c r="N1542" s="18" t="s">
-        <v>3836</v>
+        <v>3833</v>
       </c>
       <c r="O1542" s="19"/>
       <c r="P1542" s="19"/>
@@ -57822,7 +57828,7 @@
         <v>11341</v>
       </c>
       <c r="B1556" s="28" t="s">
-        <v>3927</v>
+        <v>3918</v>
       </c>
       <c r="C1556" s="15">
         <v>2</v>
@@ -58088,7 +58094,7 @@
         <v>3118</v>
       </c>
       <c r="N1564" s="18" t="s">
-        <v>3580</v>
+        <v>3577</v>
       </c>
       <c r="O1564" s="19"/>
       <c r="P1564" s="19"/>
@@ -58112,10 +58118,10 @@
       <c r="K1565" s="17"/>
       <c r="L1565" s="17"/>
       <c r="M1565" s="18" t="s">
-        <v>3579</v>
+        <v>3576</v>
       </c>
       <c r="N1565" s="18" t="s">
-        <v>3445</v>
+        <v>3443</v>
       </c>
       <c r="O1565" s="19"/>
       <c r="P1565" s="19"/>
@@ -58142,7 +58148,7 @@
         <v>2997</v>
       </c>
       <c r="N1566" s="18" t="s">
-        <v>3451</v>
+        <v>3449</v>
       </c>
       <c r="O1566" s="19"/>
       <c r="P1566" s="19"/>
@@ -58169,7 +58175,7 @@
         <v>2997</v>
       </c>
       <c r="N1567" s="18" t="s">
-        <v>3446</v>
+        <v>3444</v>
       </c>
       <c r="O1567" s="19"/>
       <c r="P1567" s="19"/>
@@ -58196,7 +58202,7 @@
         <v>2997</v>
       </c>
       <c r="N1568" s="18" t="s">
-        <v>3447</v>
+        <v>3445</v>
       </c>
       <c r="O1568" s="19"/>
       <c r="P1568" s="19"/>
@@ -58225,7 +58231,7 @@
         <v>2997</v>
       </c>
       <c r="N1569" s="18" t="s">
-        <v>3448</v>
+        <v>3446</v>
       </c>
       <c r="O1569" s="19"/>
       <c r="P1569" s="19"/>
@@ -58254,7 +58260,7 @@
         <v>2997</v>
       </c>
       <c r="N1570" s="18" t="s">
-        <v>3449</v>
+        <v>3447</v>
       </c>
       <c r="O1570" s="19"/>
       <c r="P1570" s="19"/>
@@ -58281,7 +58287,7 @@
         <v>2997</v>
       </c>
       <c r="N1571" s="18" t="s">
-        <v>3450</v>
+        <v>3448</v>
       </c>
       <c r="O1571" s="19"/>
       <c r="P1571" s="19"/>
@@ -58308,7 +58314,7 @@
         <v>2997</v>
       </c>
       <c r="N1572" s="18" t="s">
-        <v>3452</v>
+        <v>3450</v>
       </c>
       <c r="O1572" s="19"/>
       <c r="P1572" s="19"/>
@@ -58362,7 +58368,7 @@
         <v>2997</v>
       </c>
       <c r="N1574" s="18" t="s">
-        <v>3453</v>
+        <v>3451</v>
       </c>
       <c r="O1574" s="19"/>
       <c r="P1574" s="19"/>
@@ -58418,7 +58424,7 @@
         <v>2997</v>
       </c>
       <c r="N1576" s="18" t="s">
-        <v>3454</v>
+        <v>3452</v>
       </c>
       <c r="O1576" s="19"/>
       <c r="P1576" s="19"/>
@@ -58445,7 +58451,7 @@
         <v>2997</v>
       </c>
       <c r="N1577" s="18" t="s">
-        <v>3455</v>
+        <v>3453</v>
       </c>
       <c r="O1577" s="19"/>
       <c r="P1577" s="19"/>
@@ -58474,7 +58480,7 @@
         <v>2997</v>
       </c>
       <c r="N1578" s="18" t="s">
-        <v>3456</v>
+        <v>3454</v>
       </c>
       <c r="O1578" s="19"/>
       <c r="P1578" s="19"/>
@@ -58528,7 +58534,7 @@
         <v>2997</v>
       </c>
       <c r="N1580" s="18" t="s">
-        <v>3457</v>
+        <v>3455</v>
       </c>
       <c r="O1580" s="19"/>
       <c r="P1580" s="19"/>
@@ -58555,7 +58561,7 @@
         <v>2997</v>
       </c>
       <c r="N1581" s="18" t="s">
-        <v>3458</v>
+        <v>3456</v>
       </c>
       <c r="O1581" s="19"/>
       <c r="P1581" s="19"/>
@@ -58609,7 +58615,7 @@
         <v>2997</v>
       </c>
       <c r="N1583" s="18" t="s">
-        <v>3459</v>
+        <v>3457</v>
       </c>
       <c r="O1583" s="19"/>
       <c r="P1583" s="19"/>
@@ -58636,7 +58642,7 @@
         <v>2997</v>
       </c>
       <c r="N1584" s="18" t="s">
-        <v>3460</v>
+        <v>3458</v>
       </c>
       <c r="O1584" s="19"/>
       <c r="P1584" s="19"/>
@@ -58663,7 +58669,7 @@
         <v>2997</v>
       </c>
       <c r="N1585" s="18" t="s">
-        <v>3461</v>
+        <v>3459</v>
       </c>
       <c r="O1585" s="19"/>
       <c r="P1585" s="19"/>
@@ -58690,7 +58696,7 @@
         <v>2997</v>
       </c>
       <c r="N1586" s="18" t="s">
-        <v>3462</v>
+        <v>3460</v>
       </c>
       <c r="O1586" s="19"/>
       <c r="P1586" s="19"/>
@@ -58719,7 +58725,7 @@
         <v>3146</v>
       </c>
       <c r="N1587" s="18" t="s">
-        <v>3463</v>
+        <v>3461</v>
       </c>
       <c r="O1587" s="19"/>
       <c r="P1587" s="19"/>
@@ -58746,7 +58752,7 @@
         <v>2997</v>
       </c>
       <c r="N1588" s="18" t="s">
-        <v>3464</v>
+        <v>3462</v>
       </c>
       <c r="O1588" s="19"/>
       <c r="P1588" s="19"/>
@@ -58773,7 +58779,7 @@
         <v>2997</v>
       </c>
       <c r="N1589" s="18" t="s">
-        <v>3465</v>
+        <v>3463</v>
       </c>
       <c r="O1589" s="19"/>
       <c r="P1589" s="19"/>
@@ -58800,7 +58806,7 @@
         <v>3150</v>
       </c>
       <c r="N1590" s="18" t="s">
-        <v>3466</v>
+        <v>3464</v>
       </c>
       <c r="O1590" s="19"/>
       <c r="P1590" s="19"/>
@@ -58827,7 +58833,7 @@
         <v>2997</v>
       </c>
       <c r="N1591" s="18" t="s">
-        <v>3467</v>
+        <v>3465</v>
       </c>
       <c r="O1591" s="19"/>
       <c r="P1591" s="19"/>
@@ -58854,7 +58860,7 @@
         <v>2869</v>
       </c>
       <c r="N1592" s="18" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
       <c r="O1592" s="19"/>
       <c r="P1592" s="19"/>
@@ -58881,7 +58887,7 @@
         <v>3154</v>
       </c>
       <c r="N1593" s="18" t="s">
-        <v>3469</v>
+        <v>3467</v>
       </c>
       <c r="O1593" s="19"/>
       <c r="P1593" s="19"/>
@@ -59847,7 +59853,7 @@
         <v>11414</v>
       </c>
       <c r="B1629" s="15" t="s">
-        <v>3949</v>
+        <v>3936</v>
       </c>
       <c r="C1629" s="15"/>
       <c r="D1629" s="16"/>
@@ -59901,7 +59907,7 @@
         <v>11416</v>
       </c>
       <c r="B1631" s="15" t="s">
-        <v>3929</v>
+        <v>3919</v>
       </c>
       <c r="C1631" s="15"/>
       <c r="D1631" s="16"/>
@@ -59955,10 +59961,12 @@
         <v>11418</v>
       </c>
       <c r="B1633" s="15" t="s">
-        <v>3931</v>
+        <v>3944</v>
       </c>
       <c r="C1633" s="15"/>
-      <c r="D1633" s="16"/>
+      <c r="D1633" s="16" t="s">
+        <v>3945</v>
+      </c>
       <c r="E1633" s="17"/>
       <c r="F1633" s="17"/>
       <c r="G1633" s="17"/>
@@ -59982,7 +59990,7 @@
         <v>11419</v>
       </c>
       <c r="B1634" s="15" t="s">
-        <v>3928</v>
+        <v>3943</v>
       </c>
       <c r="C1634" s="15"/>
       <c r="D1634" s="16"/>
@@ -60036,7 +60044,7 @@
         <v>11421</v>
       </c>
       <c r="B1636" s="15" t="s">
-        <v>3932</v>
+        <v>3921</v>
       </c>
       <c r="C1636" s="15"/>
       <c r="D1636" s="16"/>
@@ -60119,7 +60127,7 @@
         <v>11424</v>
       </c>
       <c r="B1639" s="15" t="s">
-        <v>3930</v>
+        <v>3920</v>
       </c>
       <c r="C1639" s="15"/>
       <c r="D1639" s="16"/>
@@ -60135,7 +60143,7 @@
         <v>1995</v>
       </c>
       <c r="N1639" s="18" t="s">
-        <v>3884</v>
+        <v>3879</v>
       </c>
       <c r="O1639" s="19"/>
       <c r="P1639" s="19"/>
@@ -60146,7 +60154,7 @@
         <v>11425</v>
       </c>
       <c r="B1640" s="15" t="s">
-        <v>3888</v>
+        <v>3883</v>
       </c>
       <c r="C1640" s="15"/>
       <c r="D1640" s="16"/>
@@ -60162,7 +60170,7 @@
         <v>1995</v>
       </c>
       <c r="N1640" s="18" t="s">
-        <v>3885</v>
+        <v>3880</v>
       </c>
       <c r="O1640" s="19"/>
       <c r="P1640" s="19"/>
@@ -60173,7 +60181,7 @@
         <v>11426</v>
       </c>
       <c r="B1641" s="15" t="s">
-        <v>3948</v>
+        <v>3935</v>
       </c>
       <c r="C1641" s="15"/>
       <c r="D1641" s="16"/>
@@ -60189,7 +60197,7 @@
         <v>1995</v>
       </c>
       <c r="N1641" s="18" t="s">
-        <v>3886</v>
+        <v>3881</v>
       </c>
       <c r="O1641" s="19"/>
       <c r="P1641" s="19"/>
@@ -60200,7 +60208,7 @@
         <v>11427</v>
       </c>
       <c r="B1642" s="15" t="s">
-        <v>3882</v>
+        <v>3877</v>
       </c>
       <c r="C1642" s="15"/>
       <c r="D1642" s="16" t="s">
@@ -60285,7 +60293,7 @@
         <v>11430</v>
       </c>
       <c r="B1645" s="15" t="s">
-        <v>3881</v>
+        <v>3876</v>
       </c>
       <c r="C1645" s="15"/>
       <c r="D1645" s="16"/>
@@ -60312,7 +60320,7 @@
         <v>11431</v>
       </c>
       <c r="B1646" s="15" t="s">
-        <v>3946</v>
+        <v>3933</v>
       </c>
       <c r="C1646" s="15"/>
       <c r="D1646" s="16"/>
@@ -60355,7 +60363,7 @@
         <v>1995</v>
       </c>
       <c r="N1647" s="18" t="s">
-        <v>3883</v>
+        <v>3878</v>
       </c>
       <c r="O1647" s="19"/>
       <c r="P1647" s="19"/>
@@ -60366,7 +60374,7 @@
         <v>11433</v>
       </c>
       <c r="B1648" s="15" t="s">
-        <v>3947</v>
+        <v>3934</v>
       </c>
       <c r="C1648" s="15"/>
       <c r="D1648" s="16"/>
@@ -60420,7 +60428,7 @@
         <v>11435</v>
       </c>
       <c r="B1650" s="15" t="s">
-        <v>3887</v>
+        <v>3882</v>
       </c>
       <c r="C1650" s="15"/>
       <c r="D1650" s="16"/>
@@ -60531,9 +60539,7 @@
         <v>3272</v>
       </c>
       <c r="C1654" s="15"/>
-      <c r="D1654" s="16" t="s">
-        <v>3273</v>
-      </c>
+      <c r="D1654" s="16"/>
       <c r="E1654" s="17"/>
       <c r="F1654" s="17"/>
       <c r="G1654" s="17"/>
@@ -60546,7 +60552,7 @@
         <v>1995</v>
       </c>
       <c r="N1654" s="18" t="s">
-        <v>3274</v>
+        <v>3273</v>
       </c>
       <c r="O1654" s="19"/>
       <c r="P1654" s="19"/>
@@ -60557,7 +60563,7 @@
         <v>11440</v>
       </c>
       <c r="B1655" s="15" t="s">
-        <v>3944</v>
+        <v>3931</v>
       </c>
       <c r="C1655" s="15"/>
       <c r="D1655" s="16"/>
@@ -60573,7 +60579,7 @@
         <v>1995</v>
       </c>
       <c r="N1655" s="18" t="s">
-        <v>3275</v>
+        <v>3274</v>
       </c>
       <c r="O1655" s="19"/>
       <c r="P1655" s="19"/>
@@ -60584,7 +60590,7 @@
         <v>11441</v>
       </c>
       <c r="B1656" s="15" t="s">
-        <v>3276</v>
+        <v>3275</v>
       </c>
       <c r="C1656" s="15"/>
       <c r="D1656" s="16"/>
@@ -60600,7 +60606,7 @@
         <v>1995</v>
       </c>
       <c r="N1656" s="18" t="s">
-        <v>3277</v>
+        <v>3276</v>
       </c>
       <c r="O1656" s="19"/>
       <c r="P1656" s="19"/>
@@ -60611,7 +60617,7 @@
         <v>11442</v>
       </c>
       <c r="B1657" s="15" t="s">
-        <v>3278</v>
+        <v>3277</v>
       </c>
       <c r="C1657" s="15"/>
       <c r="D1657" s="16"/>
@@ -60627,7 +60633,7 @@
         <v>1995</v>
       </c>
       <c r="N1657" s="18" t="s">
-        <v>3279</v>
+        <v>3278</v>
       </c>
       <c r="O1657" s="19"/>
       <c r="P1657" s="19"/>
@@ -60638,7 +60644,7 @@
         <v>11443</v>
       </c>
       <c r="B1658" s="15" t="s">
-        <v>3280</v>
+        <v>3279</v>
       </c>
       <c r="C1658" s="15"/>
       <c r="D1658" s="16"/>
@@ -60654,7 +60660,7 @@
         <v>1995</v>
       </c>
       <c r="N1658" s="18" t="s">
-        <v>3281</v>
+        <v>3280</v>
       </c>
       <c r="O1658" s="19"/>
       <c r="P1658" s="19"/>
@@ -60665,7 +60671,7 @@
         <v>11444</v>
       </c>
       <c r="B1659" s="15" t="s">
-        <v>3945</v>
+        <v>3932</v>
       </c>
       <c r="C1659" s="15"/>
       <c r="D1659" s="16"/>
@@ -60681,7 +60687,7 @@
         <v>1995</v>
       </c>
       <c r="N1659" s="18" t="s">
-        <v>3282</v>
+        <v>3281</v>
       </c>
       <c r="O1659" s="19"/>
       <c r="P1659" s="19"/>
@@ -60692,7 +60698,7 @@
         <v>11445</v>
       </c>
       <c r="B1660" s="15" t="s">
-        <v>3283</v>
+        <v>3282</v>
       </c>
       <c r="C1660" s="15"/>
       <c r="D1660" s="16"/>
@@ -60708,7 +60714,7 @@
         <v>1995</v>
       </c>
       <c r="N1660" s="18" t="s">
-        <v>3284</v>
+        <v>3283</v>
       </c>
       <c r="O1660" s="19"/>
       <c r="P1660" s="19"/>
@@ -60719,11 +60725,11 @@
         <v>11446</v>
       </c>
       <c r="B1661" s="15" t="s">
-        <v>3285</v>
+        <v>3284</v>
       </c>
       <c r="C1661" s="15"/>
       <c r="D1661" s="16" t="s">
-        <v>3286</v>
+        <v>3285</v>
       </c>
       <c r="E1661" s="17"/>
       <c r="F1661" s="17"/>
@@ -60737,7 +60743,7 @@
         <v>1995</v>
       </c>
       <c r="N1661" s="18" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
       <c r="O1661" s="19"/>
       <c r="P1661" s="19"/>
@@ -60748,7 +60754,7 @@
         <v>11447</v>
       </c>
       <c r="B1662" s="15" t="s">
-        <v>3288</v>
+        <v>3287</v>
       </c>
       <c r="C1662" s="15"/>
       <c r="D1662" s="16"/>
@@ -60764,7 +60770,7 @@
         <v>1995</v>
       </c>
       <c r="N1662" s="18" t="s">
-        <v>3289</v>
+        <v>3288</v>
       </c>
       <c r="O1662" s="19"/>
       <c r="P1662" s="19"/>
@@ -60775,7 +60781,7 @@
         <v>11448</v>
       </c>
       <c r="B1663" s="15" t="s">
-        <v>3290</v>
+        <v>3289</v>
       </c>
       <c r="C1663" s="15"/>
       <c r="D1663" s="16"/>
@@ -60791,7 +60797,7 @@
         <v>1995</v>
       </c>
       <c r="N1663" s="18" t="s">
-        <v>3291</v>
+        <v>3290</v>
       </c>
       <c r="O1663" s="19"/>
       <c r="P1663" s="19"/>
@@ -60802,10 +60808,12 @@
         <v>11449</v>
       </c>
       <c r="B1664" s="15" t="s">
-        <v>3292</v>
+        <v>3947</v>
       </c>
       <c r="C1664" s="15"/>
-      <c r="D1664" s="16"/>
+      <c r="D1664" s="16" t="s">
+        <v>3946</v>
+      </c>
       <c r="E1664" s="17"/>
       <c r="F1664" s="17"/>
       <c r="G1664" s="17"/>
@@ -60818,7 +60826,7 @@
         <v>1995</v>
       </c>
       <c r="N1664" s="18" t="s">
-        <v>3293</v>
+        <v>3291</v>
       </c>
       <c r="O1664" s="19"/>
       <c r="P1664" s="19"/>
@@ -60829,11 +60837,11 @@
         <v>11450</v>
       </c>
       <c r="B1665" s="15" t="s">
-        <v>3294</v>
+        <v>3292</v>
       </c>
       <c r="C1665" s="15"/>
       <c r="D1665" s="16" t="s">
-        <v>3295</v>
+        <v>3293</v>
       </c>
       <c r="E1665" s="17"/>
       <c r="F1665" s="17"/>
@@ -60847,7 +60855,7 @@
         <v>1995</v>
       </c>
       <c r="N1665" s="18" t="s">
-        <v>3296</v>
+        <v>3294</v>
       </c>
       <c r="O1665" s="19"/>
       <c r="P1665" s="19"/>
@@ -60858,13 +60866,13 @@
         <v>11451</v>
       </c>
       <c r="B1666" s="15" t="s">
-        <v>3297</v>
+        <v>3295</v>
       </c>
       <c r="C1666" s="15">
         <v>3</v>
       </c>
       <c r="D1666" s="16" t="s">
-        <v>3298</v>
+        <v>3296</v>
       </c>
       <c r="E1666" s="17"/>
       <c r="F1666" s="17"/>
@@ -60877,7 +60885,7 @@
       <c r="K1666" s="17"/>
       <c r="L1666" s="17"/>
       <c r="M1666" s="18" t="s">
-        <v>3827</v>
+        <v>3824</v>
       </c>
       <c r="N1666" s="18"/>
       <c r="O1666" s="19"/>
@@ -60889,7 +60897,7 @@
         <v>11452</v>
       </c>
       <c r="B1667" s="15" t="s">
-        <v>3299</v>
+        <v>3297</v>
       </c>
       <c r="C1667" s="15">
         <v>1</v>
@@ -60904,10 +60912,10 @@
       <c r="K1667" s="17"/>
       <c r="L1667" s="17"/>
       <c r="M1667" s="18" t="s">
-        <v>3300</v>
+        <v>3298</v>
       </c>
       <c r="N1667" s="18" t="s">
-        <v>3301</v>
+        <v>3299</v>
       </c>
       <c r="O1667" s="19"/>
       <c r="P1667" s="19"/>
@@ -60918,7 +60926,7 @@
         <v>11453</v>
       </c>
       <c r="B1668" s="15" t="s">
-        <v>3302</v>
+        <v>3300</v>
       </c>
       <c r="C1668" s="15">
         <v>1</v>
@@ -60933,10 +60941,10 @@
       <c r="K1668" s="17"/>
       <c r="L1668" s="17"/>
       <c r="M1668" s="18" t="s">
-        <v>3300</v>
+        <v>3298</v>
       </c>
       <c r="N1668" s="18" t="s">
-        <v>3301</v>
+        <v>3299</v>
       </c>
       <c r="O1668" s="19"/>
       <c r="P1668" s="19"/>
@@ -60947,13 +60955,13 @@
         <v>11454</v>
       </c>
       <c r="B1669" s="15" t="s">
-        <v>3303</v>
+        <v>3301</v>
       </c>
       <c r="C1669" s="15">
         <v>1</v>
       </c>
       <c r="D1669" s="16" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="E1669" s="17"/>
       <c r="F1669" s="17"/>
@@ -60964,10 +60972,10 @@
       <c r="K1669" s="17"/>
       <c r="L1669" s="17"/>
       <c r="M1669" s="18" t="s">
-        <v>3300</v>
+        <v>3298</v>
       </c>
       <c r="N1669" s="18" t="s">
-        <v>3305</v>
+        <v>3303</v>
       </c>
       <c r="O1669" s="19"/>
       <c r="P1669" s="19"/>
@@ -60978,13 +60986,13 @@
         <v>11455</v>
       </c>
       <c r="B1670" s="15" t="s">
-        <v>3306</v>
+        <v>3304</v>
       </c>
       <c r="C1670" s="15">
         <v>2</v>
       </c>
       <c r="D1670" s="16" t="s">
-        <v>3307</v>
+        <v>3305</v>
       </c>
       <c r="E1670" s="17"/>
       <c r="F1670" s="17"/>
@@ -60995,13 +61003,13 @@
       <c r="K1670" s="17"/>
       <c r="L1670" s="17"/>
       <c r="M1670" s="18" t="s">
+        <v>3306</v>
+      </c>
+      <c r="N1670" s="18" t="s">
+        <v>3307</v>
+      </c>
+      <c r="O1670" s="19" t="s">
         <v>3308</v>
-      </c>
-      <c r="N1670" s="18" t="s">
-        <v>3309</v>
-      </c>
-      <c r="O1670" s="19" t="s">
-        <v>3310</v>
       </c>
       <c r="P1670" s="19"/>
       <c r="Q1670" s="20"/>
@@ -61011,7 +61019,7 @@
         <v>11456</v>
       </c>
       <c r="B1671" s="15" t="s">
-        <v>3311</v>
+        <v>3309</v>
       </c>
       <c r="C1671" s="15">
         <v>1</v>
@@ -61026,10 +61034,10 @@
       <c r="K1671" s="17"/>
       <c r="L1671" s="17"/>
       <c r="M1671" s="18" t="s">
-        <v>3300</v>
+        <v>3298</v>
       </c>
       <c r="N1671" s="18" t="s">
-        <v>3312</v>
+        <v>3310</v>
       </c>
       <c r="O1671" s="19"/>
       <c r="P1671" s="19"/>
@@ -61040,13 +61048,13 @@
         <v>11457</v>
       </c>
       <c r="B1672" s="15" t="s">
-        <v>3313</v>
+        <v>3311</v>
       </c>
       <c r="C1672" s="15">
         <v>2</v>
       </c>
       <c r="D1672" s="16" t="s">
-        <v>3314</v>
+        <v>3312</v>
       </c>
       <c r="E1672" s="17"/>
       <c r="F1672" s="17"/>
@@ -61057,13 +61065,13 @@
       <c r="K1672" s="17"/>
       <c r="L1672" s="17"/>
       <c r="M1672" s="18" t="s">
-        <v>3300</v>
+        <v>3298</v>
       </c>
       <c r="N1672" s="18" t="s">
-        <v>3315</v>
+        <v>3313</v>
       </c>
       <c r="O1672" s="19" t="s">
-        <v>3316</v>
+        <v>3314</v>
       </c>
       <c r="P1672" s="19"/>
       <c r="Q1672" s="20"/>
@@ -61073,13 +61081,13 @@
         <v>21457</v>
       </c>
       <c r="B1673" s="15" t="s">
-        <v>3317</v>
+        <v>3315</v>
       </c>
       <c r="C1673" s="15">
         <v>2</v>
       </c>
       <c r="D1673" s="16" t="s">
-        <v>3318</v>
+        <v>3316</v>
       </c>
       <c r="E1673" s="17"/>
       <c r="F1673" s="17"/>
@@ -61102,7 +61110,7 @@
         <v>11458</v>
       </c>
       <c r="B1674" s="15" t="s">
-        <v>3319</v>
+        <v>3317</v>
       </c>
       <c r="C1674" s="15">
         <v>1</v>
@@ -61117,7 +61125,7 @@
       <c r="K1674" s="17"/>
       <c r="L1674" s="17"/>
       <c r="M1674" s="18" t="s">
-        <v>3301</v>
+        <v>3299</v>
       </c>
       <c r="N1674" s="18"/>
       <c r="O1674" s="19"/>
@@ -61129,7 +61137,7 @@
         <v>11459</v>
       </c>
       <c r="B1675" s="15" t="s">
-        <v>3320</v>
+        <v>3318</v>
       </c>
       <c r="C1675" s="15">
         <v>1</v>
@@ -61144,7 +61152,7 @@
       <c r="K1675" s="17"/>
       <c r="L1675" s="17"/>
       <c r="M1675" s="18" t="s">
-        <v>3301</v>
+        <v>3299</v>
       </c>
       <c r="N1675" s="18"/>
       <c r="O1675" s="19"/>
@@ -61156,7 +61164,7 @@
         <v>11460</v>
       </c>
       <c r="B1676" s="15" t="s">
-        <v>3321</v>
+        <v>3319</v>
       </c>
       <c r="C1676" s="15">
         <v>2</v>
@@ -61171,10 +61179,10 @@
       <c r="K1676" s="17"/>
       <c r="L1676" s="17"/>
       <c r="M1676" s="18" t="s">
-        <v>3301</v>
+        <v>3299</v>
       </c>
       <c r="N1676" s="18" t="s">
-        <v>3322</v>
+        <v>3320</v>
       </c>
       <c r="O1676" s="19"/>
       <c r="P1676" s="19"/>
@@ -61185,7 +61193,7 @@
         <v>11461</v>
       </c>
       <c r="B1677" s="15" t="s">
-        <v>3323</v>
+        <v>3321</v>
       </c>
       <c r="C1677" s="15">
         <v>2</v>
@@ -61200,10 +61208,10 @@
       <c r="K1677" s="17"/>
       <c r="L1677" s="17"/>
       <c r="M1677" s="18" t="s">
-        <v>3301</v>
+        <v>3299</v>
       </c>
       <c r="N1677" s="18" t="s">
-        <v>3324</v>
+        <v>3322</v>
       </c>
       <c r="O1677" s="19"/>
       <c r="P1677" s="19"/>
@@ -61214,7 +61222,7 @@
         <v>11462</v>
       </c>
       <c r="B1678" s="15" t="s">
-        <v>3325</v>
+        <v>3323</v>
       </c>
       <c r="C1678" s="15">
         <v>2</v>
@@ -61229,10 +61237,10 @@
       <c r="K1678" s="17"/>
       <c r="L1678" s="17"/>
       <c r="M1678" s="18" t="s">
-        <v>3301</v>
+        <v>3299</v>
       </c>
       <c r="N1678" s="18" t="s">
-        <v>3326</v>
+        <v>3324</v>
       </c>
       <c r="O1678" s="19"/>
       <c r="P1678" s="19"/>
@@ -61243,7 +61251,7 @@
         <v>11463</v>
       </c>
       <c r="B1679" s="15" t="s">
-        <v>3327</v>
+        <v>3325</v>
       </c>
       <c r="C1679" s="15">
         <v>2</v>
@@ -61258,10 +61266,10 @@
       <c r="K1679" s="17"/>
       <c r="L1679" s="17"/>
       <c r="M1679" s="18" t="s">
-        <v>3301</v>
+        <v>3299</v>
       </c>
       <c r="N1679" s="18" t="s">
-        <v>3531</v>
+        <v>3529</v>
       </c>
       <c r="O1679" s="19"/>
       <c r="P1679" s="19"/>
@@ -61272,7 +61280,7 @@
         <v>11464</v>
       </c>
       <c r="B1680" s="15" t="s">
-        <v>3328</v>
+        <v>3326</v>
       </c>
       <c r="C1680" s="15">
         <v>2</v>
@@ -61287,10 +61295,10 @@
       <c r="K1680" s="17"/>
       <c r="L1680" s="17"/>
       <c r="M1680" s="18" t="s">
-        <v>3301</v>
+        <v>3299</v>
       </c>
       <c r="N1680" s="18" t="s">
-        <v>3329</v>
+        <v>3327</v>
       </c>
       <c r="O1680" s="19"/>
       <c r="P1680" s="19"/>
@@ -61301,13 +61309,13 @@
         <v>11465</v>
       </c>
       <c r="B1681" s="15" t="s">
-        <v>3330</v>
+        <v>3328</v>
       </c>
       <c r="C1681" s="15">
         <v>2</v>
       </c>
       <c r="D1681" s="16" t="s">
-        <v>3331</v>
+        <v>3329</v>
       </c>
       <c r="E1681" s="17"/>
       <c r="F1681" s="17"/>
@@ -61320,13 +61328,13 @@
       <c r="K1681" s="17"/>
       <c r="L1681" s="17"/>
       <c r="M1681" s="18" t="s">
-        <v>3301</v>
+        <v>3299</v>
       </c>
       <c r="N1681" s="18" t="s">
-        <v>3332</v>
+        <v>3330</v>
       </c>
       <c r="O1681" s="19" t="s">
-        <v>3310</v>
+        <v>3308</v>
       </c>
       <c r="P1681" s="19"/>
       <c r="Q1681" s="20"/>
@@ -61336,13 +61344,13 @@
         <v>11466</v>
       </c>
       <c r="B1682" s="15" t="s">
-        <v>3333</v>
+        <v>3331</v>
       </c>
       <c r="C1682" s="15">
         <v>2</v>
       </c>
       <c r="D1682" s="16" t="s">
-        <v>3334</v>
+        <v>3332</v>
       </c>
       <c r="E1682" s="17"/>
       <c r="F1682" s="17"/>
@@ -61353,10 +61361,10 @@
       <c r="K1682" s="17"/>
       <c r="L1682" s="17"/>
       <c r="M1682" s="18" t="s">
-        <v>3301</v>
+        <v>3299</v>
       </c>
       <c r="N1682" s="18" t="s">
-        <v>3335</v>
+        <v>3333</v>
       </c>
       <c r="O1682" s="19" t="s">
         <v>2952</v>
@@ -61369,13 +61377,13 @@
         <v>11467</v>
       </c>
       <c r="B1683" s="15" t="s">
-        <v>3336</v>
+        <v>3334</v>
       </c>
       <c r="C1683" s="15">
         <v>2</v>
       </c>
       <c r="D1683" s="16" t="s">
-        <v>3337</v>
+        <v>3335</v>
       </c>
       <c r="E1683" s="17"/>
       <c r="F1683" s="17"/>
@@ -61386,13 +61394,13 @@
       <c r="K1683" s="17"/>
       <c r="L1683" s="17"/>
       <c r="M1683" s="18" t="s">
-        <v>3301</v>
+        <v>3299</v>
       </c>
       <c r="N1683" s="18" t="s">
-        <v>3338</v>
+        <v>3336</v>
       </c>
       <c r="O1683" s="19" t="s">
-        <v>3339</v>
+        <v>3337</v>
       </c>
       <c r="P1683" s="19"/>
       <c r="Q1683" s="20"/>
@@ -61402,7 +61410,7 @@
         <v>11468</v>
       </c>
       <c r="B1684" s="15" t="s">
-        <v>3406</v>
+        <v>3404</v>
       </c>
       <c r="C1684" s="15">
         <v>2</v>
@@ -61419,7 +61427,7 @@
       </c>
       <c r="L1684" s="17"/>
       <c r="M1684" s="18" t="s">
-        <v>3405</v>
+        <v>3403</v>
       </c>
       <c r="N1684" s="18"/>
       <c r="O1684" s="19"/>
@@ -61431,7 +61439,7 @@
         <v>11469</v>
       </c>
       <c r="B1685" s="15" t="s">
-        <v>3407</v>
+        <v>3405</v>
       </c>
       <c r="C1685" s="15">
         <v>2</v>
@@ -61448,10 +61456,10 @@
       </c>
       <c r="L1685" s="17"/>
       <c r="M1685" s="18" t="s">
-        <v>3408</v>
+        <v>3406</v>
       </c>
       <c r="N1685" s="18" t="s">
-        <v>3409</v>
+        <v>3407</v>
       </c>
       <c r="O1685" s="19"/>
       <c r="P1685" s="19"/>
@@ -61462,7 +61470,7 @@
         <v>30001</v>
       </c>
       <c r="B1686" s="15" t="s">
-        <v>3396</v>
+        <v>3394</v>
       </c>
       <c r="C1686" s="15"/>
       <c r="D1686" s="16"/>
@@ -61475,15 +61483,15 @@
       <c r="K1686" s="17"/>
       <c r="L1686" s="17"/>
       <c r="M1686" s="18" t="s">
-        <v>3401</v>
+        <v>3399</v>
       </c>
       <c r="N1686" s="18"/>
       <c r="O1686" s="19" t="s">
-        <v>3397</v>
+        <v>3395</v>
       </c>
       <c r="P1686" s="19"/>
       <c r="Q1686" s="20" t="s">
-        <v>3398</v>
+        <v>3396</v>
       </c>
     </row>
     <row r="1687" spans="1:17" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -61491,13 +61499,13 @@
         <v>30002</v>
       </c>
       <c r="B1687" s="15" t="s">
-        <v>3399</v>
+        <v>3397</v>
       </c>
       <c r="C1687" s="15">
         <v>2</v>
       </c>
       <c r="D1687" s="16" t="s">
-        <v>3400</v>
+        <v>3398</v>
       </c>
       <c r="E1687" s="17"/>
       <c r="F1687" s="17"/>
@@ -61522,7 +61530,7 @@
         <v>11470</v>
       </c>
       <c r="B1688" s="15" t="s">
-        <v>3510</v>
+        <v>3508</v>
       </c>
       <c r="C1688" s="15"/>
       <c r="D1688" s="16"/>
@@ -61536,7 +61544,7 @@
       <c r="L1688" s="17"/>
       <c r="M1688" s="18"/>
       <c r="N1688" s="18" t="s">
-        <v>3532</v>
+        <v>3530</v>
       </c>
       <c r="O1688" s="19"/>
       <c r="P1688" s="19"/>
@@ -61547,7 +61555,7 @@
         <v>11471</v>
       </c>
       <c r="B1689" s="15" t="s">
-        <v>3943</v>
+        <v>3930</v>
       </c>
       <c r="C1689" s="15"/>
       <c r="D1689" s="16"/>
@@ -61563,7 +61571,7 @@
         <v>1995</v>
       </c>
       <c r="N1689" s="18" t="s">
-        <v>3511</v>
+        <v>3509</v>
       </c>
       <c r="O1689" s="19"/>
       <c r="P1689" s="19"/>
@@ -61574,7 +61582,7 @@
         <v>11472</v>
       </c>
       <c r="B1690" s="15" t="s">
-        <v>3889</v>
+        <v>3884</v>
       </c>
       <c r="C1690" s="15"/>
       <c r="D1690" s="16"/>
@@ -61590,7 +61598,7 @@
         <v>1995</v>
       </c>
       <c r="N1690" s="18" t="s">
-        <v>3512</v>
+        <v>3510</v>
       </c>
       <c r="O1690" s="19"/>
       <c r="P1690" s="19"/>
@@ -61601,7 +61609,7 @@
         <v>11473</v>
       </c>
       <c r="B1691" s="15" t="s">
-        <v>3892</v>
+        <v>3887</v>
       </c>
       <c r="C1691" s="15"/>
       <c r="D1691" s="16"/>
@@ -61617,7 +61625,7 @@
         <v>1995</v>
       </c>
       <c r="N1691" s="18" t="s">
-        <v>3513</v>
+        <v>3511</v>
       </c>
       <c r="O1691" s="19"/>
       <c r="P1691" s="19"/>
@@ -61628,7 +61636,7 @@
         <v>11474</v>
       </c>
       <c r="B1692" s="15" t="s">
-        <v>3893</v>
+        <v>3888</v>
       </c>
       <c r="C1692" s="15"/>
       <c r="D1692" s="16"/>
@@ -61642,7 +61650,7 @@
       <c r="L1692" s="17"/>
       <c r="M1692" s="18"/>
       <c r="N1692" s="18" t="s">
-        <v>3514</v>
+        <v>3512</v>
       </c>
       <c r="O1692" s="19"/>
       <c r="P1692" s="19"/>
@@ -61653,7 +61661,7 @@
         <v>11475</v>
       </c>
       <c r="B1693" s="15" t="s">
-        <v>3894</v>
+        <v>3889</v>
       </c>
       <c r="C1693" s="15"/>
       <c r="D1693" s="16"/>
@@ -61666,10 +61674,10 @@
       <c r="K1693" s="17"/>
       <c r="L1693" s="17"/>
       <c r="M1693" s="18" t="s">
-        <v>3524</v>
+        <v>3522</v>
       </c>
       <c r="N1693" s="18" t="s">
-        <v>3515</v>
+        <v>3513</v>
       </c>
       <c r="O1693" s="19"/>
       <c r="P1693" s="19"/>
@@ -61680,7 +61688,7 @@
         <v>11476</v>
       </c>
       <c r="B1694" s="15" t="s">
-        <v>3942</v>
+        <v>3929</v>
       </c>
       <c r="C1694" s="15"/>
       <c r="D1694" s="16"/>
@@ -61694,7 +61702,7 @@
       <c r="L1694" s="17"/>
       <c r="M1694" s="18"/>
       <c r="N1694" s="18" t="s">
-        <v>3557</v>
+        <v>3554</v>
       </c>
       <c r="O1694" s="19"/>
       <c r="P1694" s="19"/>
@@ -61705,7 +61713,7 @@
         <v>11477</v>
       </c>
       <c r="B1695" s="15" t="s">
-        <v>3896</v>
+        <v>3891</v>
       </c>
       <c r="C1695" s="15"/>
       <c r="D1695" s="16"/>
@@ -61718,10 +61726,10 @@
       <c r="K1695" s="17"/>
       <c r="L1695" s="17"/>
       <c r="M1695" s="18" t="s">
-        <v>3895</v>
+        <v>3890</v>
       </c>
       <c r="N1695" s="18" t="s">
-        <v>3516</v>
+        <v>3514</v>
       </c>
       <c r="O1695" s="19"/>
       <c r="P1695" s="19"/>
@@ -61732,7 +61740,7 @@
         <v>11478</v>
       </c>
       <c r="B1696" s="15" t="s">
-        <v>3941</v>
+        <v>3928</v>
       </c>
       <c r="C1696" s="15"/>
       <c r="D1696" s="16"/>
@@ -61745,10 +61753,10 @@
       <c r="K1696" s="17"/>
       <c r="L1696" s="17"/>
       <c r="M1696" s="18" t="s">
-        <v>3533</v>
+        <v>3531</v>
       </c>
       <c r="N1696" s="18" t="s">
-        <v>3517</v>
+        <v>3515</v>
       </c>
       <c r="O1696" s="19"/>
       <c r="P1696" s="19"/>
@@ -61759,7 +61767,7 @@
         <v>11479</v>
       </c>
       <c r="B1697" s="15" t="s">
-        <v>3897</v>
+        <v>3892</v>
       </c>
       <c r="C1697" s="15"/>
       <c r="D1697" s="16"/>
@@ -61775,7 +61783,7 @@
         <v>1995</v>
       </c>
       <c r="N1697" s="18" t="s">
-        <v>3518</v>
+        <v>3516</v>
       </c>
       <c r="O1697" s="19"/>
       <c r="P1697" s="19"/>
@@ -61786,7 +61794,7 @@
         <v>11480</v>
       </c>
       <c r="B1698" s="15" t="s">
-        <v>3534</v>
+        <v>3950</v>
       </c>
       <c r="C1698" s="15"/>
       <c r="D1698" s="16"/>
@@ -61800,7 +61808,7 @@
       <c r="L1698" s="17"/>
       <c r="M1698" s="18"/>
       <c r="N1698" s="18" t="s">
-        <v>3519</v>
+        <v>3517</v>
       </c>
       <c r="O1698" s="19"/>
       <c r="P1698" s="19"/>
@@ -61811,7 +61819,7 @@
         <v>11481</v>
       </c>
       <c r="B1699" s="15" t="s">
-        <v>3940</v>
+        <v>3927</v>
       </c>
       <c r="C1699" s="15"/>
       <c r="D1699" s="16"/>
@@ -61827,7 +61835,7 @@
         <v>1995</v>
       </c>
       <c r="N1699" s="18" t="s">
-        <v>3520</v>
+        <v>3518</v>
       </c>
       <c r="O1699" s="19"/>
       <c r="P1699" s="19"/>
@@ -61838,7 +61846,7 @@
         <v>11482</v>
       </c>
       <c r="B1700" s="15" t="s">
-        <v>3899</v>
+        <v>3894</v>
       </c>
       <c r="C1700" s="15"/>
       <c r="D1700" s="16"/>
@@ -61851,10 +61859,10 @@
       <c r="K1700" s="17"/>
       <c r="L1700" s="17"/>
       <c r="M1700" s="18" t="s">
-        <v>3898</v>
+        <v>3893</v>
       </c>
       <c r="N1700" s="18" t="s">
-        <v>3558</v>
+        <v>3555</v>
       </c>
       <c r="O1700" s="19"/>
       <c r="P1700" s="19"/>
@@ -61865,7 +61873,7 @@
         <v>11483</v>
       </c>
       <c r="B1701" s="15" t="s">
-        <v>3901</v>
+        <v>3949</v>
       </c>
       <c r="C1701" s="15"/>
       <c r="D1701" s="16"/>
@@ -61878,10 +61886,10 @@
       <c r="K1701" s="17"/>
       <c r="L1701" s="17"/>
       <c r="M1701" s="18" t="s">
-        <v>3535</v>
+        <v>3532</v>
       </c>
       <c r="N1701" s="18" t="s">
-        <v>3537</v>
+        <v>3534</v>
       </c>
       <c r="O1701" s="19"/>
       <c r="P1701" s="19"/>
@@ -61892,7 +61900,7 @@
         <v>11484</v>
       </c>
       <c r="B1702" s="15" t="s">
-        <v>3939</v>
+        <v>3926</v>
       </c>
       <c r="C1702" s="15"/>
       <c r="D1702" s="16"/>
@@ -61906,7 +61914,7 @@
       <c r="L1702" s="17"/>
       <c r="M1702" s="18"/>
       <c r="N1702" s="18" t="s">
-        <v>3541</v>
+        <v>3538</v>
       </c>
       <c r="O1702" s="19"/>
       <c r="P1702" s="19"/>
@@ -61917,7 +61925,7 @@
         <v>11485</v>
       </c>
       <c r="B1703" s="15" t="s">
-        <v>3938</v>
+        <v>3948</v>
       </c>
       <c r="C1703" s="15"/>
       <c r="D1703" s="16"/>
@@ -61931,7 +61939,7 @@
       <c r="L1703" s="17"/>
       <c r="M1703" s="18"/>
       <c r="N1703" s="18" t="s">
-        <v>3542</v>
+        <v>3539</v>
       </c>
       <c r="O1703" s="19"/>
       <c r="P1703" s="19"/>
@@ -61942,7 +61950,7 @@
         <v>11486</v>
       </c>
       <c r="B1704" s="15" t="s">
-        <v>3900</v>
+        <v>3895</v>
       </c>
       <c r="C1704" s="15"/>
       <c r="D1704" s="16"/>
@@ -61958,7 +61966,7 @@
         <v>1995</v>
       </c>
       <c r="N1704" s="18" t="s">
-        <v>3543</v>
+        <v>3540</v>
       </c>
       <c r="O1704" s="19"/>
       <c r="P1704" s="19"/>
@@ -61969,7 +61977,7 @@
         <v>11487</v>
       </c>
       <c r="B1705" s="15" t="s">
-        <v>3937</v>
+        <v>3925</v>
       </c>
       <c r="C1705" s="15"/>
       <c r="D1705" s="16"/>
@@ -61983,7 +61991,7 @@
       <c r="L1705" s="17"/>
       <c r="M1705" s="18"/>
       <c r="N1705" s="18" t="s">
-        <v>3544</v>
+        <v>3541</v>
       </c>
       <c r="O1705" s="19"/>
       <c r="P1705" s="19"/>
@@ -61994,7 +62002,7 @@
         <v>11488</v>
       </c>
       <c r="B1706" s="15" t="s">
-        <v>3902</v>
+        <v>3896</v>
       </c>
       <c r="C1706" s="15"/>
       <c r="D1706" s="16"/>
@@ -62007,10 +62015,10 @@
       <c r="K1706" s="17"/>
       <c r="L1706" s="17"/>
       <c r="M1706" s="18" t="s">
-        <v>3533</v>
+        <v>3531</v>
       </c>
       <c r="N1706" s="18" t="s">
-        <v>3545</v>
+        <v>3542</v>
       </c>
       <c r="O1706" s="19"/>
       <c r="P1706" s="19"/>
@@ -62021,7 +62029,7 @@
         <v>11489</v>
       </c>
       <c r="B1707" s="15" t="s">
-        <v>3921</v>
+        <v>3951</v>
       </c>
       <c r="C1707" s="15"/>
       <c r="D1707" s="16"/>
@@ -62029,15 +62037,15 @@
       <c r="F1707" s="17"/>
       <c r="G1707" s="17"/>
       <c r="H1707" s="17"/>
-      <c r="I1707" s="17"/>
+      <c r="I1707" s="17">
+        <v>-1</v>
+      </c>
       <c r="J1707" s="17"/>
       <c r="K1707" s="17"/>
       <c r="L1707" s="17"/>
-      <c r="M1707" s="18" t="s">
-        <v>3920</v>
-      </c>
+      <c r="M1707" s="18"/>
       <c r="N1707" s="18" t="s">
-        <v>3546</v>
+        <v>3543</v>
       </c>
       <c r="O1707" s="19"/>
       <c r="P1707" s="19"/>
@@ -62048,7 +62056,7 @@
         <v>11490</v>
       </c>
       <c r="B1708" s="15" t="s">
-        <v>3903</v>
+        <v>3897</v>
       </c>
       <c r="C1708" s="15"/>
       <c r="D1708" s="16"/>
@@ -62063,10 +62071,10 @@
       <c r="K1708" s="17"/>
       <c r="L1708" s="17"/>
       <c r="M1708" s="18" t="s">
-        <v>3349</v>
+        <v>3347</v>
       </c>
       <c r="N1708" s="18" t="s">
-        <v>3547</v>
+        <v>3544</v>
       </c>
       <c r="O1708" s="19"/>
       <c r="P1708" s="19"/>
@@ -62077,7 +62085,7 @@
         <v>11491</v>
       </c>
       <c r="B1709" s="15" t="s">
-        <v>3904</v>
+        <v>3898</v>
       </c>
       <c r="C1709" s="15"/>
       <c r="D1709" s="16"/>
@@ -62090,10 +62098,10 @@
       <c r="K1709" s="17"/>
       <c r="L1709" s="17"/>
       <c r="M1709" s="18" t="s">
-        <v>3572</v>
+        <v>3569</v>
       </c>
       <c r="N1709" s="18" t="s">
-        <v>3548</v>
+        <v>3545</v>
       </c>
       <c r="O1709" s="19"/>
       <c r="P1709" s="19"/>
@@ -62104,10 +62112,12 @@
         <v>11492</v>
       </c>
       <c r="B1710" s="15" t="s">
-        <v>3905</v>
+        <v>3952</v>
       </c>
       <c r="C1710" s="15"/>
-      <c r="D1710" s="16"/>
+      <c r="D1710" s="16" t="s">
+        <v>3953</v>
+      </c>
       <c r="E1710" s="17"/>
       <c r="F1710" s="17"/>
       <c r="G1710" s="17"/>
@@ -62120,7 +62130,7 @@
         <v>1995</v>
       </c>
       <c r="N1710" s="18" t="s">
-        <v>3549</v>
+        <v>3546</v>
       </c>
       <c r="O1710" s="19"/>
       <c r="P1710" s="19"/>
@@ -62131,7 +62141,7 @@
         <v>11493</v>
       </c>
       <c r="B1711" s="15" t="s">
-        <v>3907</v>
+        <v>3900</v>
       </c>
       <c r="C1711" s="15"/>
       <c r="D1711" s="16"/>
@@ -62144,10 +62154,10 @@
       <c r="K1711" s="17"/>
       <c r="L1711" s="17"/>
       <c r="M1711" s="18" t="s">
-        <v>3495</v>
+        <v>3493</v>
       </c>
       <c r="N1711" s="18" t="s">
-        <v>3550</v>
+        <v>3547</v>
       </c>
       <c r="O1711" s="19"/>
       <c r="P1711" s="19"/>
@@ -62158,7 +62168,7 @@
         <v>11494</v>
       </c>
       <c r="B1712" s="15" t="s">
-        <v>3906</v>
+        <v>3899</v>
       </c>
       <c r="C1712" s="15"/>
       <c r="D1712" s="16"/>
@@ -62171,10 +62181,10 @@
       <c r="K1712" s="17"/>
       <c r="L1712" s="17"/>
       <c r="M1712" s="18" t="s">
-        <v>3533</v>
+        <v>3531</v>
       </c>
       <c r="N1712" s="18" t="s">
-        <v>3551</v>
+        <v>3548</v>
       </c>
       <c r="O1712" s="19"/>
       <c r="P1712" s="19"/>
@@ -62185,7 +62195,7 @@
         <v>11495</v>
       </c>
       <c r="B1713" s="15" t="s">
-        <v>3908</v>
+        <v>3901</v>
       </c>
       <c r="C1713" s="15"/>
       <c r="D1713" s="16"/>
@@ -62198,10 +62208,10 @@
       <c r="K1713" s="17"/>
       <c r="L1713" s="17"/>
       <c r="M1713" s="18" t="s">
-        <v>3533</v>
+        <v>3531</v>
       </c>
       <c r="N1713" s="18" t="s">
-        <v>3552</v>
+        <v>3549</v>
       </c>
       <c r="O1713" s="19"/>
       <c r="P1713" s="19"/>
@@ -62212,7 +62222,7 @@
         <v>11496</v>
       </c>
       <c r="B1714" s="15" t="s">
-        <v>3911</v>
+        <v>3904</v>
       </c>
       <c r="C1714" s="15"/>
       <c r="D1714" s="16"/>
@@ -62225,10 +62235,10 @@
       <c r="K1714" s="17"/>
       <c r="L1714" s="17"/>
       <c r="M1714" s="18" t="s">
-        <v>3495</v>
+        <v>3493</v>
       </c>
       <c r="N1714" s="18" t="s">
-        <v>3556</v>
+        <v>3553</v>
       </c>
       <c r="O1714" s="19"/>
       <c r="P1714" s="19"/>
@@ -62239,7 +62249,7 @@
         <v>11497</v>
       </c>
       <c r="B1715" s="15" t="s">
-        <v>3912</v>
+        <v>3905</v>
       </c>
       <c r="C1715" s="15"/>
       <c r="D1715" s="16"/>
@@ -62253,7 +62263,7 @@
       <c r="L1715" s="17"/>
       <c r="M1715" s="18"/>
       <c r="N1715" s="18" t="s">
-        <v>3909</v>
+        <v>3902</v>
       </c>
       <c r="O1715" s="19"/>
       <c r="P1715" s="19"/>
@@ -62264,7 +62274,7 @@
         <v>11498</v>
       </c>
       <c r="B1716" s="15" t="s">
-        <v>3913</v>
+        <v>3906</v>
       </c>
       <c r="C1716" s="15"/>
       <c r="D1716" s="16"/>
@@ -62277,10 +62287,10 @@
       <c r="K1716" s="17"/>
       <c r="L1716" s="17"/>
       <c r="M1716" s="18" t="s">
-        <v>3533</v>
+        <v>3531</v>
       </c>
       <c r="N1716" s="18" t="s">
-        <v>3910</v>
+        <v>3903</v>
       </c>
       <c r="O1716" s="19"/>
       <c r="P1716" s="19"/>
@@ -62291,7 +62301,7 @@
         <v>11499</v>
       </c>
       <c r="B1717" s="15" t="s">
-        <v>3571</v>
+        <v>3568</v>
       </c>
       <c r="C1717" s="15"/>
       <c r="D1717" s="16"/>
@@ -62304,10 +62314,10 @@
       <c r="K1717" s="17"/>
       <c r="L1717" s="17"/>
       <c r="M1717" s="18" t="s">
-        <v>3572</v>
+        <v>3569</v>
       </c>
       <c r="N1717" s="18" t="s">
-        <v>3570</v>
+        <v>3567</v>
       </c>
       <c r="O1717" s="19"/>
       <c r="P1717" s="19"/>
@@ -62318,7 +62328,7 @@
         <v>11500</v>
       </c>
       <c r="B1718" s="15" t="s">
-        <v>3914</v>
+        <v>3907</v>
       </c>
       <c r="C1718" s="15"/>
       <c r="D1718" s="16"/>
@@ -62333,10 +62343,10 @@
       <c r="K1718" s="17"/>
       <c r="L1718" s="17"/>
       <c r="M1718" s="18" t="s">
-        <v>3916</v>
+        <v>3909</v>
       </c>
       <c r="N1718" s="18" t="s">
-        <v>3915</v>
+        <v>3908</v>
       </c>
       <c r="O1718" s="19"/>
       <c r="P1718" s="19"/>
@@ -62347,7 +62357,7 @@
         <v>11501</v>
       </c>
       <c r="B1719" s="15" t="s">
-        <v>3918</v>
+        <v>3911</v>
       </c>
       <c r="C1719" s="15"/>
       <c r="D1719" s="16"/>
@@ -62362,10 +62372,10 @@
       <c r="K1719" s="17"/>
       <c r="L1719" s="17"/>
       <c r="M1719" s="18" t="s">
-        <v>3917</v>
+        <v>3910</v>
       </c>
       <c r="N1719" s="18" t="s">
-        <v>3915</v>
+        <v>3908</v>
       </c>
       <c r="O1719" s="19"/>
       <c r="P1719" s="19"/>
@@ -62376,7 +62386,7 @@
         <v>11502</v>
       </c>
       <c r="B1720" s="27" t="s">
-        <v>3919</v>
+        <v>3912</v>
       </c>
       <c r="C1720" s="15"/>
       <c r="D1720" s="16"/>
@@ -62389,10 +62399,10 @@
       <c r="K1720" s="17"/>
       <c r="L1720" s="17"/>
       <c r="M1720" s="18" t="s">
-        <v>3572</v>
+        <v>3569</v>
       </c>
       <c r="N1720" s="18" t="s">
-        <v>3664</v>
+        <v>3661</v>
       </c>
       <c r="O1720" s="19"/>
       <c r="P1720" s="19"/>
@@ -62403,7 +62413,7 @@
         <v>11503</v>
       </c>
       <c r="B1721" s="27" t="s">
-        <v>3843</v>
+        <v>3839</v>
       </c>
       <c r="C1721" s="15"/>
       <c r="D1721" s="16"/>
@@ -62418,7 +62428,7 @@
       <c r="K1721" s="17"/>
       <c r="L1721" s="17"/>
       <c r="M1721" s="18" t="s">
-        <v>3844</v>
+        <v>3840</v>
       </c>
       <c r="N1721" s="18"/>
       <c r="O1721" s="19"/>
@@ -62430,7 +62440,7 @@
         <v>11504</v>
       </c>
       <c r="B1722" s="15" t="s">
-        <v>3845</v>
+        <v>3841</v>
       </c>
       <c r="C1722" s="15">
         <v>3</v>
